--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_96.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_96.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g29092-d10372357-Reviews-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>85</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Orange-County-Hotels-Candlewood-Suites-Anaheim-Resort-Area.h974963.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_96.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_96.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="393">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1099 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/29/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r586300109-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>29092</t>
+  </si>
+  <si>
+    <t>10372357</t>
+  </si>
+  <si>
+    <t>586300109</t>
+  </si>
+  <si>
+    <t>06/09/2018</t>
+  </si>
+  <si>
+    <t>Clean basic hotel, parking issues</t>
+  </si>
+  <si>
+    <t>We were here one night when our favorite "regular" hotels were booked during a last minute trip. The hotel was clean and the room was spacious. The full kitchen would have been nice if we were staying for longer. Huge shower in our room was a nice plus. We were going to Disneyland. The shuttle stop is right outside and very convenient. If you are looking for walking distance, you need to look elsewhere. Also, parking was EXTREMELY limited.</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r583466550-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>583466550</t>
+  </si>
+  <si>
+    <t>05/28/2018</t>
+  </si>
+  <si>
+    <t>Nice and big rooms, decent service and a long walk to Disneyland</t>
+  </si>
+  <si>
+    <t>We stayed at Candlewood suites in February 2018. We had won a room for part of our trip from a local travel agency but we needed two rooms for a little longer than what we had won so we did purchase room nights during our trip.  The rates were very reasonable given the size and cleanliness of the rooms.  We have traveled to Anaheim several times the past few years and never had as big a room as these.  We loved the kitchen and even the bathroom was nice and spacious.  The room was very well kept and clean upon arrival.  There were a couple downsides to the hotel.  It was not as close to the parks as we thought.  We usually stay on Harbor so this was a bit more of a walk than we were used to.  It was about 25-30 minutes to the park gates and we had gotten lost more than a couple times while we were there.  It would have been nice if they provided a map showing the easiest route to walk to the park.  Also, I had called the week before confirming if they had the swimming pool open during the time we were to arrive and they had said they would be open.  But when we checked in the pool was closed due to maintenance.  My kids were very disappointed as we had told them they'd get to swim so they had...We stayed at Candlewood suites in February 2018. We had won a room for part of our trip from a local travel agency but we needed two rooms for a little longer than what we had won so we did purchase room nights during our trip.  The rates were very reasonable given the size and cleanliness of the rooms.  We have traveled to Anaheim several times the past few years and never had as big a room as these.  We loved the kitchen and even the bathroom was nice and spacious.  The room was very well kept and clean upon arrival.  There were a couple downsides to the hotel.  It was not as close to the parks as we thought.  We usually stay on Harbor so this was a bit more of a walk than we were used to.  It was about 25-30 minutes to the park gates and we had gotten lost more than a couple times while we were there.  It would have been nice if they provided a map showing the easiest route to walk to the park.  Also, I had called the week before confirming if they had the swimming pool open during the time we were to arrive and they had said they would be open.  But when we checked in the pool was closed due to maintenance.  My kids were very disappointed as we had told them they'd get to swim so they had been excited for that only to be let down.  The service was mediocre.  Not anything to complain or rave about.  I would stay here again if we were going into town for something other than Disneyland but we did not like the walk to the parks.  With 2 small kids and a giant stroller a shuttle was not a good option for us.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Tae C, General Manager at Candlewood Suites Anaheim - Resort Area, responded to this reviewResponded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>We stayed at Candlewood suites in February 2018. We had won a room for part of our trip from a local travel agency but we needed two rooms for a little longer than what we had won so we did purchase room nights during our trip.  The rates were very reasonable given the size and cleanliness of the rooms.  We have traveled to Anaheim several times the past few years and never had as big a room as these.  We loved the kitchen and even the bathroom was nice and spacious.  The room was very well kept and clean upon arrival.  There were a couple downsides to the hotel.  It was not as close to the parks as we thought.  We usually stay on Harbor so this was a bit more of a walk than we were used to.  It was about 25-30 minutes to the park gates and we had gotten lost more than a couple times while we were there.  It would have been nice if they provided a map showing the easiest route to walk to the park.  Also, I had called the week before confirming if they had the swimming pool open during the time we were to arrive and they had said they would be open.  But when we checked in the pool was closed due to maintenance.  My kids were very disappointed as we had told them they'd get to swim so they had...We stayed at Candlewood suites in February 2018. We had won a room for part of our trip from a local travel agency but we needed two rooms for a little longer than what we had won so we did purchase room nights during our trip.  The rates were very reasonable given the size and cleanliness of the rooms.  We have traveled to Anaheim several times the past few years and never had as big a room as these.  We loved the kitchen and even the bathroom was nice and spacious.  The room was very well kept and clean upon arrival.  There were a couple downsides to the hotel.  It was not as close to the parks as we thought.  We usually stay on Harbor so this was a bit more of a walk than we were used to.  It was about 25-30 minutes to the park gates and we had gotten lost more than a couple times while we were there.  It would have been nice if they provided a map showing the easiest route to walk to the park.  Also, I had called the week before confirming if they had the swimming pool open during the time we were to arrive and they had said they would be open.  But when we checked in the pool was closed due to maintenance.  My kids were very disappointed as we had told them they'd get to swim so they had been excited for that only to be let down.  The service was mediocre.  Not anything to complain or rave about.  I would stay here again if we were going into town for something other than Disneyland but we did not like the walk to the parks.  With 2 small kids and a giant stroller a shuttle was not a good option for us.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r583408123-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>583408123</t>
+  </si>
+  <si>
+    <t>Disneyland Trip</t>
+  </si>
+  <si>
+    <t>Wonderful Staff Arianna was so nice and helpfull , Super Clean hotel looks very appealing from the inside and out , Very close to Disneyland and super inexpensive. The only thing really is no drinking water fountain besides the gym should be one with the lobbyMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Wonderful Staff Arianna was so nice and helpfull , Super Clean hotel looks very appealing from the inside and out , Very close to Disneyland and super inexpensive. The only thing really is no drinking water fountain besides the gym should be one with the lobbyMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r575493304-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>575493304</t>
+  </si>
+  <si>
+    <t>04/24/2018</t>
+  </si>
+  <si>
+    <t>Great hotel, location, price.. and especially staff!</t>
+  </si>
+  <si>
+    <t>I just recently stayed here with my young son (taking him on a surprise trip to Disneyland). I've stayed in a Candlewood Suites before and loved the room for the price you pay and I was not disappointed again! My trip didn't start off great as my wallet turned up missing. The staff could not have been more helpful and understanding and I was incredibly grateful. Fortunately it was turned in the next day and the front desk contacted me immediately. Even with the rocky start, the trip ended up being successful and I appreciated the staff checking in to see how everything was going throughout the rest of our vacation! Bonus- Within walking distance to good restaurants as well as Disneyland or you can just buy a bus pass at the front desk if you're looking to save your legs for walking around the park instead. Would definitely stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>Tae C, General Manager at Candlewood Suites Anaheim - Resort Area, responded to this reviewResponded April 27, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 27, 2018</t>
+  </si>
+  <si>
+    <t>I just recently stayed here with my young son (taking him on a surprise trip to Disneyland). I've stayed in a Candlewood Suites before and loved the room for the price you pay and I was not disappointed again! My trip didn't start off great as my wallet turned up missing. The staff could not have been more helpful and understanding and I was incredibly grateful. Fortunately it was turned in the next day and the front desk contacted me immediately. Even with the rocky start, the trip ended up being successful and I appreciated the staff checking in to see how everything was going throughout the rest of our vacation! Bonus- Within walking distance to good restaurants as well as Disneyland or you can just buy a bus pass at the front desk if you're looking to save your legs for walking around the park instead. Would definitely stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r574825437-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>574825437</t>
+  </si>
+  <si>
+    <t>04/21/2018</t>
+  </si>
+  <si>
+    <t>Vacation</t>
+  </si>
+  <si>
+    <t>I must say, it was the best. Staff is amazing, Arianna was remarkable. I will come back because of Arianna. She made us feel welcome. Great customer service. The room was very comfortable loved it. Truely recommend this place,Candlewood Suites yes.MoreShow less</t>
+  </si>
+  <si>
+    <t>Tae C, General Manager at Candlewood Suites Anaheim - Resort Area, responded to this reviewResponded April 23, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 23, 2018</t>
+  </si>
+  <si>
+    <t>I must say, it was the best. Staff is amazing, Arianna was remarkable. I will come back because of Arianna. She made us feel welcome. Great customer service. The room was very comfortable loved it. Truely recommend this place,Candlewood Suites yes.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r573584914-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>573584914</t>
+  </si>
+  <si>
+    <t>04/15/2018</t>
+  </si>
+  <si>
+    <t>good hotel within walking distance to Disneyland</t>
+  </si>
+  <si>
+    <t>We were able to get rooms at this hotel several weeks prior to visiting Disneyland.  After we checked into Room #608, we realized the air conditioning didn't work.  A quick phone call brought their electrician who said the unit needed to be replaced.  We were able to be moved to another room several rooms away from Room #608.  We did request a room facing NORTH so we could watch the Disneyland fireworks ... but we realized much later after we'd unpacked and were settled in that we were in a room facing south.  Gotta teach those employees which direction is NORTH.  :-(It is about a 15-20 minute walk from the hotel to Disneyland and easy to navigate; you won't get lost.  Just follow the crowd.MoreShow less</t>
+  </si>
+  <si>
+    <t>Tae C, General Manager at Candlewood Suites Anaheim - Resort Area, responded to this reviewResponded April 16, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 16, 2018</t>
+  </si>
+  <si>
+    <t>We were able to get rooms at this hotel several weeks prior to visiting Disneyland.  After we checked into Room #608, we realized the air conditioning didn't work.  A quick phone call brought their electrician who said the unit needed to be replaced.  We were able to be moved to another room several rooms away from Room #608.  We did request a room facing NORTH so we could watch the Disneyland fireworks ... but we realized much later after we'd unpacked and were settled in that we were in a room facing south.  Gotta teach those employees which direction is NORTH.  :-(It is about a 15-20 minute walk from the hotel to Disneyland and easy to navigate; you won't get lost.  Just follow the crowd.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r569329671-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>569329671</t>
+  </si>
+  <si>
+    <t>03/28/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excellent Anaheim Jewel </t>
+  </si>
+  <si>
+    <t>My wife and I decided to stay here for a quick mid week getaway . We were pleased with the look and feel of the hotel and friendly staff. The location relative to Disney, Garden Walk and the nice restaurants was ideal; all within walking distance. This hotel really felt safe (key access to parking garage as well as a secure doors that leads to an elevator that takes you directly to sleeping room floors from garage or to the lobby (plenty of cameras).My wife loved the well lit hallways, the fresh smell of the hotel interior and especially in our suites. She however was most impressed with the super comfortable bed. I am not exaggerating when I tell you that this is the most comfortable bed that we have slept in, in forever!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>Tae C, General Manager at Candlewood Suites Anaheim - Resort Area, responded to this reviewResponded March 29, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 29, 2018</t>
+  </si>
+  <si>
+    <t>My wife and I decided to stay here for a quick mid week getaway . We were pleased with the look and feel of the hotel and friendly staff. The location relative to Disney, Garden Walk and the nice restaurants was ideal; all within walking distance. This hotel really felt safe (key access to parking garage as well as a secure doors that leads to an elevator that takes you directly to sleeping room floors from garage or to the lobby (plenty of cameras).My wife loved the well lit hallways, the fresh smell of the hotel interior and especially in our suites. She however was most impressed with the super comfortable bed. I am not exaggerating when I tell you that this is the most comfortable bed that we have slept in, in forever!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r564398351-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>564398351</t>
+  </si>
+  <si>
+    <t>03/04/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Family vacation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">My family and I stayed at this wonderful hotel. The front desk service was very helpful and friendly. The room we stayed in was perfect for a family are size 2 adults and 2 children. The hotel over all is very clean from the rooms to the parking lot and the price was extremely affordable being so near Disneyland. This is a hotel that I will be booking future stays at and will be recommending to people. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r563232031-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>563232031</t>
+  </si>
+  <si>
+    <t>02/27/2018</t>
+  </si>
+  <si>
+    <t>Nice hotel in proxmitity</t>
+  </si>
+  <si>
+    <t>Not exactly walking distance (unless you kids can walk 30 mins at night on your walk back) but it's close enough and the hotel is reasonable priced and maintained well. If you an IHG platinum elite (just get the credit card), they waive the parking fee and give you free some snack / meals.There is a pool but it's really small. Not sure you would even bother as you are in Anaheim for one thing only.</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r561370294-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>561370294</t>
+  </si>
+  <si>
+    <t>02/18/2018</t>
+  </si>
+  <si>
+    <t>Nice for a Disneyland stay</t>
+  </si>
+  <si>
+    <t>Solid spot for a few days at Disneyland. Not a bad walk to the theme parks. Clean and decently appointed extended stay rooms. We caught a nice rate for our stay too, which worked out well. Quite pleased with this property overall and would consider in the future.</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r560023649-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>560023649</t>
+  </si>
+  <si>
+    <t>02/12/2018</t>
+  </si>
+  <si>
+    <t>Nice place, easy walk to the parks</t>
+  </si>
+  <si>
+    <t>Comes with a kitchen and desk area, in addition seems fairly new.  The resort does not provide breakfast but do have coffee downstairs as well as in the room.About a twenty minute walk to downtown Disney and the parks, so nice location. Overall good place to stay</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r556533141-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>556533141</t>
+  </si>
+  <si>
+    <t>01/26/2018</t>
+  </si>
+  <si>
+    <t>Good low-budget accommodations</t>
+  </si>
+  <si>
+    <t>I spent a night at the Candlewood Suites during the NAMM Show. Thanks to a show discount, my room rate was only $139. (With room taxes, etc., it came to about $173.) 
+The GOOD: The location is clean. The check-in staff was super-courteous and prompt. The rooms are small, but reasonably well-designed, and mine was very clean. 
+The BAD: The decor, unfortunately, feels straight out of 1987. (See photo.) The linens, while clean, were all "scratchy," from the sheets to the bath towels. 
+California energy regulations now require motion sensors in all bathrooms, so when you enter the bathroom in the middle of the night, you will be blinded by all the lights turning on. (Not the hotel's fault, but I think a better choice of lights would help.)
+Freeway noise was not a problem when I went to bed, but in the morning, I woke up at 5am and the noise was significant enough that I couldn't go back to sleep. Having appliances in the room is also a noise factor, and there was a constant clicking through the night (like a bird pecking on the wall) that I assume was the refrigerator. Although my room was elevator-adjacent, I did not hear any noise from the elevator, other than noisy guests coming and going.
+Note: It's an easy one-mile walk to Disney or the Convention Center. However, I walked to my event via Katella, which is brightly lit, has...I spent a night at the Candlewood Suites during the NAMM Show. Thanks to a show discount, my room rate was only $139. (With room taxes, etc., it came to about $173.) The GOOD: The location is clean. The check-in staff was super-courteous and prompt. The rooms are small, but reasonably well-designed, and mine was very clean. The BAD: The decor, unfortunately, feels straight out of 1987. (See photo.) The linens, while clean, were all "scratchy," from the sheets to the bath towels. California energy regulations now require motion sensors in all bathrooms, so when you enter the bathroom in the middle of the night, you will be blinded by all the lights turning on. (Not the hotel's fault, but I think a better choice of lights would help.)Freeway noise was not a problem when I went to bed, but in the morning, I woke up at 5am and the noise was significant enough that I couldn't go back to sleep. Having appliances in the room is also a noise factor, and there was a constant clicking through the night (like a bird pecking on the wall) that I assume was the refrigerator. Although my room was elevator-adjacent, I did not hear any noise from the elevator, other than noisy guests coming and going.Note: It's an easy one-mile walk to Disney or the Convention Center. However, I walked to my event via Katella, which is brightly lit, has lots of businesses, and feels safe. My maps app had me return from the event via Disney Way, which is dark, creepy, and I would strongly recommend avoiding at night.Despite my caveats, I would recommend Candlewood Suites Anaheim for anyone who wants a clean, friendly budget hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Freddy C, Front Office Manager at Candlewood Suites Anaheim - Resort Area, responded to this reviewResponded January 29, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 29, 2018</t>
+  </si>
+  <si>
+    <t>I spent a night at the Candlewood Suites during the NAMM Show. Thanks to a show discount, my room rate was only $139. (With room taxes, etc., it came to about $173.) 
+The GOOD: The location is clean. The check-in staff was super-courteous and prompt. The rooms are small, but reasonably well-designed, and mine was very clean. 
+The BAD: The decor, unfortunately, feels straight out of 1987. (See photo.) The linens, while clean, were all "scratchy," from the sheets to the bath towels. 
+California energy regulations now require motion sensors in all bathrooms, so when you enter the bathroom in the middle of the night, you will be blinded by all the lights turning on. (Not the hotel's fault, but I think a better choice of lights would help.)
+Freeway noise was not a problem when I went to bed, but in the morning, I woke up at 5am and the noise was significant enough that I couldn't go back to sleep. Having appliances in the room is also a noise factor, and there was a constant clicking through the night (like a bird pecking on the wall) that I assume was the refrigerator. Although my room was elevator-adjacent, I did not hear any noise from the elevator, other than noisy guests coming and going.
+Note: It's an easy one-mile walk to Disney or the Convention Center. However, I walked to my event via Katella, which is brightly lit, has...I spent a night at the Candlewood Suites during the NAMM Show. Thanks to a show discount, my room rate was only $139. (With room taxes, etc., it came to about $173.) The GOOD: The location is clean. The check-in staff was super-courteous and prompt. The rooms are small, but reasonably well-designed, and mine was very clean. The BAD: The decor, unfortunately, feels straight out of 1987. (See photo.) The linens, while clean, were all "scratchy," from the sheets to the bath towels. California energy regulations now require motion sensors in all bathrooms, so when you enter the bathroom in the middle of the night, you will be blinded by all the lights turning on. (Not the hotel's fault, but I think a better choice of lights would help.)Freeway noise was not a problem when I went to bed, but in the morning, I woke up at 5am and the noise was significant enough that I couldn't go back to sleep. Having appliances in the room is also a noise factor, and there was a constant clicking through the night (like a bird pecking on the wall) that I assume was the refrigerator. Although my room was elevator-adjacent, I did not hear any noise from the elevator, other than noisy guests coming and going.Note: It's an easy one-mile walk to Disney or the Convention Center. However, I walked to my event via Katella, which is brightly lit, has lots of businesses, and feels safe. My maps app had me return from the event via Disney Way, which is dark, creepy, and I would strongly recommend avoiding at night.Despite my caveats, I would recommend Candlewood Suites Anaheim for anyone who wants a clean, friendly budget hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r550527356-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>550527356</t>
+  </si>
+  <si>
+    <t>12/31/2017</t>
+  </si>
+  <si>
+    <t>Nice place to stay!</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here for a weekend getaway. Great bed and pillows. Had a really nice kitchenette (dishwasher, plates, cutlery, glasses, pot, toaster, etc) with a two burner stove, full size refrigerator,sink, and large microwave. All appliances were super clean, no funky odors! There was a nice tv, and, according my husband, nice Direct TV channels. There was a built in L-shaped desk (which would be perfect for laptop work) which (the shorter end) doubled as a dining table. Bathroom was nice and clean. No mildew spots on grout around tub. The shower head was high enough for my 6 foot 4 inch husband to be able to shower in without having to duck his head. Plenty of hot water too! Because of the kitchenette, I would recommend this hotel to travelers staying for a few days,especially if you want to save money by making your own food instead of going out to eat for every meal. This hotel has toasters, waffle irons, crock pots and many other small appliances you can barrow from the main lobby/check-in area to use for cooking purposes in your room. Great friendly staff too! We will definitely stay here again and recommend to others!MoreShow less</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here for a weekend getaway. Great bed and pillows. Had a really nice kitchenette (dishwasher, plates, cutlery, glasses, pot, toaster, etc) with a two burner stove, full size refrigerator,sink, and large microwave. All appliances were super clean, no funky odors! There was a nice tv, and, according my husband, nice Direct TV channels. There was a built in L-shaped desk (which would be perfect for laptop work) which (the shorter end) doubled as a dining table. Bathroom was nice and clean. No mildew spots on grout around tub. The shower head was high enough for my 6 foot 4 inch husband to be able to shower in without having to duck his head. Plenty of hot water too! Because of the kitchenette, I would recommend this hotel to travelers staying for a few days,especially if you want to save money by making your own food instead of going out to eat for every meal. This hotel has toasters, waffle irons, crock pots and many other small appliances you can barrow from the main lobby/check-in area to use for cooking purposes in your room. Great friendly staff too! We will definitely stay here again and recommend to others!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r548316311-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>548316311</t>
+  </si>
+  <si>
+    <t>12/20/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good place </t>
+  </si>
+  <si>
+    <t>A solid 3 stars amenities, but I am giving a 4 for the friendly and cordial staff (both day and night shift). We stayed in a 1 bedroom 2 baths suite. The carpet was a bit worn and the furniture are a bit dated in the room. But the room and bathrooms were clean, the bed sheets, blankets and pillow cases were well-laundered. The bed was comfortable. The pots and pans, coffee maker were squeaky clean. Free coffee and tea in room. Dishwasher in room with detergent given. I asked for an extra set of blanket and pillow, and they were prompt, no issue whatsoever. There is a pool and a small exercise room (no one seemed to use it). No lobby area per se, just small area for check in with a set of sofa, and an area for vending machines and snacks for purchase. No breakfast service but 7-11 was just a block away (5 minutes walk). The location is convenient enough for Disneyland visit but you will likely need to drive (a short drive). Parking at Candlewood is 10 usd per night. There is also a coin laundry room on-site. Overall a good stay and would not mind to stay again. MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>A solid 3 stars amenities, but I am giving a 4 for the friendly and cordial staff (both day and night shift). We stayed in a 1 bedroom 2 baths suite. The carpet was a bit worn and the furniture are a bit dated in the room. But the room and bathrooms were clean, the bed sheets, blankets and pillow cases were well-laundered. The bed was comfortable. The pots and pans, coffee maker were squeaky clean. Free coffee and tea in room. Dishwasher in room with detergent given. I asked for an extra set of blanket and pillow, and they were prompt, no issue whatsoever. There is a pool and a small exercise room (no one seemed to use it). No lobby area per se, just small area for check in with a set of sofa, and an area for vending machines and snacks for purchase. No breakfast service but 7-11 was just a block away (5 minutes walk). The location is convenient enough for Disneyland visit but you will likely need to drive (a short drive). Parking at Candlewood is 10 usd per night. There is also a coin laundry room on-site. Overall a good stay and would not mind to stay again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r547401142-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>547401142</t>
+  </si>
+  <si>
+    <t>12/15/2017</t>
+  </si>
+  <si>
+    <t>Choose this hotel!</t>
+  </si>
+  <si>
+    <t>As someone who seeks comfortable lodging that is clean and reasonably priced, Candlewood Suites far exceeded my expectations! The staff was friendly and attentive! The kitchenette was very well appointed and even though we didn’t cook in the room, having a grocery delivery on our first night allowed us to not have to buy water or soda in the parks! We can’t wait to return!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r544511051-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>544511051</t>
+  </si>
+  <si>
+    <t>12/01/2017</t>
+  </si>
+  <si>
+    <t>Good place</t>
+  </si>
+  <si>
+    <t>Nice sized room with good parking. The ART bus system stops nearby that is only a five minute ride to the mouse park. The location is easy of and on to I-5 but near lots of good places to eat, from everything from fancy to super expensive. Also, it is also close to shopping.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Candlewood Suites Anaheim - Resort Area, responded to this reviewResponded December 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 15, 2017</t>
+  </si>
+  <si>
+    <t>Nice sized room with good parking. The ART bus system stops nearby that is only a five minute ride to the mouse park. The location is easy of and on to I-5 but near lots of good places to eat, from everything from fancy to super expensive. Also, it is also close to shopping.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r542689830-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>542689830</t>
+  </si>
+  <si>
+    <t>11/22/2017</t>
+  </si>
+  <si>
+    <t>Hot stay</t>
+  </si>
+  <si>
+    <t>Stayed here on the promise of a pool and air con. Well the air didn’t work and the pool was more like an oversized hot tub. Weather was hot and this made for an uncomfortable stay. Staff were pleasant. Room was clean enough.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Candlewood Suites Anaheim - Resort Area, responded to this reviewResponded December 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 6, 2017</t>
+  </si>
+  <si>
+    <t>Stayed here on the promise of a pool and air con. Well the air didn’t work and the pool was more like an oversized hot tub. Weather was hot and this made for an uncomfortable stay. Staff were pleasant. Room was clean enough.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r541181481-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>541181481</t>
+  </si>
+  <si>
+    <t>11/15/2017</t>
+  </si>
+  <si>
+    <t>Location and Amenities are ideal for family with kids.</t>
+  </si>
+  <si>
+    <t>Stayed in room 507 with kitchen suite, fold out bed and queen room. Check in and check out was straight forward. Free parking, compliementary laundry, satellite TV, WiFi, common community cupboard, fitness room, therapy pool and BBQ patio was nice extras.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>Gene K, Manager at Candlewood Suites Anaheim - Resort Area, responded to this reviewResponded November 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 16, 2017</t>
+  </si>
+  <si>
+    <t>Stayed in room 507 with kitchen suite, fold out bed and queen room. Check in and check out was straight forward. Free parking, compliementary laundry, satellite TV, WiFi, common community cupboard, fitness room, therapy pool and BBQ patio was nice extras.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r534868024-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>534868024</t>
+  </si>
+  <si>
+    <t>10/21/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pleasant enough </t>
+  </si>
+  <si>
+    <t>Pleasant enough. Kind of suspicious of people standing around outside of the building at all times of the day. Had experience that someone tried to open entry door as we were waiting for garage elevator. Did not open on as room key is required for entry. Room was spacious but a little on the unclean side. Floor needed vacuuming. Refrigerator made noise throughout the stay. Check in took a long time as clerk was having problems with register. MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>Pleasant enough. Kind of suspicious of people standing around outside of the building at all times of the day. Had experience that someone tried to open entry door as we were waiting for garage elevator. Did not open on as room key is required for entry. Room was spacious but a little on the unclean side. Floor needed vacuuming. Refrigerator made noise throughout the stay. Check in took a long time as clerk was having problems with register. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r532097553-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>532097553</t>
+  </si>
+  <si>
+    <t>10/11/2017</t>
+  </si>
+  <si>
+    <t>Payment Policies Unfair, Customer Service Rude</t>
+  </si>
+  <si>
+    <t>I want to start this review by saying that I have not yet completed my stay at the Candlewood Suites and that nothing in this review is a reflection of my experience at the hotel.
+I booked my stay at this hotel about a month ago.  Today (Wed), I received a call from the hotel saying that they charged my card for my stay (arriving Sat) but that it was declined. I apologized and let them know that in my past experience with other IHG hotels my card was never charged until check-in and I offered to give them another card to put it on. They told me that they would be unable to put it on another card and that if the charge did not go through by the end of the day that the reservation would be cancelled but that I would STILL be responsible for paying the balance in total. So essentially I had 3 hours to put a payment through on my credit card, or be charge $500 AND forfeit my stay. 
+While I do acknowledge that I should have had the balance on my card, to me it is a little ridiculous that they would put the charge through at such a random time (4 days before my arrival) and give me such short notice about the insufficient funds (3 HOURS!!!). To me this seems like a ploy to screw people out of extremely expensive...I want to start this review by saying that I have not yet completed my stay at the Candlewood Suites and that nothing in this review is a reflection of my experience at the hotel.I booked my stay at this hotel about a month ago.  Today (Wed), I received a call from the hotel saying that they charged my card for my stay (arriving Sat) but that it was declined. I apologized and let them know that in my past experience with other IHG hotels my card was never charged until check-in and I offered to give them another card to put it on. They told me that they would be unable to put it on another card and that if the charge did not go through by the end of the day that the reservation would be cancelled but that I would STILL be responsible for paying the balance in total. So essentially I had 3 hours to put a payment through on my credit card, or be charge $500 AND forfeit my stay. While I do acknowledge that I should have had the balance on my card, to me it is a little ridiculous that they would put the charge through at such a random time (4 days before my arrival) and give me such short notice about the insufficient funds (3 HOURS!!!). To me this seems like a ploy to screw people out of extremely expensive reservations. Very disappointed in this hotel and the entire IHG brand.MoreShow less</t>
+  </si>
+  <si>
+    <t>Gene K, Manager at Candlewood Suites Anaheim - Resort Area, responded to this reviewResponded October 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 12, 2017</t>
+  </si>
+  <si>
+    <t>I want to start this review by saying that I have not yet completed my stay at the Candlewood Suites and that nothing in this review is a reflection of my experience at the hotel.
+I booked my stay at this hotel about a month ago.  Today (Wed), I received a call from the hotel saying that they charged my card for my stay (arriving Sat) but that it was declined. I apologized and let them know that in my past experience with other IHG hotels my card was never charged until check-in and I offered to give them another card to put it on. They told me that they would be unable to put it on another card and that if the charge did not go through by the end of the day that the reservation would be cancelled but that I would STILL be responsible for paying the balance in total. So essentially I had 3 hours to put a payment through on my credit card, or be charge $500 AND forfeit my stay. 
+While I do acknowledge that I should have had the balance on my card, to me it is a little ridiculous that they would put the charge through at such a random time (4 days before my arrival) and give me such short notice about the insufficient funds (3 HOURS!!!). To me this seems like a ploy to screw people out of extremely expensive...I want to start this review by saying that I have not yet completed my stay at the Candlewood Suites and that nothing in this review is a reflection of my experience at the hotel.I booked my stay at this hotel about a month ago.  Today (Wed), I received a call from the hotel saying that they charged my card for my stay (arriving Sat) but that it was declined. I apologized and let them know that in my past experience with other IHG hotels my card was never charged until check-in and I offered to give them another card to put it on. They told me that they would be unable to put it on another card and that if the charge did not go through by the end of the day that the reservation would be cancelled but that I would STILL be responsible for paying the balance in total. So essentially I had 3 hours to put a payment through on my credit card, or be charge $500 AND forfeit my stay. While I do acknowledge that I should have had the balance on my card, to me it is a little ridiculous that they would put the charge through at such a random time (4 days before my arrival) and give me such short notice about the insufficient funds (3 HOURS!!!). To me this seems like a ploy to screw people out of extremely expensive reservations. Very disappointed in this hotel and the entire IHG brand.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r520757573-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>520757573</t>
+  </si>
+  <si>
+    <t>09/03/2017</t>
+  </si>
+  <si>
+    <t>Great hotel</t>
+  </si>
+  <si>
+    <t>We were on our honeymoon for the final part of our trip to California. We arrived about 4.30pm and checked in straight away. Check in was fast and efficient I paid for our pre booked room and $50 was also held on the card for incidentals. We had a room on the 3rd floor by the lift we are concerned it would be noisy but this wasn't the case. Our room was very nice and comfortable the fridge was a great asset to the room. We never used anything else to cook with but there was also a dishwasher, small stove, microwave and utensils. Bathroom was large and clean. One afternoon we went to the pool which was small but the decking area was lovely with lots of loungers and even BBQs which were being cleaned- the man doing this never stopped cleaning everywhere each time we saw him around the hotel. We walked to and from the Disney parks during our stay it was an easy walk and in a good area. We had a great stay and would return here. MoreShow less</t>
+  </si>
+  <si>
+    <t>We were on our honeymoon for the final part of our trip to California. We arrived about 4.30pm and checked in straight away. Check in was fast and efficient I paid for our pre booked room and $50 was also held on the card for incidentals. We had a room on the 3rd floor by the lift we are concerned it would be noisy but this wasn't the case. Our room was very nice and comfortable the fridge was a great asset to the room. We never used anything else to cook with but there was also a dishwasher, small stove, microwave and utensils. Bathroom was large and clean. One afternoon we went to the pool which was small but the decking area was lovely with lots of loungers and even BBQs which were being cleaned- the man doing this never stopped cleaning everywhere each time we saw him around the hotel. We walked to and from the Disney parks during our stay it was an easy walk and in a good area. We had a great stay and would return here. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r513094180-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>513094180</t>
+  </si>
+  <si>
+    <t>08/15/2017</t>
+  </si>
+  <si>
+    <t>Nice Property</t>
+  </si>
+  <si>
+    <t>My husband chose this hotel while staying for business, and i tagged along to visit Disneyland. The location is good...several restaurants nearby, within walking distance. It is close to the highway too. Proximity to Disney is OK...I walked, and it was just under a mile. If you're OK with walking, then it's a great property for a Disney related trip. 
+Room...decent size room. The kitchen was nice, though we didn't use it much. Used the fridge for chilling water and storing leftover pizza, which we reheated in the microwave. We had one lamp that wouldn't work. I let the front desk know on our way out in the morning, and upon returning that evening it had been fixed. No other issues with the room...everything else functioned well and we had no problems. Towels were replaced and the bed made, trash emptied daily. 
+There is a small area for some basic food and drinks available for purchase. No restaurant or breakfast available in this area. Just a grab and go type of set up. There are also some items available for borrowing...games, additional kitchen items, grilling tools. There are 3 nice size gas grills up at the pool deck. We didn't use them, but they looked nice.
+Pool area...pool is very small. Don't stay here if a large pool is important to you. However, the water was the perfect temp, pool was clean. Nice lounge chairs near the pool and the...My husband chose this hotel while staying for business, and i tagged along to visit Disneyland. The location is good...several restaurants nearby, within walking distance. It is close to the highway too. Proximity to Disney is OK...I walked, and it was just under a mile. If you're OK with walking, then it's a great property for a Disney related trip. Room...decent size room. The kitchen was nice, though we didn't use it much. Used the fridge for chilling water and storing leftover pizza, which we reheated in the microwave. We had one lamp that wouldn't work. I let the front desk know on our way out in the morning, and upon returning that evening it had been fixed. No other issues with the room...everything else functioned well and we had no problems. Towels were replaced and the bed made, trash emptied daily. There is a small area for some basic food and drinks available for purchase. No restaurant or breakfast available in this area. Just a grab and go type of set up. There are also some items available for borrowing...games, additional kitchen items, grilling tools. There are 3 nice size gas grills up at the pool deck. We didn't use them, but they looked nice.Pool area...pool is very small. Don't stay here if a large pool is important to you. However, the water was the perfect temp, pool was clean. Nice lounge chairs near the pool and the grilling area. There are also two rooms with additional tables and chairs and TV's in them. Nice if you want shade and an inside feel...they are open facing the pool. The only issue I had with cleanliness would be the stairways. It seemed like the same messy spots were on the stairs the whole stay...Monday-Friday. And there are trash cans on each level, and maybe someone put something gross in the trash and they don't get emptied often, because there was one stairway in particular that smelled rather bad each time I used it.Overall we had a good stay, and would stay again if in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded August 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 17, 2017</t>
+  </si>
+  <si>
+    <t>My husband chose this hotel while staying for business, and i tagged along to visit Disneyland. The location is good...several restaurants nearby, within walking distance. It is close to the highway too. Proximity to Disney is OK...I walked, and it was just under a mile. If you're OK with walking, then it's a great property for a Disney related trip. 
+Room...decent size room. The kitchen was nice, though we didn't use it much. Used the fridge for chilling water and storing leftover pizza, which we reheated in the microwave. We had one lamp that wouldn't work. I let the front desk know on our way out in the morning, and upon returning that evening it had been fixed. No other issues with the room...everything else functioned well and we had no problems. Towels were replaced and the bed made, trash emptied daily. 
+There is a small area for some basic food and drinks available for purchase. No restaurant or breakfast available in this area. Just a grab and go type of set up. There are also some items available for borrowing...games, additional kitchen items, grilling tools. There are 3 nice size gas grills up at the pool deck. We didn't use them, but they looked nice.
+Pool area...pool is very small. Don't stay here if a large pool is important to you. However, the water was the perfect temp, pool was clean. Nice lounge chairs near the pool and the...My husband chose this hotel while staying for business, and i tagged along to visit Disneyland. The location is good...several restaurants nearby, within walking distance. It is close to the highway too. Proximity to Disney is OK...I walked, and it was just under a mile. If you're OK with walking, then it's a great property for a Disney related trip. Room...decent size room. The kitchen was nice, though we didn't use it much. Used the fridge for chilling water and storing leftover pizza, which we reheated in the microwave. We had one lamp that wouldn't work. I let the front desk know on our way out in the morning, and upon returning that evening it had been fixed. No other issues with the room...everything else functioned well and we had no problems. Towels were replaced and the bed made, trash emptied daily. There is a small area for some basic food and drinks available for purchase. No restaurant or breakfast available in this area. Just a grab and go type of set up. There are also some items available for borrowing...games, additional kitchen items, grilling tools. There are 3 nice size gas grills up at the pool deck. We didn't use them, but they looked nice.Pool area...pool is very small. Don't stay here if a large pool is important to you. However, the water was the perfect temp, pool was clean. Nice lounge chairs near the pool and the grilling area. There are also two rooms with additional tables and chairs and TV's in them. Nice if you want shade and an inside feel...they are open facing the pool. The only issue I had with cleanliness would be the stairways. It seemed like the same messy spots were on the stairs the whole stay...Monday-Friday. And there are trash cans on each level, and maybe someone put something gross in the trash and they don't get emptied often, because there was one stairway in particular that smelled rather bad each time I used it.Overall we had a good stay, and would stay again if in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r509844658-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>509844658</t>
+  </si>
+  <si>
+    <t>08/07/2017</t>
+  </si>
+  <si>
+    <t>Good room, Good value</t>
+  </si>
+  <si>
+    <t>We stayed 4 nights in Feb 2017. We did not have hot water the first night we stayed but we did the following nights. The staff was friendly and helpful, they refunded us for the night without hot water. The bed was comfortable and the room was very clean. For the deal we got through trip advisor, this was a great value.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded August 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 9, 2017</t>
+  </si>
+  <si>
+    <t>We stayed 4 nights in Feb 2017. We did not have hot water the first night we stayed but we did the following nights. The staff was friendly and helpful, they refunded us for the night without hot water. The bed was comfortable and the room was very clean. For the deal we got through trip advisor, this was a great value.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r509459686-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>509459686</t>
+  </si>
+  <si>
+    <t>08/06/2017</t>
+  </si>
+  <si>
+    <t>A dump</t>
+  </si>
+  <si>
+    <t>This hotel was so disgusting. I chose it based on reviews here. Carpets were filthy, the room smelled bad, we were given one very small shampoo/conditioner combo and two small bars of soap (for 4 people), there was a bunch of hair under the sheets of one of the beds, the air conditioner also did not work. We requested a different room and the new room was also dirty, plus the person directly across from us was blaring his tv. Someone was coming out of his room as we were bringing our stuff in and the room reeked of marijuana. We decided to leave and went to the Embassy Suites not far away. The only good thing I can say is that we had no problem when we said we didn't want to be charged for the room. I don't know how anyone could give this place a decent review. It was gross. If I could give it no stars, I would.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel was so disgusting. I chose it based on reviews here. Carpets were filthy, the room smelled bad, we were given one very small shampoo/conditioner combo and two small bars of soap (for 4 people), there was a bunch of hair under the sheets of one of the beds, the air conditioner also did not work. We requested a different room and the new room was also dirty, plus the person directly across from us was blaring his tv. Someone was coming out of his room as we were bringing our stuff in and the room reeked of marijuana. We decided to leave and went to the Embassy Suites not far away. The only good thing I can say is that we had no problem when we said we didn't want to be charged for the room. I don't know how anyone could give this place a decent review. It was gross. If I could give it no stars, I would.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r498889408-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>498889408</t>
+  </si>
+  <si>
+    <t>07/05/2017</t>
+  </si>
+  <si>
+    <t>Good Location, Clean and The Staff is nice, But I can't recommend</t>
+  </si>
+  <si>
+    <t>I am a IHG Gold Elite, soon to be Platinum.  I had two rooms and requested that they be close to each other and with an early check in.  When I arrived at 4PM, the guy at the desk said “oh, I was just trying to find a rooms near each other and we only have one room ready and I don’t have any rooms near each other.”  I realized these are only request, but I would think, they would try to honor request from your elite members and try to make the request happen the night before by blocking room’s etc.  
+We finally got into the other room almost two hours after the 3pm check in time.  We went out to dinner and came back, around 10:00 pm and the room next to us had a dog.  The dog was barking and whining continuously.  I called the front desk and they said they would call the guest (who clearly wasn’t in the room) They ask me if I wanted to move; I said NO!  I have a 5yo I need to get to bed, why should I have to move? We had to put on white noise to cancel out the dog barking.  The next morning before we left, I went to the front desk and made sure that they contacted the guest and make sure it doesn’t happen again or move them.  The girl didn’t even know what...I am a IHG Gold Elite, soon to be Platinum.  I had two rooms and requested that they be close to each other and with an early check in.  When I arrived at 4PM, the guy at the desk said “oh, I was just trying to find a rooms near each other and we only have one room ready and I don’t have any rooms near each other.”  I realized these are only request, but I would think, they would try to honor request from your elite members and try to make the request happen the night before by blocking room’s etc.  We finally got into the other room almost two hours after the 3pm check in time.  We went out to dinner and came back, around 10:00 pm and the room next to us had a dog.  The dog was barking and whining continuously.  I called the front desk and they said they would call the guest (who clearly wasn’t in the room) They ask me if I wanted to move; I said NO!  I have a 5yo I need to get to bed, why should I have to move? We had to put on white noise to cancel out the dog barking.  The next morning before we left, I went to the front desk and made sure that they contacted the guest and make sure it doesn’t happen again or move them.  The girl didn’t even know what I was talking about.  The guy from the night before didn’t pass on the incident.  She assured me that they would take care of it.   We got back to the room around 8pm.  The guest had not been moved and the dog was barking and whining again.  I called the Front Desk again; the guy said he would call the guest.  He called me back and said the guess was upset that he was calling her about the dog barking and said that Expedia said the dog would be allowed to bark.  I said to the guy; seriously??  What hotel would ever allow that? He said, I know that can’t be true.  Then he asked me again; did I want to move?  I said again NO!  I shouldn’t have to move when we are not the one causing a problem, again another night we had to put the white noise on to drown out the dog barking.The next night day they either got moved or checked out, because we didn’t’ hear the dog again.  The A/C doesn’t’ work very well either, there is a small vent for the bedroom and never really that cool in the bedroom.   This hotel is located close to the parks. The bus stop is located right out front of the hotel.  I travel extensively and while this hotel is pretty clean and the staff is friendly.  I couldn’t recommend this place.  There are to many other hotels near the parks to choose from. This hotel needs to work on better training their employees and understand who their Elite members are.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Sureya A, Manager at Candlewood Suites Anaheim - Resort Area, responded to this reviewResponded July 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 7, 2017</t>
+  </si>
+  <si>
+    <t>I am a IHG Gold Elite, soon to be Platinum.  I had two rooms and requested that they be close to each other and with an early check in.  When I arrived at 4PM, the guy at the desk said “oh, I was just trying to find a rooms near each other and we only have one room ready and I don’t have any rooms near each other.”  I realized these are only request, but I would think, they would try to honor request from your elite members and try to make the request happen the night before by blocking room’s etc.  
+We finally got into the other room almost two hours after the 3pm check in time.  We went out to dinner and came back, around 10:00 pm and the room next to us had a dog.  The dog was barking and whining continuously.  I called the front desk and they said they would call the guest (who clearly wasn’t in the room) They ask me if I wanted to move; I said NO!  I have a 5yo I need to get to bed, why should I have to move? We had to put on white noise to cancel out the dog barking.  The next morning before we left, I went to the front desk and made sure that they contacted the guest and make sure it doesn’t happen again or move them.  The girl didn’t even know what...I am a IHG Gold Elite, soon to be Platinum.  I had two rooms and requested that they be close to each other and with an early check in.  When I arrived at 4PM, the guy at the desk said “oh, I was just trying to find a rooms near each other and we only have one room ready and I don’t have any rooms near each other.”  I realized these are only request, but I would think, they would try to honor request from your elite members and try to make the request happen the night before by blocking room’s etc.  We finally got into the other room almost two hours after the 3pm check in time.  We went out to dinner and came back, around 10:00 pm and the room next to us had a dog.  The dog was barking and whining continuously.  I called the front desk and they said they would call the guest (who clearly wasn’t in the room) They ask me if I wanted to move; I said NO!  I have a 5yo I need to get to bed, why should I have to move? We had to put on white noise to cancel out the dog barking.  The next morning before we left, I went to the front desk and made sure that they contacted the guest and make sure it doesn’t happen again or move them.  The girl didn’t even know what I was talking about.  The guy from the night before didn’t pass on the incident.  She assured me that they would take care of it.   We got back to the room around 8pm.  The guest had not been moved and the dog was barking and whining again.  I called the Front Desk again; the guy said he would call the guest.  He called me back and said the guess was upset that he was calling her about the dog barking and said that Expedia said the dog would be allowed to bark.  I said to the guy; seriously??  What hotel would ever allow that? He said, I know that can’t be true.  Then he asked me again; did I want to move?  I said again NO!  I shouldn’t have to move when we are not the one causing a problem, again another night we had to put the white noise on to drown out the dog barking.The next night day they either got moved or checked out, because we didn’t’ hear the dog again.  The A/C doesn’t’ work very well either, there is a small vent for the bedroom and never really that cool in the bedroom.   This hotel is located close to the parks. The bus stop is located right out front of the hotel.  I travel extensively and while this hotel is pretty clean and the staff is friendly.  I couldn’t recommend this place.  There are to many other hotels near the parks to choose from. This hotel needs to work on better training their employees and understand who their Elite members are.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r498540914-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>498540914</t>
+  </si>
+  <si>
+    <t>07/04/2017</t>
+  </si>
+  <si>
+    <t>Pleasant stay</t>
+  </si>
+  <si>
+    <t>We had a brief, but pleasant, stay at the Candlewood Suites. Location is very convenient to the Interstate, Disney, and Angels Stadium.  Liked the covered parking at no charge.  Beds were comfortable, and room was large enough for 4 of us.  The pool is tiny, but we were just there to cool off, so it did the trick. Would likely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>We had a brief, but pleasant, stay at the Candlewood Suites. Location is very convenient to the Interstate, Disney, and Angels Stadium.  Liked the covered parking at no charge.  Beds were comfortable, and room was large enough for 4 of us.  The pool is tiny, but we were just there to cool off, so it did the trick. Would likely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r498088899-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>498088899</t>
+  </si>
+  <si>
+    <t>07/02/2017</t>
+  </si>
+  <si>
+    <t>couldn't have been better!</t>
+  </si>
+  <si>
+    <t>The staff was very friendly and accommodating. They let us check in a few minutes early and let us leave our car in their parking garage longer than check out on the last day. I was able to get extra coffee, popcorn, creamer, etc. Whenever i asked for something they smiled and said "of course!" The room was a good size for two people. It was clean and updated. It was very nice to have the kitchenette as we were there for 3 nights for a volleyball tournament. It was a 25 minute walk to the convention center which was convenient. I would definitely stay here again and would recommend it to others.MoreShow less</t>
+  </si>
+  <si>
+    <t>The staff was very friendly and accommodating. They let us check in a few minutes early and let us leave our car in their parking garage longer than check out on the last day. I was able to get extra coffee, popcorn, creamer, etc. Whenever i asked for something they smiled and said "of course!" The room was a good size for two people. It was clean and updated. It was very nice to have the kitchenette as we were there for 3 nights for a volleyball tournament. It was a 25 minute walk to the convention center which was convenient. I would definitely stay here again and would recommend it to others.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r483997543-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>483997543</t>
+  </si>
+  <si>
+    <t>05/13/2017</t>
+  </si>
+  <si>
+    <t>Great location</t>
+  </si>
+  <si>
+    <t>This hotel is just over half a mile from Disneyland, easy walking distance. Great room with TV, twin beds, decent bathroom and kitchenette. Free parking is a bonus.The staff were very helpful and accommodating. There's a pool and a gym although we didn't visit either so can't comment on them.It's right beside the I5 freeway so very accessible. There's a large and a small Walmart only a few blocks away to the north and an outlet mall a few blocks to the south. Some great restaurants between the hotel and Disney too.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Sureya A, Guest Relations Manager at Candlewood Suites Anaheim - Resort Area, responded to this reviewResponded May 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 15, 2017</t>
+  </si>
+  <si>
+    <t>This hotel is just over half a mile from Disneyland, easy walking distance. Great room with TV, twin beds, decent bathroom and kitchenette. Free parking is a bonus.The staff were very helpful and accommodating. There's a pool and a gym although we didn't visit either so can't comment on them.It's right beside the I5 freeway so very accessible. There's a large and a small Walmart only a few blocks away to the north and an outlet mall a few blocks to the south. Some great restaurants between the hotel and Disney too.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r482746481-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>482746481</t>
+  </si>
+  <si>
+    <t>05/08/2017</t>
+  </si>
+  <si>
+    <t>Walked to and from DLR</t>
+  </si>
+  <si>
+    <t>We were two people in a room with 2 queen beds for two nights . The bathroom was great and the biggest pluses were the in-room coffee maker, the full size fridge, and a stove + microwave. There is a selection of milk, cereal, and frozen items for sale in the lobby, which we took advantage of for breakfast which saved a lot of time. We also took advantage of the covered parking. We took a ride-share service to get to and from Angels stadium our first day there (about $7 each way). Parking for baseball was just $10 so I might be inclined to drive to the game if I had to do it again. On the second day we walked to and from the Disneyland Resort. The walk was not bad at all. Coming back it was about 10:00 at night and I did not feel any anxiety; you are either walking next to busy streets or through the grounds of other hotels. As always, use caution when in strange places, but I thought the neighborhood was fine.MoreShow less</t>
+  </si>
+  <si>
+    <t>Sureya A, Guest Relations Manager at Candlewood Suites Anaheim - Resort Area, responded to this reviewResponded May 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 13, 2017</t>
+  </si>
+  <si>
+    <t>We were two people in a room with 2 queen beds for two nights . The bathroom was great and the biggest pluses were the in-room coffee maker, the full size fridge, and a stove + microwave. There is a selection of milk, cereal, and frozen items for sale in the lobby, which we took advantage of for breakfast which saved a lot of time. We also took advantage of the covered parking. We took a ride-share service to get to and from Angels stadium our first day there (about $7 each way). Parking for baseball was just $10 so I might be inclined to drive to the game if I had to do it again. On the second day we walked to and from the Disneyland Resort. The walk was not bad at all. Coming back it was about 10:00 at night and I did not feel any anxiety; you are either walking next to busy streets or through the grounds of other hotels. As always, use caution when in strange places, but I thought the neighborhood was fine.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r481975798-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>481975798</t>
+  </si>
+  <si>
+    <t>05/05/2017</t>
+  </si>
+  <si>
+    <t>Disneyland Mini Vacation</t>
+  </si>
+  <si>
+    <t>The suites worked out great with the grand kids.  We were able to have our privacy and sleep while the kids were able to be on their tablets, watch TV and make snacks.  The full kitchen was great!  Fully functional and you could borrow more appliances (crock pot, steamers, etc,) if needed.  The room was clean and well stocked. Very close to Disney, you could walk, however, we just used zoomryde.com and found the closest &amp; cheapest ride available at the time (will give you stats for lyft, uber, bus, taxi, etc.) Turned out to be lyft, which had us at Disneyland within 6 minutes from the time I ordered the ride!  So convenience can't be beat.  The staff was great.  They were all very friendly, helpful &amp; responded to our requests very quickly.  We would stay at the Candlewood Suites again.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>The suites worked out great with the grand kids.  We were able to have our privacy and sleep while the kids were able to be on their tablets, watch TV and make snacks.  The full kitchen was great!  Fully functional and you could borrow more appliances (crock pot, steamers, etc,) if needed.  The room was clean and well stocked. Very close to Disney, you could walk, however, we just used zoomryde.com and found the closest &amp; cheapest ride available at the time (will give you stats for lyft, uber, bus, taxi, etc.) Turned out to be lyft, which had us at Disneyland within 6 minutes from the time I ordered the ride!  So convenience can't be beat.  The staff was great.  They were all very friendly, helpful &amp; responded to our requests very quickly.  We would stay at the Candlewood Suites again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r478836024-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>478836024</t>
+  </si>
+  <si>
+    <t>04/25/2017</t>
+  </si>
+  <si>
+    <t>Excellent for the price/Disney</t>
+  </si>
+  <si>
+    <t>Is it The Ritz? No. But it is very comfortable (great bed!), practical (very nice stocked kitchenette in the room) and the staff is superb. I cannot say enough about everyone I encountered at the front desk. So helpful and giving. The parking is complementary, a big deal around Disney. And if you check out in the morning and still have one day left in the park, they will let you leave your car until that evening. I will stay here again when I spend the night to go to the park.MoreShow less</t>
+  </si>
+  <si>
+    <t>Is it The Ritz? No. But it is very comfortable (great bed!), practical (very nice stocked kitchenette in the room) and the staff is superb. I cannot say enough about everyone I encountered at the front desk. So helpful and giving. The parking is complementary, a big deal around Disney. And if you check out in the morning and still have one day left in the park, they will let you leave your car until that evening. I will stay here again when I spend the night to go to the park.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r474330380-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>474330380</t>
+  </si>
+  <si>
+    <t>04/10/2017</t>
+  </si>
+  <si>
+    <t>Good for the price!</t>
+  </si>
+  <si>
+    <t>I stayed here for 4 nights with my 2 children ages 6 and 13 while going to Disneyland. The rooms are new, super comfortable and the full size kitchen was very useful. The hotel staff was wonderful for checking in and very helpful when needed! The pool is VERY small and not really very kid friendly. It's a small therapeutic pool that we thought was very cold! There is an ART bus right outside the hotel lobby and the Garden Walk is also very close! One morning our ART bus didn't show up after waiting 45 minutes so we had to walk to the park and it only took about 15-20 minutes. I wouldn't have felt safe walking at night though. Over-all its a decent place if you don't care about a pool and just use the bus system for getting to and from the parks!MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed here for 4 nights with my 2 children ages 6 and 13 while going to Disneyland. The rooms are new, super comfortable and the full size kitchen was very useful. The hotel staff was wonderful for checking in and very helpful when needed! The pool is VERY small and not really very kid friendly. It's a small therapeutic pool that we thought was very cold! There is an ART bus right outside the hotel lobby and the Garden Walk is also very close! One morning our ART bus didn't show up after waiting 45 minutes so we had to walk to the park and it only took about 15-20 minutes. I wouldn't have felt safe walking at night though. Over-all its a decent place if you don't care about a pool and just use the bus system for getting to and from the parks!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r470910282-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>470910282</t>
+  </si>
+  <si>
+    <t>03/28/2017</t>
+  </si>
+  <si>
+    <t>Almost good stay</t>
+  </si>
+  <si>
+    <t>This would've been a very nice stay except for ants the first day. Check in was good and initial room check was nice. Brought a few groceries back to room. Next morning had ants all over the desk and in box of donuts. Clerk was very apologetic and immediately moved us to another room. We both worked in the room till about 1230pm and missed housekeeping so after two days put garbage outside the door. Third day we caught the housekeeper and got towels and was told rooms they missed in the morning got serviced in the afternoon but our room only got serviced once when we left by 1130am.Rest of our stay was uneventful.  The kitchen and full size fridge was a nice feature. Wifi worked well.  Bed was very comfortable. The laundry room was free of charge, except soap, which was amazing. Parking was free and plenty of spaces. Hotel is very close to Disneyland and numerous restaurants and by freeways.  Staff were all very nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>This would've been a very nice stay except for ants the first day. Check in was good and initial room check was nice. Brought a few groceries back to room. Next morning had ants all over the desk and in box of donuts. Clerk was very apologetic and immediately moved us to another room. We both worked in the room till about 1230pm and missed housekeeping so after two days put garbage outside the door. Third day we caught the housekeeper and got towels and was told rooms they missed in the morning got serviced in the afternoon but our room only got serviced once when we left by 1130am.Rest of our stay was uneventful.  The kitchen and full size fridge was a nice feature. Wifi worked well.  Bed was very comfortable. The laundry room was free of charge, except soap, which was amazing. Parking was free and plenty of spaces. Hotel is very close to Disneyland and numerous restaurants and by freeways.  Staff were all very nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r467345303-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>467345303</t>
+  </si>
+  <si>
+    <t>03/14/2017</t>
+  </si>
+  <si>
+    <t>Fantastic Disneyland Hotel</t>
+  </si>
+  <si>
+    <t>The property is approximately a 10 minute walk from the parks and 15 minutes from Downtown Disney. Brand new with great furnishings and large suites. We were in a one bedroom suite and very much enjoyed it. Wifi worked very well. The "Candlewood Cupboard" or mini convenience store was surprisingly well stocked. There was a nice pool on our floor although we didn't have a chance to use. Everyone we interacted with was pleasant and got the job done. Great stay and great property, would definitely stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Sureya A, Guest Relations Manager at Candlewood Suites Anaheim - Resort Area, responded to this reviewResponded May 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 12, 2017</t>
+  </si>
+  <si>
+    <t>The property is approximately a 10 minute walk from the parks and 15 minutes from Downtown Disney. Brand new with great furnishings and large suites. We were in a one bedroom suite and very much enjoyed it. Wifi worked very well. The "Candlewood Cupboard" or mini convenience store was surprisingly well stocked. There was a nice pool on our floor although we didn't have a chance to use. Everyone we interacted with was pleasant and got the job done. Great stay and great property, would definitely stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r467087819-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>467087819</t>
+  </si>
+  <si>
+    <t>03/13/2017</t>
+  </si>
+  <si>
+    <t>"Good for a Disneyland vacation"</t>
+  </si>
+  <si>
+    <t>This hotel is very close to Disneyland (about 5 minutes driving) with a walking distance Cheesecake Factory and other places nearby. Having a kitchen, it's a plus so you can save some money on food. The room was big and has a huge desk. I was so happy to do laundry for free (of course, bring your own detergent). There was a night I noticed the water in the shower was not hot at all and that is indispensable for me. I tried to call the front desk but they never picked up my room calls. The next day, I personally went to tell them about my concern and the guy told me it was an issue in the whole hotel. He apologized and explained me they were working on it. Thank God when I came back from the parks it was fixed. Also, if you are looking for a family pool I will suggest you check another hotel because it is tiny. In general, the staff was friendly and I consider it was a good place to stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel is very close to Disneyland (about 5 minutes driving) with a walking distance Cheesecake Factory and other places nearby. Having a kitchen, it's a plus so you can save some money on food. The room was big and has a huge desk. I was so happy to do laundry for free (of course, bring your own detergent). There was a night I noticed the water in the shower was not hot at all and that is indispensable for me. I tried to call the front desk but they never picked up my room calls. The next day, I personally went to tell them about my concern and the guy told me it was an issue in the whole hotel. He apologized and explained me they were working on it. Thank God when I came back from the parks it was fixed. Also, if you are looking for a family pool I will suggest you check another hotel because it is tiny. In general, the staff was friendly and I consider it was a good place to stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r462693826-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>462693826</t>
+  </si>
+  <si>
+    <t>02/25/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not quite what I expected.  </t>
+  </si>
+  <si>
+    <t>The room is a great size.  It's wonderful to have a kitchen.  The beds are super comfortable!  BUT after a long day at Disneyland if you want to soak in a hot tub, forget it.  You get a cold pool.  Not a big deal.  But if you want a hot, or even warm shower, you might not get that either.  We didn't have hot water for a while.  And speaking of water, I just think a nice hotel like this ought to have filtered drinking water available for guests without charging $2 for Dasani. Also the elevator doors could be more clearly marked.  There are 2.  One leads to the parking garage and the other to the hotel lobby.  They both say 'lobby'.  A little confusing til you get your bearings.  Other than that it was a very comfortable stay.  MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Candlewood Suites Anaheim - Resort Area, responded to this reviewResponded March 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 12, 2017</t>
+  </si>
+  <si>
+    <t>The room is a great size.  It's wonderful to have a kitchen.  The beds are super comfortable!  BUT after a long day at Disneyland if you want to soak in a hot tub, forget it.  You get a cold pool.  Not a big deal.  But if you want a hot, or even warm shower, you might not get that either.  We didn't have hot water for a while.  And speaking of water, I just think a nice hotel like this ought to have filtered drinking water available for guests without charging $2 for Dasani. Also the elevator doors could be more clearly marked.  There are 2.  One leads to the parking garage and the other to the hotel lobby.  They both say 'lobby'.  A little confusing til you get your bearings.  Other than that it was a very comfortable stay.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r459345048-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>459345048</t>
+  </si>
+  <si>
+    <t>02/13/2017</t>
+  </si>
+  <si>
+    <t>Great Stay!</t>
+  </si>
+  <si>
+    <t>Our family enjoyed our stay at Candlewood. Pros: -Separate bedroom with comfortable queen bed and TV. -Nice Kitchen area with cookware and 4 person dinnerware. Dishwasher, refrigerator, and 2 burner stove. -Comfortable living area with fold out couch and TV. -Clean &amp; New room and room amenities. -Staff was helpful with questions and keeping the room clean daily. -ART stops right out in front of the building. -Free washer &amp; dryer use, just BYO detergent Cons:-Found a trail of small ants after leaving a drink on the counter over night. Didn't bother me but might bother some. -No cribs available for loan or lease. Rough for the parents but our 2yr old loved the freedom of being able to roam around the room at 2am. Pros far out weigh the cons for us. We would definitely stay again, great room for the price. We walked to Disney most of the time, took about 20-30 mins to get to the gate with little ones. MoreShow less</t>
+  </si>
+  <si>
+    <t>Our family enjoyed our stay at Candlewood. Pros: -Separate bedroom with comfortable queen bed and TV. -Nice Kitchen area with cookware and 4 person dinnerware. Dishwasher, refrigerator, and 2 burner stove. -Comfortable living area with fold out couch and TV. -Clean &amp; New room and room amenities. -Staff was helpful with questions and keeping the room clean daily. -ART stops right out in front of the building. -Free washer &amp; dryer use, just BYO detergent Cons:-Found a trail of small ants after leaving a drink on the counter over night. Didn't bother me but might bother some. -No cribs available for loan or lease. Rough for the parents but our 2yr old loved the freedom of being able to roam around the room at 2am. Pros far out weigh the cons for us. We would definitely stay again, great room for the price. We walked to Disney most of the time, took about 20-30 mins to get to the gate with little ones. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r458788764-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>458788764</t>
+  </si>
+  <si>
+    <t>02/11/2017</t>
+  </si>
+  <si>
+    <t>Great stay in Anaheim</t>
+  </si>
+  <si>
+    <t>We really enjoyed our stay at Candlewood Suites! We arrived early on our day of check in, but were able to be given our room immediately at 10am. The check in process was very simple and stress free. The room was clean and comfortable, very well furnished and it was excellent having a great kitchen to use! The recliner chair was incredibly comfortable! The check out process took only a minute, and was very simple and easy. The staff held our luggage for the afternoon while we waited for our shuttle to the airport.The hotel is very close to Disneyland, we happily walked to and from the parks each day which was execllent!!The only reason I can't give this hotel 5 stars is the noise levels in the room were quite high, with a large gap under the doors and voices being heard from the hallways and adjacent rooms. It wasn't too disruptive to our experience but it was not quite what I expected from a hotel.Overall we would definitely stay here again if we return to Anaheim!!MoreShow less</t>
+  </si>
+  <si>
+    <t>We really enjoyed our stay at Candlewood Suites! We arrived early on our day of check in, but were able to be given our room immediately at 10am. The check in process was very simple and stress free. The room was clean and comfortable, very well furnished and it was excellent having a great kitchen to use! The recliner chair was incredibly comfortable! The check out process took only a minute, and was very simple and easy. The staff held our luggage for the afternoon while we waited for our shuttle to the airport.The hotel is very close to Disneyland, we happily walked to and from the parks each day which was execllent!!The only reason I can't give this hotel 5 stars is the noise levels in the room were quite high, with a large gap under the doors and voices being heard from the hallways and adjacent rooms. It wasn't too disruptive to our experience but it was not quite what I expected from a hotel.Overall we would definitely stay here again if we return to Anaheim!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r457140445-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>457140445</t>
+  </si>
+  <si>
+    <t>02/04/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Walking distance to Disneyland </t>
+  </si>
+  <si>
+    <t>Had some issues with checking in. The guy manning the reception checked us into a room that already has someone in there so i wasted about 30 mins back and forth the room and reception trying to get this sorted. There is no house phones on the floor so there's no option to call. The guy was surprised to hear that so he have me another room and i told him to walk with me in case the cards doesn't work again. Luckily 3rd time lucky and yes he can hear noises from the original room he checked me in.
+The walls are thin and there's a gap at the bottom of the door so light comes through when you switched off all lights for bed. There's also no shower gel (must be a USA thing) and the "facial" soap is very drying. I wouldn't recommend anyone with dry or sensitive skin to use it. The skin on my fingers are peeling off after a week of soap. We end up getting a body shower gel from the supermarket anyway. No showe cap and sanitary bags too. Toiletries provided are 2 bars of soap and a shampoo/conditioner. The heater also makes very loud sound.
+Despite this i think this is a decent place to stay especially for families who want to make use of the kitchen. You also get 1 packet of coffee and 1 decaf coffee and a packet...Had some issues with checking in. The guy manning the reception checked us into a room that already has someone in there so i wasted about 30 mins back and forth the room and reception trying to get this sorted. There is no house phones on the floor so there's no option to call. The guy was surprised to hear that so he have me another room and i told him to walk with me in case the cards doesn't work again. Luckily 3rd time lucky and yes he can hear noises from the original room he checked me in.The walls are thin and there's a gap at the bottom of the door so light comes through when you switched off all lights for bed. There's also no shower gel (must be a USA thing) and the "facial" soap is very drying. I wouldn't recommend anyone with dry or sensitive skin to use it. The skin on my fingers are peeling off after a week of soap. We end up getting a body shower gel from the supermarket anyway. No showe cap and sanitary bags too. Toiletries provided are 2 bars of soap and a shampoo/conditioner. The heater also makes very loud sound.Despite this i think this is a decent place to stay especially for families who want to make use of the kitchen. You also get 1 packet of coffee and 1 decaf coffee and a packet of pocorn. room is big as well. And it's about 20mins walk to Disneyland.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>Had some issues with checking in. The guy manning the reception checked us into a room that already has someone in there so i wasted about 30 mins back and forth the room and reception trying to get this sorted. There is no house phones on the floor so there's no option to call. The guy was surprised to hear that so he have me another room and i told him to walk with me in case the cards doesn't work again. Luckily 3rd time lucky and yes he can hear noises from the original room he checked me in.
+The walls are thin and there's a gap at the bottom of the door so light comes through when you switched off all lights for bed. There's also no shower gel (must be a USA thing) and the "facial" soap is very drying. I wouldn't recommend anyone with dry or sensitive skin to use it. The skin on my fingers are peeling off after a week of soap. We end up getting a body shower gel from the supermarket anyway. No showe cap and sanitary bags too. Toiletries provided are 2 bars of soap and a shampoo/conditioner. The heater also makes very loud sound.
+Despite this i think this is a decent place to stay especially for families who want to make use of the kitchen. You also get 1 packet of coffee and 1 decaf coffee and a packet...Had some issues with checking in. The guy manning the reception checked us into a room that already has someone in there so i wasted about 30 mins back and forth the room and reception trying to get this sorted. There is no house phones on the floor so there's no option to call. The guy was surprised to hear that so he have me another room and i told him to walk with me in case the cards doesn't work again. Luckily 3rd time lucky and yes he can hear noises from the original room he checked me in.The walls are thin and there's a gap at the bottom of the door so light comes through when you switched off all lights for bed. There's also no shower gel (must be a USA thing) and the "facial" soap is very drying. I wouldn't recommend anyone with dry or sensitive skin to use it. The skin on my fingers are peeling off after a week of soap. We end up getting a body shower gel from the supermarket anyway. No showe cap and sanitary bags too. Toiletries provided are 2 bars of soap and a shampoo/conditioner. The heater also makes very loud sound.Despite this i think this is a decent place to stay especially for families who want to make use of the kitchen. You also get 1 packet of coffee and 1 decaf coffee and a packet of pocorn. room is big as well. And it's about 20mins walk to Disneyland.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r445469492-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>445469492</t>
+  </si>
+  <si>
+    <t>12/19/2016</t>
+  </si>
+  <si>
+    <t>Wanted to love it, but didn't.</t>
+  </si>
+  <si>
+    <t>Pro's: 
+- Recently built, so everything is clean and brand new. 
+- The in-room kitchen is very convenient if you want to heat something up on the stove or in the microwave. There is a little store in the lobby with food, snacks, and drinks. 
+- We had two rooms - one of them had two bathrooms - which made it much easier to get ready with teenagers. 
+- We made good use of the laundry room, with free washers and dryers - there is even a laundry basket in each room. We brought a few Tide Pods and fabric softener sheets from home. 
+- We though the beds were VERY comfortable. 
+Con's: 
+- Had to wait for almost 2 hours because one of our rooms hadn't been cleaned yet - they said they didn't know the room was going to be used, even though we clearly had reserved that room type. Very annoying after riding in the car for 8 hours, we just wanted to check in and rest.
+- Our room keys stopped working several hours before the 11am check-out time, stranding us outside while trying to load the kids and luggage. 
+- It was SO LOUD being in a room near the gym, as the weight lifters come in very early and don't have any problem constantly dropping their barbells on the floor. 
+- Lots of traffic noise since it's right next to the freeway. Much too...Pro's: - Recently built, so everything is clean and brand new. - The in-room kitchen is very convenient if you want to heat something up on the stove or in the microwave. There is a little store in the lobby with food, snacks, and drinks. - We had two rooms - one of them had two bathrooms - which made it much easier to get ready with teenagers. - We made good use of the laundry room, with free washers and dryers - there is even a laundry basket in each room. We brought a few Tide Pods and fabric softener sheets from home. - We though the beds were VERY comfortable. Con's: - Had to wait for almost 2 hours because one of our rooms hadn't been cleaned yet - they said they didn't know the room was going to be used, even though we clearly had reserved that room type. Very annoying after riding in the car for 8 hours, we just wanted to check in and rest.- Our room keys stopped working several hours before the 11am check-out time, stranding us outside while trying to load the kids and luggage. - It was SO LOUD being in a room near the gym, as the weight lifters come in very early and don't have any problem constantly dropping their barbells on the floor. - Lots of traffic noise since it's right next to the freeway. Much too loud to open the windows. - Within walking distance to Disneyland, but it's a long walk. The walk back to the hotel at night was long, dark, and deserted - we were not at all comfortable, and ended up taking a taxi. Too Long/Didn't Read? Nice enough hotel while it's still new, but I wasn't as impressed as I expected to be, and I don't plan on staying here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>Kasee O, General Manager at Candlewood Suites Anaheim - Resort Area, responded to this reviewResponded January 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 11, 2017</t>
+  </si>
+  <si>
+    <t>Pro's: 
+- Recently built, so everything is clean and brand new. 
+- The in-room kitchen is very convenient if you want to heat something up on the stove or in the microwave. There is a little store in the lobby with food, snacks, and drinks. 
+- We had two rooms - one of them had two bathrooms - which made it much easier to get ready with teenagers. 
+- We made good use of the laundry room, with free washers and dryers - there is even a laundry basket in each room. We brought a few Tide Pods and fabric softener sheets from home. 
+- We though the beds were VERY comfortable. 
+Con's: 
+- Had to wait for almost 2 hours because one of our rooms hadn't been cleaned yet - they said they didn't know the room was going to be used, even though we clearly had reserved that room type. Very annoying after riding in the car for 8 hours, we just wanted to check in and rest.
+- Our room keys stopped working several hours before the 11am check-out time, stranding us outside while trying to load the kids and luggage. 
+- It was SO LOUD being in a room near the gym, as the weight lifters come in very early and don't have any problem constantly dropping their barbells on the floor. 
+- Lots of traffic noise since it's right next to the freeway. Much too...Pro's: - Recently built, so everything is clean and brand new. - The in-room kitchen is very convenient if you want to heat something up on the stove or in the microwave. There is a little store in the lobby with food, snacks, and drinks. - We had two rooms - one of them had two bathrooms - which made it much easier to get ready with teenagers. - We made good use of the laundry room, with free washers and dryers - there is even a laundry basket in each room. We brought a few Tide Pods and fabric softener sheets from home. - We though the beds were VERY comfortable. Con's: - Had to wait for almost 2 hours because one of our rooms hadn't been cleaned yet - they said they didn't know the room was going to be used, even though we clearly had reserved that room type. Very annoying after riding in the car for 8 hours, we just wanted to check in and rest.- Our room keys stopped working several hours before the 11am check-out time, stranding us outside while trying to load the kids and luggage. - It was SO LOUD being in a room near the gym, as the weight lifters come in very early and don't have any problem constantly dropping their barbells on the floor. - Lots of traffic noise since it's right next to the freeway. Much too loud to open the windows. - Within walking distance to Disneyland, but it's a long walk. The walk back to the hotel at night was long, dark, and deserted - we were not at all comfortable, and ended up taking a taxi. Too Long/Didn't Read? Nice enough hotel while it's still new, but I wasn't as impressed as I expected to be, and I don't plan on staying here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r441013988-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>441013988</t>
+  </si>
+  <si>
+    <t>11/29/2016</t>
+  </si>
+  <si>
+    <t>Great Stay at new hotel walking distance to Disneyland</t>
+  </si>
+  <si>
+    <t>Great stay at new hotel walking distance to Disneyland. Parking on 1st and 2nd floors with awesome exercise equipment in gym. The bicycle or spinner is great for those of us that have damaged our knees but still need to exercise on a daily basis away from home. The room rates were affordable considering the hotel is so close to Disneyland. And for those who are staying more than a week, the laundry room is huge, 6 large dryers, 5 large washers...no coins needed. One minor problem, management needs to post translation from symbols to English in order to operate the washers.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>Great stay at new hotel walking distance to Disneyland. Parking on 1st and 2nd floors with awesome exercise equipment in gym. The bicycle or spinner is great for those of us that have damaged our knees but still need to exercise on a daily basis away from home. The room rates were affordable considering the hotel is so close to Disneyland. And for those who are staying more than a week, the laundry room is huge, 6 large dryers, 5 large washers...no coins needed. One minor problem, management needs to post translation from symbols to English in order to operate the washers.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r440949177-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>440949177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Tapia family experience </t>
+  </si>
+  <si>
+    <t>We've been coming to Disneyland for years and this is our first time staying here at the candlewood on Anaheim VERY close to the Disney park right off the 5 fwy what a great experience we had we stayed for a couple of days the staff is very helpful and the rooms are very clean. It seems as if it has just been remodeled all new carpet beds sheets towels appliances etc. we will definitely be back on our next trip to Disneyland. We highly recommend this place the other hotels don't stand a chance  with this oneMoreShow less</t>
+  </si>
+  <si>
+    <t>We've been coming to Disneyland for years and this is our first time staying here at the candlewood on Anaheim VERY close to the Disney park right off the 5 fwy what a great experience we had we stayed for a couple of days the staff is very helpful and the rooms are very clean. It seems as if it has just been remodeled all new carpet beds sheets towels appliances etc. we will definitely be back on our next trip to Disneyland. We highly recommend this place the other hotels don't stand a chance  with this oneMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r431967218-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>431967218</t>
+  </si>
+  <si>
+    <t>10/26/2016</t>
+  </si>
+  <si>
+    <t>Hotel Stay 10/17-10/20</t>
+  </si>
+  <si>
+    <t>I really enjoyed staying at this hotel location. Our room was pretty clean. Was nice and quiet during the night. I am usually a light sleeper so it was nice. The beds were nice and comfy. The staff was always so nice. We ended up walking to Disneyland the first day. Took maybe about 15 minutes to walk there. There is a bus that you can ride over to Disneyland that stops right outside the hotel on the street. And to come back they drop you right off at the same spot and they do come throughout the day I believe. Coming back from Disneyland it was bus #6 and for 2 adults and 1 child it was like $7.00 I think it was for one way. My husband and granddaughter went swimming one afternoon and they didn't stay long in the pool because there were so many bee's out there by the pool. The housekeeping can do a better cleaning job in the hall ways and keeping the elevators clean. I loved how we were able to wash clothes for free and there were no time that they closed it. Need to bring your own laundry soap if you want something other then All laundry detergent that they sell downstairs. They didn't have any Bounce for sale so maybe bring your own. We walked to the laundromat not to far for Tide and Bounce. There were quite a few...I really enjoyed staying at this hotel location. Our room was pretty clean. Was nice and quiet during the night. I am usually a light sleeper so it was nice. The beds were nice and comfy. The staff was always so nice. We ended up walking to Disneyland the first day. Took maybe about 15 minutes to walk there. There is a bus that you can ride over to Disneyland that stops right outside the hotel on the street. And to come back they drop you right off at the same spot and they do come throughout the day I believe. Coming back from Disneyland it was bus #6 and for 2 adults and 1 child it was like $7.00 I think it was for one way. My husband and granddaughter went swimming one afternoon and they didn't stay long in the pool because there were so many bee's out there by the pool. The housekeeping can do a better cleaning job in the hall ways and keeping the elevators clean. I loved how we were able to wash clothes for free and there were no time that they closed it. Need to bring your own laundry soap if you want something other then All laundry detergent that they sell downstairs. They didn't have any Bounce for sale so maybe bring your own. We walked to the laundromat not to far for Tide and Bounce. There were quite a few sketchy people by the laundromat so I suggest bring your own if you can. I would come back and stay here again. Oh and if you are planning on bringing a kid to Disneyland and think they might want to buy some Minnie Mouse ears I would suggest buy some before you go. We paid $35.00 for Minnie Mouse ears and when we went to Walgreen's in Seattle after our trip and saw some there for $5.99!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Kasee O, General Manager at Candlewood Suites Anaheim - Resort Area, responded to this reviewResponded October 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 28, 2016</t>
+  </si>
+  <si>
+    <t>I really enjoyed staying at this hotel location. Our room was pretty clean. Was nice and quiet during the night. I am usually a light sleeper so it was nice. The beds were nice and comfy. The staff was always so nice. We ended up walking to Disneyland the first day. Took maybe about 15 minutes to walk there. There is a bus that you can ride over to Disneyland that stops right outside the hotel on the street. And to come back they drop you right off at the same spot and they do come throughout the day I believe. Coming back from Disneyland it was bus #6 and for 2 adults and 1 child it was like $7.00 I think it was for one way. My husband and granddaughter went swimming one afternoon and they didn't stay long in the pool because there were so many bee's out there by the pool. The housekeeping can do a better cleaning job in the hall ways and keeping the elevators clean. I loved how we were able to wash clothes for free and there were no time that they closed it. Need to bring your own laundry soap if you want something other then All laundry detergent that they sell downstairs. They didn't have any Bounce for sale so maybe bring your own. We walked to the laundromat not to far for Tide and Bounce. There were quite a few...I really enjoyed staying at this hotel location. Our room was pretty clean. Was nice and quiet during the night. I am usually a light sleeper so it was nice. The beds were nice and comfy. The staff was always so nice. We ended up walking to Disneyland the first day. Took maybe about 15 minutes to walk there. There is a bus that you can ride over to Disneyland that stops right outside the hotel on the street. And to come back they drop you right off at the same spot and they do come throughout the day I believe. Coming back from Disneyland it was bus #6 and for 2 adults and 1 child it was like $7.00 I think it was for one way. My husband and granddaughter went swimming one afternoon and they didn't stay long in the pool because there were so many bee's out there by the pool. The housekeeping can do a better cleaning job in the hall ways and keeping the elevators clean. I loved how we were able to wash clothes for free and there were no time that they closed it. Need to bring your own laundry soap if you want something other then All laundry detergent that they sell downstairs. They didn't have any Bounce for sale so maybe bring your own. We walked to the laundromat not to far for Tide and Bounce. There were quite a few sketchy people by the laundromat so I suggest bring your own if you can. I would come back and stay here again. Oh and if you are planning on bringing a kid to Disneyland and think they might want to buy some Minnie Mouse ears I would suggest buy some before you go. We paid $35.00 for Minnie Mouse ears and when we went to Walgreen's in Seattle after our trip and saw some there for $5.99!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r429885235-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>429885235</t>
+  </si>
+  <si>
+    <t>10/19/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fantastic Disney Area offering. </t>
+  </si>
+  <si>
+    <t>10-15 minute walk depending on speed. It's simply two turns to Disneyland. Close to a cvs and Walgreens for fresh offerings. Clean, modern &amp; pleasant staff. I picked this hotel based on value and proximity to Disneyland. Booked a one bedroom suite, and the kitchen was perfect for my child and I to have some breakfasts and dinners. Close enough you can leave the parks for a meal at the hotel. Would highly recommend this place. MoreShow less</t>
+  </si>
+  <si>
+    <t>Kasee O, General Manager at Candlewood Suites Anaheim - Resort Area, responded to this reviewResponded October 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 21, 2016</t>
+  </si>
+  <si>
+    <t>10-15 minute walk depending on speed. It's simply two turns to Disneyland. Close to a cvs and Walgreens for fresh offerings. Clean, modern &amp; pleasant staff. I picked this hotel based on value and proximity to Disneyland. Booked a one bedroom suite, and the kitchen was perfect for my child and I to have some breakfasts and dinners. Close enough you can leave the parks for a meal at the hotel. Would highly recommend this place. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r429356866-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>429356866</t>
+  </si>
+  <si>
+    <t>10/18/2016</t>
+  </si>
+  <si>
+    <t>EXCELLENT</t>
+  </si>
+  <si>
+    <t>Stayed 1 night here to go to Disney and we wish we would have stayed more nights. Our room was huge and new! Full bedroom, HUGE Bathroom, full kitchen and living room with a sleeper sofa, hardwood floors and granite counters. It was like being in an apartment.  Has pool, free parking and a little shop with snacks and drinks. Took a $6 Uber to Disney! I would stay here again in a heartbeat!MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed 1 night here to go to Disney and we wish we would have stayed more nights. Our room was huge and new! Full bedroom, HUGE Bathroom, full kitchen and living room with a sleeper sofa, hardwood floors and granite counters. It was like being in an apartment.  Has pool, free parking and a little shop with snacks and drinks. Took a $6 Uber to Disney! I would stay here again in a heartbeat!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r427177264-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>427177264</t>
+  </si>
+  <si>
+    <t>10/12/2016</t>
+  </si>
+  <si>
+    <t>Good Stay Verfy Friendly</t>
+  </si>
+  <si>
+    <t>Upon checking in I was informed their computer system was out.  While it took a few minutes to check in, they were very friendly and apologized. The rooms are really setup for business travelers as they have a kitchen with a full refrigerator, stove, dishwasher, nice works space and plenty of room to more around.While their system was out and may have slowed me down a minute or so, I would  stay at this property again.The location is close to Disneyland, the convention center, and a close drive to many restaurants.MoreShow less</t>
+  </si>
+  <si>
+    <t>Upon checking in I was informed their computer system was out.  While it took a few minutes to check in, they were very friendly and apologized. The rooms are really setup for business travelers as they have a kitchen with a full refrigerator, stove, dishwasher, nice works space and plenty of room to more around.While their system was out and may have slowed me down a minute or so, I would  stay at this property again.The location is close to Disneyland, the convention center, and a close drive to many restaurants.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r426398990-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>426398990</t>
+  </si>
+  <si>
+    <t>10/09/2016</t>
+  </si>
+  <si>
+    <t>Close to Disneyland</t>
+  </si>
+  <si>
+    <t>The room itself is very comfortable.  Has free wifi. It has a nice big desk area with chair.  there is also a recliner.  The kitchenette has a 2 burner stove top, convection oven and full size frig.  The kitchen is equipped well enough for you to cook and eat. They provide an iron and board, coffee, hair dryer, shampoo &amp; conditioner.  The towels and sheets are good quality.  I’m not positive but believe the only size bed is queen.  It’s ok but not as soft as I prefer.  In the lobby they have items you can check out like crock pot, DVR and videos and many other items.  They also have several food items for sale.  Two things I did not like.  The bathroom has an automatic light that turns on as you walk in the room.  Now that’s fine normally, but when you get up in the middle of the night, it wakes you up.  They will tell you to stop this to push the button and it will go off and stay off.  But that is not true.  It somehow resets itself.  There is no safe in the room.  As do many European hotels, the air conditioner does not work unless you are in the room.  This property has it’s parking under the hotel.  Not really underground, just under it.  The property is about a city block from Disneyland.  It is walking distance to many places to eat...The room itself is very comfortable.  Has free wifi. It has a nice big desk area with chair.  there is also a recliner.  The kitchenette has a 2 burner stove top, convection oven and full size frig.  The kitchen is equipped well enough for you to cook and eat. They provide an iron and board, coffee, hair dryer, shampoo &amp; conditioner.  The towels and sheets are good quality.  I’m not positive but believe the only size bed is queen.  It’s ok but not as soft as I prefer.  In the lobby they have items you can check out like crock pot, DVR and videos and many other items.  They also have several food items for sale.  Two things I did not like.  The bathroom has an automatic light that turns on as you walk in the room.  Now that’s fine normally, but when you get up in the middle of the night, it wakes you up.  They will tell you to stop this to push the button and it will go off and stay off.  But that is not true.  It somehow resets itself.  There is no safe in the room.  As do many European hotels, the air conditioner does not work unless you are in the room.  This property has it’s parking under the hotel.  Not really underground, just under it.  The property is about a city block from Disneyland.  It is walking distance to many places to eat like PJ Changs, Cheese Cake Factory, Bubba Gumps.  Overall it’s a nice place and we’d stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>The room itself is very comfortable.  Has free wifi. It has a nice big desk area with chair.  there is also a recliner.  The kitchenette has a 2 burner stove top, convection oven and full size frig.  The kitchen is equipped well enough for you to cook and eat. They provide an iron and board, coffee, hair dryer, shampoo &amp; conditioner.  The towels and sheets are good quality.  I’m not positive but believe the only size bed is queen.  It’s ok but not as soft as I prefer.  In the lobby they have items you can check out like crock pot, DVR and videos and many other items.  They also have several food items for sale.  Two things I did not like.  The bathroom has an automatic light that turns on as you walk in the room.  Now that’s fine normally, but when you get up in the middle of the night, it wakes you up.  They will tell you to stop this to push the button and it will go off and stay off.  But that is not true.  It somehow resets itself.  There is no safe in the room.  As do many European hotels, the air conditioner does not work unless you are in the room.  This property has it’s parking under the hotel.  Not really underground, just under it.  The property is about a city block from Disneyland.  It is walking distance to many places to eat...The room itself is very comfortable.  Has free wifi. It has a nice big desk area with chair.  there is also a recliner.  The kitchenette has a 2 burner stove top, convection oven and full size frig.  The kitchen is equipped well enough for you to cook and eat. They provide an iron and board, coffee, hair dryer, shampoo &amp; conditioner.  The towels and sheets are good quality.  I’m not positive but believe the only size bed is queen.  It’s ok but not as soft as I prefer.  In the lobby they have items you can check out like crock pot, DVR and videos and many other items.  They also have several food items for sale.  Two things I did not like.  The bathroom has an automatic light that turns on as you walk in the room.  Now that’s fine normally, but when you get up in the middle of the night, it wakes you up.  They will tell you to stop this to push the button and it will go off and stay off.  But that is not true.  It somehow resets itself.  There is no safe in the room.  As do many European hotels, the air conditioner does not work unless you are in the room.  This property has it’s parking under the hotel.  Not really underground, just under it.  The property is about a city block from Disneyland.  It is walking distance to many places to eat like PJ Changs, Cheese Cake Factory, Bubba Gumps.  Overall it’s a nice place and we’d stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r424458892-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>424458892</t>
+  </si>
+  <si>
+    <t>10/02/2016</t>
+  </si>
+  <si>
+    <t>Rough start, great finish!</t>
+  </si>
+  <si>
+    <t>We arrived around 10pm and were pleasantly surprised by the amenities in the room!  Full refrigerator, completely stocked kitchen with cabinets, stove top, silverware, etc. Unfortunately, there were ants by the AC.  We called the office, and they gave us another room on the same floor.  Once again, there were ants.  It was hot, and I'm sure they were looking for water.  Anyway, we called down to the office again, and were switched to another room, and another floor.  All the staff was apologetic, professional, concerned with our satisfaction, and eager to help in any way, including moving our things.  Our third room was ant-free.  We were told that that the room would cool down soon, because the AC had just been turned on.  Unfortunately, the fan worked, but there was no cool air.  By this time, we were exhausted and just went to bed.  The next morning, we went to the office to let them know that the AC needed fixing.  Once again, the staff was apologetic, professional, and offered to compensate us for our trouble. They also gave us keys to another room so that when we returned from our day at Disneyland we could take our things there.  The final room was perfect! This hotel just opened a few weeks ago, and they are in the process of getting out all the kinks.  The rooms were clean, well designed, and well equipped for a single night or...We arrived around 10pm and were pleasantly surprised by the amenities in the room!  Full refrigerator, completely stocked kitchen with cabinets, stove top, silverware, etc. Unfortunately, there were ants by the AC.  We called the office, and they gave us another room on the same floor.  Once again, there were ants.  It was hot, and I'm sure they were looking for water.  Anyway, we called down to the office again, and were switched to another room, and another floor.  All the staff was apologetic, professional, concerned with our satisfaction, and eager to help in any way, including moving our things.  Our third room was ant-free.  We were told that that the room would cool down soon, because the AC had just been turned on.  Unfortunately, the fan worked, but there was no cool air.  By this time, we were exhausted and just went to bed.  The next morning, we went to the office to let them know that the AC needed fixing.  Once again, the staff was apologetic, professional, and offered to compensate us for our trouble. They also gave us keys to another room so that when we returned from our day at Disneyland we could take our things there.  The final room was perfect! This hotel just opened a few weeks ago, and they are in the process of getting out all the kinks.  The rooms were clean, well designed, and well equipped for a single night or an extended stay.  We didn't explore the rest of the hotel, but we liked the parts that we saw. The staff was excellent and we appreciated the features and amenities of the rooms.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Kasee O, General Manager at Candlewood Suites Anaheim - Resort Area, responded to this reviewResponded October 4, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 4, 2016</t>
+  </si>
+  <si>
+    <t>We arrived around 10pm and were pleasantly surprised by the amenities in the room!  Full refrigerator, completely stocked kitchen with cabinets, stove top, silverware, etc. Unfortunately, there were ants by the AC.  We called the office, and they gave us another room on the same floor.  Once again, there were ants.  It was hot, and I'm sure they were looking for water.  Anyway, we called down to the office again, and were switched to another room, and another floor.  All the staff was apologetic, professional, concerned with our satisfaction, and eager to help in any way, including moving our things.  Our third room was ant-free.  We were told that that the room would cool down soon, because the AC had just been turned on.  Unfortunately, the fan worked, but there was no cool air.  By this time, we were exhausted and just went to bed.  The next morning, we went to the office to let them know that the AC needed fixing.  Once again, the staff was apologetic, professional, and offered to compensate us for our trouble. They also gave us keys to another room so that when we returned from our day at Disneyland we could take our things there.  The final room was perfect! This hotel just opened a few weeks ago, and they are in the process of getting out all the kinks.  The rooms were clean, well designed, and well equipped for a single night or...We arrived around 10pm and were pleasantly surprised by the amenities in the room!  Full refrigerator, completely stocked kitchen with cabinets, stove top, silverware, etc. Unfortunately, there were ants by the AC.  We called the office, and they gave us another room on the same floor.  Once again, there were ants.  It was hot, and I'm sure they were looking for water.  Anyway, we called down to the office again, and were switched to another room, and another floor.  All the staff was apologetic, professional, concerned with our satisfaction, and eager to help in any way, including moving our things.  Our third room was ant-free.  We were told that that the room would cool down soon, because the AC had just been turned on.  Unfortunately, the fan worked, but there was no cool air.  By this time, we were exhausted and just went to bed.  The next morning, we went to the office to let them know that the AC needed fixing.  Once again, the staff was apologetic, professional, and offered to compensate us for our trouble. They also gave us keys to another room so that when we returned from our day at Disneyland we could take our things there.  The final room was perfect! This hotel just opened a few weeks ago, and they are in the process of getting out all the kinks.  The rooms were clean, well designed, and well equipped for a single night or an extended stay.  We didn't explore the rest of the hotel, but we liked the parts that we saw. The staff was excellent and we appreciated the features and amenities of the rooms.More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +1741,2996 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>52261</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>4</v>
+      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>52261</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s"/>
+      <c r="O3" t="s"/>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>59</v>
+      </c>
+      <c r="X3" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>52261</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" t="s">
+        <v>67</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>59</v>
+      </c>
+      <c r="X4" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>52261</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" t="s">
+        <v>73</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>74</v>
+      </c>
+      <c r="X5" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>52261</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" t="s">
+        <v>81</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>52</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>82</v>
+      </c>
+      <c r="X6" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>52261</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L7" t="s">
+        <v>89</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>52</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>90</v>
+      </c>
+      <c r="X7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>52261</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>94</v>
+      </c>
+      <c r="J8" t="s">
+        <v>95</v>
+      </c>
+      <c r="K8" t="s">
+        <v>96</v>
+      </c>
+      <c r="L8" t="s">
+        <v>97</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>98</v>
+      </c>
+      <c r="O8" t="s">
+        <v>67</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>99</v>
+      </c>
+      <c r="X8" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>52261</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>103</v>
+      </c>
+      <c r="J9" t="s">
+        <v>104</v>
+      </c>
+      <c r="K9" t="s">
+        <v>105</v>
+      </c>
+      <c r="L9" t="s">
+        <v>106</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>98</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>52261</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>107</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>108</v>
+      </c>
+      <c r="J10" t="s">
+        <v>109</v>
+      </c>
+      <c r="K10" t="s">
+        <v>110</v>
+      </c>
+      <c r="L10" t="s">
+        <v>111</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>112</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="n">
+        <v>4</v>
+      </c>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>52261</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>113</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>114</v>
+      </c>
+      <c r="J11" t="s">
+        <v>115</v>
+      </c>
+      <c r="K11" t="s">
+        <v>116</v>
+      </c>
+      <c r="L11" t="s">
+        <v>117</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O11" t="s">
+        <v>119</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="n">
+        <v>4</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>52261</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>120</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>121</v>
+      </c>
+      <c r="J12" t="s">
+        <v>122</v>
+      </c>
+      <c r="K12" t="s">
+        <v>123</v>
+      </c>
+      <c r="L12" t="s">
+        <v>124</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>112</v>
+      </c>
+      <c r="O12" t="s">
+        <v>67</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>52261</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>125</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>126</v>
+      </c>
+      <c r="J13" t="s">
+        <v>127</v>
+      </c>
+      <c r="K13" t="s">
+        <v>128</v>
+      </c>
+      <c r="L13" t="s">
+        <v>129</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>130</v>
+      </c>
+      <c r="O13" t="s">
+        <v>131</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="n">
+        <v>3</v>
+      </c>
+      <c r="R13" t="n">
+        <v>4</v>
+      </c>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>132</v>
+      </c>
+      <c r="X13" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>52261</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>135</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>136</v>
+      </c>
+      <c r="J14" t="s">
+        <v>137</v>
+      </c>
+      <c r="K14" t="s">
+        <v>138</v>
+      </c>
+      <c r="L14" t="s">
+        <v>139</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>130</v>
+      </c>
+      <c r="O14" t="s">
+        <v>67</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>52261</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>141</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>142</v>
+      </c>
+      <c r="J15" t="s">
+        <v>143</v>
+      </c>
+      <c r="K15" t="s">
+        <v>144</v>
+      </c>
+      <c r="L15" t="s">
+        <v>145</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>146</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>52261</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>148</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>149</v>
+      </c>
+      <c r="J16" t="s">
+        <v>150</v>
+      </c>
+      <c r="K16" t="s">
+        <v>151</v>
+      </c>
+      <c r="L16" t="s">
+        <v>152</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>146</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>52261</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>153</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>154</v>
+      </c>
+      <c r="J17" t="s">
+        <v>155</v>
+      </c>
+      <c r="K17" t="s">
+        <v>156</v>
+      </c>
+      <c r="L17" t="s">
+        <v>157</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>158</v>
+      </c>
+      <c r="O17" t="s">
+        <v>67</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>159</v>
+      </c>
+      <c r="X17" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>52261</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>162</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>163</v>
+      </c>
+      <c r="J18" t="s">
+        <v>164</v>
+      </c>
+      <c r="K18" t="s">
+        <v>165</v>
+      </c>
+      <c r="L18" t="s">
+        <v>166</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s"/>
+      <c r="O18" t="s"/>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>167</v>
+      </c>
+      <c r="X18" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>52261</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>170</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>171</v>
+      </c>
+      <c r="J19" t="s">
+        <v>172</v>
+      </c>
+      <c r="K19" t="s">
+        <v>173</v>
+      </c>
+      <c r="L19" t="s">
+        <v>174</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>175</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>4</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>176</v>
+      </c>
+      <c r="X19" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>52261</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>179</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>180</v>
+      </c>
+      <c r="J20" t="s">
+        <v>181</v>
+      </c>
+      <c r="K20" t="s">
+        <v>182</v>
+      </c>
+      <c r="L20" t="s">
+        <v>183</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>184</v>
+      </c>
+      <c r="O20" t="s">
+        <v>67</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>176</v>
+      </c>
+      <c r="X20" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>52261</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>186</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>187</v>
+      </c>
+      <c r="J21" t="s">
+        <v>188</v>
+      </c>
+      <c r="K21" t="s">
+        <v>189</v>
+      </c>
+      <c r="L21" t="s">
+        <v>190</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>184</v>
+      </c>
+      <c r="O21" t="s">
+        <v>131</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>1</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>191</v>
+      </c>
+      <c r="X21" t="s">
+        <v>192</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>52261</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>194</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>195</v>
+      </c>
+      <c r="J22" t="s">
+        <v>196</v>
+      </c>
+      <c r="K22" t="s">
+        <v>197</v>
+      </c>
+      <c r="L22" t="s">
+        <v>198</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>118</v>
+      </c>
+      <c r="O22" t="s">
+        <v>67</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>191</v>
+      </c>
+      <c r="X22" t="s">
+        <v>192</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>52261</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>200</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>201</v>
+      </c>
+      <c r="J23" t="s">
+        <v>202</v>
+      </c>
+      <c r="K23" t="s">
+        <v>203</v>
+      </c>
+      <c r="L23" t="s">
+        <v>204</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>118</v>
+      </c>
+      <c r="O23" t="s">
+        <v>131</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="n">
+        <v>4</v>
+      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>205</v>
+      </c>
+      <c r="X23" t="s">
+        <v>206</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>52261</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>208</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>209</v>
+      </c>
+      <c r="J24" t="s">
+        <v>210</v>
+      </c>
+      <c r="K24" t="s">
+        <v>211</v>
+      </c>
+      <c r="L24" t="s">
+        <v>212</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>213</v>
+      </c>
+      <c r="O24" t="s">
+        <v>131</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="n">
+        <v>4</v>
+      </c>
+      <c r="R24" t="s"/>
+      <c r="S24" t="n">
+        <v>4</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>4</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>214</v>
+      </c>
+      <c r="X24" t="s">
+        <v>215</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>52261</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>217</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>218</v>
+      </c>
+      <c r="J25" t="s">
+        <v>219</v>
+      </c>
+      <c r="K25" t="s">
+        <v>220</v>
+      </c>
+      <c r="L25" t="s">
+        <v>221</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>118</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>214</v>
+      </c>
+      <c r="X25" t="s">
+        <v>215</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>52261</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>223</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>224</v>
+      </c>
+      <c r="J26" t="s">
+        <v>225</v>
+      </c>
+      <c r="K26" t="s">
+        <v>226</v>
+      </c>
+      <c r="L26" t="s">
+        <v>227</v>
+      </c>
+      <c r="M26" t="n">
+        <v>2</v>
+      </c>
+      <c r="N26" t="s">
+        <v>228</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="n">
+        <v>3</v>
+      </c>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>3</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>229</v>
+      </c>
+      <c r="X26" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>52261</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>232</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>233</v>
+      </c>
+      <c r="J27" t="s">
+        <v>234</v>
+      </c>
+      <c r="K27" t="s">
+        <v>235</v>
+      </c>
+      <c r="L27" t="s">
+        <v>236</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>228</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>214</v>
+      </c>
+      <c r="X27" t="s">
+        <v>215</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>52261</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>238</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>239</v>
+      </c>
+      <c r="J28" t="s">
+        <v>240</v>
+      </c>
+      <c r="K28" t="s">
+        <v>241</v>
+      </c>
+      <c r="L28" t="s">
+        <v>242</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>228</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>214</v>
+      </c>
+      <c r="X28" t="s">
+        <v>215</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>52261</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>244</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>245</v>
+      </c>
+      <c r="J29" t="s">
+        <v>246</v>
+      </c>
+      <c r="K29" t="s">
+        <v>247</v>
+      </c>
+      <c r="L29" t="s">
+        <v>248</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>249</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>250</v>
+      </c>
+      <c r="X29" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>52261</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>253</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>254</v>
+      </c>
+      <c r="J30" t="s">
+        <v>255</v>
+      </c>
+      <c r="K30" t="s">
+        <v>256</v>
+      </c>
+      <c r="L30" t="s">
+        <v>257</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>249</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="n">
+        <v>4</v>
+      </c>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>258</v>
+      </c>
+      <c r="X30" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>52261</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>261</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>262</v>
+      </c>
+      <c r="J31" t="s">
+        <v>263</v>
+      </c>
+      <c r="K31" t="s">
+        <v>264</v>
+      </c>
+      <c r="L31" t="s">
+        <v>265</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>266</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>258</v>
+      </c>
+      <c r="X31" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>52261</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>268</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>269</v>
+      </c>
+      <c r="J32" t="s">
+        <v>270</v>
+      </c>
+      <c r="K32" t="s">
+        <v>271</v>
+      </c>
+      <c r="L32" t="s">
+        <v>272</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>266</v>
+      </c>
+      <c r="O32" t="s">
+        <v>119</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>258</v>
+      </c>
+      <c r="X32" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>52261</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>274</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>275</v>
+      </c>
+      <c r="J33" t="s">
+        <v>276</v>
+      </c>
+      <c r="K33" t="s">
+        <v>277</v>
+      </c>
+      <c r="L33" t="s">
+        <v>278</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>266</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>258</v>
+      </c>
+      <c r="X33" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>52261</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>280</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>281</v>
+      </c>
+      <c r="J34" t="s">
+        <v>282</v>
+      </c>
+      <c r="K34" t="s">
+        <v>283</v>
+      </c>
+      <c r="L34" t="s">
+        <v>284</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>213</v>
+      </c>
+      <c r="O34" t="s">
+        <v>67</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>258</v>
+      </c>
+      <c r="X34" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>52261</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>286</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>287</v>
+      </c>
+      <c r="J35" t="s">
+        <v>288</v>
+      </c>
+      <c r="K35" t="s">
+        <v>289</v>
+      </c>
+      <c r="L35" t="s">
+        <v>290</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>291</v>
+      </c>
+      <c r="O35" t="s">
+        <v>67</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>292</v>
+      </c>
+      <c r="X35" t="s">
+        <v>293</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>52261</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>295</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>296</v>
+      </c>
+      <c r="J36" t="s">
+        <v>297</v>
+      </c>
+      <c r="K36" t="s">
+        <v>298</v>
+      </c>
+      <c r="L36" t="s">
+        <v>299</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>213</v>
+      </c>
+      <c r="O36" t="s">
+        <v>67</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>4</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>292</v>
+      </c>
+      <c r="X36" t="s">
+        <v>293</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>52261</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>301</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>302</v>
+      </c>
+      <c r="J37" t="s">
+        <v>303</v>
+      </c>
+      <c r="K37" t="s">
+        <v>304</v>
+      </c>
+      <c r="L37" t="s">
+        <v>305</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3</v>
+      </c>
+      <c r="N37" t="s">
+        <v>213</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>306</v>
+      </c>
+      <c r="X37" t="s">
+        <v>307</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>52261</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>309</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>310</v>
+      </c>
+      <c r="J38" t="s">
+        <v>311</v>
+      </c>
+      <c r="K38" t="s">
+        <v>312</v>
+      </c>
+      <c r="L38" t="s">
+        <v>313</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>213</v>
+      </c>
+      <c r="O38" t="s">
+        <v>53</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>52261</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>315</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>316</v>
+      </c>
+      <c r="J39" t="s">
+        <v>317</v>
+      </c>
+      <c r="K39" t="s">
+        <v>318</v>
+      </c>
+      <c r="L39" t="s">
+        <v>319</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>213</v>
+      </c>
+      <c r="O39" t="s">
+        <v>67</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>52261</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>321</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>322</v>
+      </c>
+      <c r="J40" t="s">
+        <v>323</v>
+      </c>
+      <c r="K40" t="s">
+        <v>324</v>
+      </c>
+      <c r="L40" t="s">
+        <v>325</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>326</v>
+      </c>
+      <c r="O40" t="s">
+        <v>67</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>52261</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>328</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>329</v>
+      </c>
+      <c r="J41" t="s">
+        <v>330</v>
+      </c>
+      <c r="K41" t="s">
+        <v>331</v>
+      </c>
+      <c r="L41" t="s">
+        <v>332</v>
+      </c>
+      <c r="M41" t="n">
+        <v>3</v>
+      </c>
+      <c r="N41" t="s">
+        <v>333</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>3</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>334</v>
+      </c>
+      <c r="X41" t="s">
+        <v>335</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>52261</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>337</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>338</v>
+      </c>
+      <c r="J42" t="s">
+        <v>339</v>
+      </c>
+      <c r="K42" t="s">
+        <v>340</v>
+      </c>
+      <c r="L42" t="s">
+        <v>341</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>342</v>
+      </c>
+      <c r="O42" t="s">
+        <v>131</v>
+      </c>
+      <c r="P42" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>4</v>
+      </c>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>4</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>334</v>
+      </c>
+      <c r="X42" t="s">
+        <v>335</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>52261</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>344</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>345</v>
+      </c>
+      <c r="J43" t="s">
+        <v>339</v>
+      </c>
+      <c r="K43" t="s">
+        <v>346</v>
+      </c>
+      <c r="L43" t="s">
+        <v>347</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>342</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>334</v>
+      </c>
+      <c r="X43" t="s">
+        <v>335</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>52261</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>349</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>350</v>
+      </c>
+      <c r="J44" t="s">
+        <v>351</v>
+      </c>
+      <c r="K44" t="s">
+        <v>352</v>
+      </c>
+      <c r="L44" t="s">
+        <v>353</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>354</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>355</v>
+      </c>
+      <c r="X44" t="s">
+        <v>356</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>52261</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>358</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>359</v>
+      </c>
+      <c r="J45" t="s">
+        <v>360</v>
+      </c>
+      <c r="K45" t="s">
+        <v>361</v>
+      </c>
+      <c r="L45" t="s">
+        <v>362</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>354</v>
+      </c>
+      <c r="O45" t="s">
+        <v>53</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>363</v>
+      </c>
+      <c r="X45" t="s">
+        <v>364</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>52261</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>366</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>367</v>
+      </c>
+      <c r="J46" t="s">
+        <v>368</v>
+      </c>
+      <c r="K46" t="s">
+        <v>369</v>
+      </c>
+      <c r="L46" t="s">
+        <v>370</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>354</v>
+      </c>
+      <c r="O46" t="s">
+        <v>67</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>363</v>
+      </c>
+      <c r="X46" t="s">
+        <v>364</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>52261</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>372</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>373</v>
+      </c>
+      <c r="J47" t="s">
+        <v>374</v>
+      </c>
+      <c r="K47" t="s">
+        <v>375</v>
+      </c>
+      <c r="L47" t="s">
+        <v>376</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>354</v>
+      </c>
+      <c r="O47" t="s">
+        <v>131</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="n">
+        <v>4</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>363</v>
+      </c>
+      <c r="X47" t="s">
+        <v>364</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>52261</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>378</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>379</v>
+      </c>
+      <c r="J48" t="s">
+        <v>380</v>
+      </c>
+      <c r="K48" t="s">
+        <v>381</v>
+      </c>
+      <c r="L48" t="s">
+        <v>382</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>354</v>
+      </c>
+      <c r="O48" t="s">
+        <v>67</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>363</v>
+      </c>
+      <c r="X48" t="s">
+        <v>364</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>52261</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>384</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>385</v>
+      </c>
+      <c r="J49" t="s">
+        <v>386</v>
+      </c>
+      <c r="K49" t="s">
+        <v>387</v>
+      </c>
+      <c r="L49" t="s">
+        <v>388</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>389</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="n">
+        <v>4</v>
+      </c>
+      <c r="R49" t="s"/>
+      <c r="S49" t="n">
+        <v>4</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>390</v>
+      </c>
+      <c r="X49" t="s">
+        <v>391</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>392</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_96.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_96.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="441">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Karen V</t>
+  </si>
+  <si>
     <t>06/29/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>BMAYE</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r583466550-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -204,6 +210,9 @@
     <t>We stayed at Candlewood suites in February 2018. We had won a room for part of our trip from a local travel agency but we needed two rooms for a little longer than what we had won so we did purchase room nights during our trip.  The rates were very reasonable given the size and cleanliness of the rooms.  We have traveled to Anaheim several times the past few years and never had as big a room as these.  We loved the kitchen and even the bathroom was nice and spacious.  The room was very well kept and clean upon arrival.  There were a couple downsides to the hotel.  It was not as close to the parks as we thought.  We usually stay on Harbor so this was a bit more of a walk than we were used to.  It was about 25-30 minutes to the park gates and we had gotten lost more than a couple times while we were there.  It would have been nice if they provided a map showing the easiest route to walk to the park.  Also, I had called the week before confirming if they had the swimming pool open during the time we were to arrive and they had said they would be open.  But when we checked in the pool was closed due to maintenance.  My kids were very disappointed as we had told them they'd get to swim so they had...We stayed at Candlewood suites in February 2018. We had won a room for part of our trip from a local travel agency but we needed two rooms for a little longer than what we had won so we did purchase room nights during our trip.  The rates were very reasonable given the size and cleanliness of the rooms.  We have traveled to Anaheim several times the past few years and never had as big a room as these.  We loved the kitchen and even the bathroom was nice and spacious.  The room was very well kept and clean upon arrival.  There were a couple downsides to the hotel.  It was not as close to the parks as we thought.  We usually stay on Harbor so this was a bit more of a walk than we were used to.  It was about 25-30 minutes to the park gates and we had gotten lost more than a couple times while we were there.  It would have been nice if they provided a map showing the easiest route to walk to the park.  Also, I had called the week before confirming if they had the swimming pool open during the time we were to arrive and they had said they would be open.  But when we checked in the pool was closed due to maintenance.  My kids were very disappointed as we had told them they'd get to swim so they had been excited for that only to be let down.  The service was mediocre.  Not anything to complain or rave about.  I would stay here again if we were going into town for something other than Disneyland but we did not like the walk to the parks.  With 2 small kids and a giant stroller a shuttle was not a good option for us.  More</t>
   </si>
   <si>
+    <t>Diego S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r583408123-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -225,6 +234,9 @@
     <t>Wonderful Staff Arianna was so nice and helpfull , Super Clean hotel looks very appealing from the inside and out , Very close to Disneyland and super inexpensive. The only thing really is no drinking water fountain besides the gym should be one with the lobbyMore</t>
   </si>
   <si>
+    <t>Michaela E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r575493304-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -249,6 +261,9 @@
     <t>I just recently stayed here with my young son (taking him on a surprise trip to Disneyland). I've stayed in a Candlewood Suites before and loved the room for the price you pay and I was not disappointed again! My trip didn't start off great as my wallet turned up missing. The staff could not have been more helpful and understanding and I was incredibly grateful. Fortunately it was turned in the next day and the front desk contacted me immediately. Even with the rocky start, the trip ended up being successful and I appreciated the staff checking in to see how everything was going throughout the rest of our vacation! Bonus- Within walking distance to good restaurants as well as Disneyland or you can just buy a bus pass at the front desk if you're looking to save your legs for walking around the park instead. Would definitely stay here again!More</t>
   </si>
   <si>
+    <t>hootersmama5</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r574825437-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -273,6 +288,9 @@
     <t>I must say, it was the best. Staff is amazing, Arianna was remarkable. I will come back because of Arianna. She made us feel welcome. Great customer service. The room was very comfortable loved it. Truely recommend this place,Candlewood Suites yes.More</t>
   </si>
   <si>
+    <t>frequent_traveler290</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r573584914-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -297,6 +315,9 @@
     <t>We were able to get rooms at this hotel several weeks prior to visiting Disneyland.  After we checked into Room #608, we realized the air conditioning didn't work.  A quick phone call brought their electrician who said the unit needed to be replaced.  We were able to be moved to another room several rooms away from Room #608.  We did request a room facing NORTH so we could watch the Disneyland fireworks ... but we realized much later after we'd unpacked and were settled in that we were in a room facing south.  Gotta teach those employees which direction is NORTH.  :-(It is about a 15-20 minute walk from the hotel to Disneyland and easy to navigate; you won't get lost.  Just follow the crowd.More</t>
   </si>
   <si>
+    <t>Garfield C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r569329671-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -324,6 +345,9 @@
     <t>My wife and I decided to stay here for a quick mid week getaway . We were pleased with the look and feel of the hotel and friendly staff. The location relative to Disney, Garden Walk and the nice restaurants was ideal; all within walking distance. This hotel really felt safe (key access to parking garage as well as a secure doors that leads to an elevator that takes you directly to sleeping room floors from garage or to the lobby (plenty of cameras).My wife loved the well lit hallways, the fresh smell of the hotel interior and especially in our suites. She however was most impressed with the super comfortable bed. I am not exaggerating when I tell you that this is the most comfortable bed that we have slept in, in forever!More</t>
   </si>
   <si>
+    <t>Joshua G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r564398351-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -339,6 +363,9 @@
     <t xml:space="preserve">My family and I stayed at this wonderful hotel. The front desk service was very helpful and friendly. The room we stayed in was perfect for a family are size 2 adults and 2 children. The hotel over all is very clean from the rooms to the parking lot and the price was extremely affordable being so near Disneyland. This is a hotel that I will be booking future stays at and will be recommending to people. </t>
   </si>
   <si>
+    <t>Andre46</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r563232031-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -357,6 +384,9 @@
     <t>February 2018</t>
   </si>
   <si>
+    <t>Will G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r561370294-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -378,6 +408,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>advcards</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r560023649-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -391,6 +424,9 @@
   </si>
   <si>
     <t>Comes with a kitchen and desk area, in addition seems fairly new.  The resort does not provide breakfast but do have coffee downstairs as well as in the room.About a twenty minute walk to downtown Disney and the parks, so nice location. Overall good place to stay</t>
+  </si>
+  <si>
+    <t>David G</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r556533141-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
@@ -433,6 +469,9 @@
 Note: It's an easy one-mile walk to Disney or the Convention Center. However, I walked to my event via Katella, which is brightly lit, has...I spent a night at the Candlewood Suites during the NAMM Show. Thanks to a show discount, my room rate was only $139. (With room taxes, etc., it came to about $173.) The GOOD: The location is clean. The check-in staff was super-courteous and prompt. The rooms are small, but reasonably well-designed, and mine was very clean. The BAD: The decor, unfortunately, feels straight out of 1987. (See photo.) The linens, while clean, were all "scratchy," from the sheets to the bath towels. California energy regulations now require motion sensors in all bathrooms, so when you enter the bathroom in the middle of the night, you will be blinded by all the lights turning on. (Not the hotel's fault, but I think a better choice of lights would help.)Freeway noise was not a problem when I went to bed, but in the morning, I woke up at 5am and the noise was significant enough that I couldn't go back to sleep. Having appliances in the room is also a noise factor, and there was a constant clicking through the night (like a bird pecking on the wall) that I assume was the refrigerator. Although my room was elevator-adjacent, I did not hear any noise from the elevator, other than noisy guests coming and going.Note: It's an easy one-mile walk to Disney or the Convention Center. However, I walked to my event via Katella, which is brightly lit, has lots of businesses, and feels safe. My maps app had me return from the event via Disney Way, which is dark, creepy, and I would strongly recommend avoiding at night.Despite my caveats, I would recommend Candlewood Suites Anaheim for anyone who wants a clean, friendly budget hotel.More</t>
   </si>
   <si>
+    <t>crismiss</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r550527356-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -451,6 +490,9 @@
     <t>My husband and I stayed here for a weekend getaway. Great bed and pillows. Had a really nice kitchenette (dishwasher, plates, cutlery, glasses, pot, toaster, etc) with a two burner stove, full size refrigerator,sink, and large microwave. All appliances were super clean, no funky odors! There was a nice tv, and, according my husband, nice Direct TV channels. There was a built in L-shaped desk (which would be perfect for laptop work) which (the shorter end) doubled as a dining table. Bathroom was nice and clean. No mildew spots on grout around tub. The shower head was high enough for my 6 foot 4 inch husband to be able to shower in without having to duck his head. Plenty of hot water too! Because of the kitchenette, I would recommend this hotel to travelers staying for a few days,especially if you want to save money by making your own food instead of going out to eat for every meal. This hotel has toasters, waffle irons, crock pots and many other small appliances you can barrow from the main lobby/check-in area to use for cooking purposes in your room. Great friendly staff too! We will definitely stay here again and recommend to others!More</t>
   </si>
   <si>
+    <t>Pat W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r548316311-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -472,6 +514,9 @@
     <t>A solid 3 stars amenities, but I am giving a 4 for the friendly and cordial staff (both day and night shift). We stayed in a 1 bedroom 2 baths suite. The carpet was a bit worn and the furniture are a bit dated in the room. But the room and bathrooms were clean, the bed sheets, blankets and pillow cases were well-laundered. The bed was comfortable. The pots and pans, coffee maker were squeaky clean. Free coffee and tea in room. Dishwasher in room with detergent given. I asked for an extra set of blanket and pillow, and they were prompt, no issue whatsoever. There is a pool and a small exercise room (no one seemed to use it). No lobby area per se, just small area for check in with a set of sofa, and an area for vending machines and snacks for purchase. No breakfast service but 7-11 was just a block away (5 minutes walk). The location is convenient enough for Disneyland visit but you will likely need to drive (a short drive). Parking at Candlewood is 10 usd per night. There is also a coin laundry room on-site. Overall a good stay and would not mind to stay again. More</t>
   </si>
   <si>
+    <t>Disneyilove</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r547401142-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -487,6 +532,9 @@
     <t>As someone who seeks comfortable lodging that is clean and reasonably priced, Candlewood Suites far exceeded my expectations! The staff was friendly and attentive! The kitchenette was very well appointed and even though we didn’t cook in the room, having a grocery delivery on our first night allowed us to not have to buy water or soda in the parks! We can’t wait to return!</t>
   </si>
   <si>
+    <t>Travis S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r544511051-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -514,6 +562,9 @@
     <t>Nice sized room with good parking. The ART bus system stops nearby that is only a five minute ride to the mouse park. The location is easy of and on to I-5 but near lots of good places to eat, from everything from fancy to super expensive. Also, it is also close to shopping.More</t>
   </si>
   <si>
+    <t>surfer_downunder</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r542689830-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -538,6 +589,9 @@
     <t>Stayed here on the promise of a pool and air con. Well the air didn’t work and the pool was more like an oversized hot tub. Weather was hot and this made for an uncomfortable stay. Staff were pleasant. Room was clean enough.More</t>
   </si>
   <si>
+    <t>Hansen I</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r541181481-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -565,6 +619,9 @@
     <t>Stayed in room 507 with kitchen suite, fold out bed and queen room. Check in and check out was straight forward. Free parking, compliementary laundry, satellite TV, WiFi, common community cupboard, fitness room, therapy pool and BBQ patio was nice extras.More</t>
   </si>
   <si>
+    <t>AlanCAL</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r534868024-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -584,6 +641,9 @@
   </si>
   <si>
     <t>Pleasant enough. Kind of suspicious of people standing around outside of the building at all times of the day. Had experience that someone tried to open entry door as we were waiting for garage elevator. Did not open on as room key is required for entry. Room was spacious but a little on the unclean side. Floor needed vacuuming. Refrigerator made noise throughout the stay. Check in took a long time as clerk was having problems with register. More</t>
+  </si>
+  <si>
+    <t>jlm495</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r532097553-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
@@ -614,6 +674,9 @@
 While I do acknowledge that I should have had the balance on my card, to me it is a little ridiculous that they would put the charge through at such a random time (4 days before my arrival) and give me such short notice about the insufficient funds (3 HOURS!!!). To me this seems like a ploy to screw people out of extremely expensive...I want to start this review by saying that I have not yet completed my stay at the Candlewood Suites and that nothing in this review is a reflection of my experience at the hotel.I booked my stay at this hotel about a month ago.  Today (Wed), I received a call from the hotel saying that they charged my card for my stay (arriving Sat) but that it was declined. I apologized and let them know that in my past experience with other IHG hotels my card was never charged until check-in and I offered to give them another card to put it on. They told me that they would be unable to put it on another card and that if the charge did not go through by the end of the day that the reservation would be cancelled but that I would STILL be responsible for paying the balance in total. So essentially I had 3 hours to put a payment through on my credit card, or be charge $500 AND forfeit my stay. While I do acknowledge that I should have had the balance on my card, to me it is a little ridiculous that they would put the charge through at such a random time (4 days before my arrival) and give me such short notice about the insufficient funds (3 HOURS!!!). To me this seems like a ploy to screw people out of extremely expensive reservations. Very disappointed in this hotel and the entire IHG brand.More</t>
   </si>
   <si>
+    <t>Magic K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r520757573-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -630,6 +693,9 @@
   </si>
   <si>
     <t>We were on our honeymoon for the final part of our trip to California. We arrived about 4.30pm and checked in straight away. Check in was fast and efficient I paid for our pre booked room and $50 was also held on the card for incidentals. We had a room on the 3rd floor by the lift we are concerned it would be noisy but this wasn't the case. Our room was very nice and comfortable the fridge was a great asset to the room. We never used anything else to cook with but there was also a dishwasher, small stove, microwave and utensils. Bathroom was large and clean. One afternoon we went to the pool which was small but the decking area was lovely with lots of loungers and even BBQs which were being cleaned- the man doing this never stopped cleaning everywhere each time we saw him around the hotel. We walked to and from the Disney parks during our stay it was an easy walk and in a good area. We had a great stay and would return here. More</t>
+  </si>
+  <si>
+    <t>funsandybeach</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r513094180-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
@@ -662,6 +728,9 @@
 Pool area...pool is very small. Don't stay here if a large pool is important to you. However, the water was the perfect temp, pool was clean. Nice lounge chairs near the pool and the...My husband chose this hotel while staying for business, and i tagged along to visit Disneyland. The location is good...several restaurants nearby, within walking distance. It is close to the highway too. Proximity to Disney is OK...I walked, and it was just under a mile. If you're OK with walking, then it's a great property for a Disney related trip. Room...decent size room. The kitchen was nice, though we didn't use it much. Used the fridge for chilling water and storing leftover pizza, which we reheated in the microwave. We had one lamp that wouldn't work. I let the front desk know on our way out in the morning, and upon returning that evening it had been fixed. No other issues with the room...everything else functioned well and we had no problems. Towels were replaced and the bed made, trash emptied daily. There is a small area for some basic food and drinks available for purchase. No restaurant or breakfast available in this area. Just a grab and go type of set up. There are also some items available for borrowing...games, additional kitchen items, grilling tools. There are 3 nice size gas grills up at the pool deck. We didn't use them, but they looked nice.Pool area...pool is very small. Don't stay here if a large pool is important to you. However, the water was the perfect temp, pool was clean. Nice lounge chairs near the pool and the grilling area. There are also two rooms with additional tables and chairs and TV's in them. Nice if you want shade and an inside feel...they are open facing the pool. The only issue I had with cleanliness would be the stairways. It seemed like the same messy spots were on the stairs the whole stay...Monday-Friday. And there are trash cans on each level, and maybe someone put something gross in the trash and they don't get emptied often, because there was one stairway in particular that smelled rather bad each time I used it.Overall we had a good stay, and would stay again if in the area.More</t>
   </si>
   <si>
+    <t>Texangal13</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r509844658-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -689,6 +758,9 @@
     <t>We stayed 4 nights in Feb 2017. We did not have hot water the first night we stayed but we did the following nights. The staff was friendly and helpful, they refunded us for the night without hot water. The bed was comfortable and the room was very clean. For the deal we got through trip advisor, this was a great value.More</t>
   </si>
   <si>
+    <t>TessRomaniak</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r509459686-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -705,6 +777,9 @@
   </si>
   <si>
     <t>This hotel was so disgusting. I chose it based on reviews here. Carpets were filthy, the room smelled bad, we were given one very small shampoo/conditioner combo and two small bars of soap (for 4 people), there was a bunch of hair under the sheets of one of the beds, the air conditioner also did not work. We requested a different room and the new room was also dirty, plus the person directly across from us was blaring his tv. Someone was coming out of his room as we were bringing our stuff in and the room reeked of marijuana. We decided to leave and went to the Embassy Suites not far away. The only good thing I can say is that we had no problem when we said we didn't want to be charged for the room. I don't know how anyone could give this place a decent review. It was gross. If I could give it no stars, I would.More</t>
+  </si>
+  <si>
+    <t>sfofun202</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r498889408-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
@@ -736,6 +811,9 @@
 We finally got into the other room almost two hours after the 3pm check in time.  We went out to dinner and came back, around 10:00 pm and the room next to us had a dog.  The dog was barking and whining continuously.  I called the front desk and they said they would call the guest (who clearly wasn’t in the room) They ask me if I wanted to move; I said NO!  I have a 5yo I need to get to bed, why should I have to move? We had to put on white noise to cancel out the dog barking.  The next morning before we left, I went to the front desk and made sure that they contacted the guest and make sure it doesn’t happen again or move them.  The girl didn’t even know what...I am a IHG Gold Elite, soon to be Platinum.  I had two rooms and requested that they be close to each other and with an early check in.  When I arrived at 4PM, the guy at the desk said “oh, I was just trying to find a rooms near each other and we only have one room ready and I don’t have any rooms near each other.”  I realized these are only request, but I would think, they would try to honor request from your elite members and try to make the request happen the night before by blocking room’s etc.  We finally got into the other room almost two hours after the 3pm check in time.  We went out to dinner and came back, around 10:00 pm and the room next to us had a dog.  The dog was barking and whining continuously.  I called the front desk and they said they would call the guest (who clearly wasn’t in the room) They ask me if I wanted to move; I said NO!  I have a 5yo I need to get to bed, why should I have to move? We had to put on white noise to cancel out the dog barking.  The next morning before we left, I went to the front desk and made sure that they contacted the guest and make sure it doesn’t happen again or move them.  The girl didn’t even know what I was talking about.  The guy from the night before didn’t pass on the incident.  She assured me that they would take care of it.   We got back to the room around 8pm.  The guest had not been moved and the dog was barking and whining again.  I called the Front Desk again; the guy said he would call the guest.  He called me back and said the guess was upset that he was calling her about the dog barking and said that Expedia said the dog would be allowed to bark.  I said to the guy; seriously??  What hotel would ever allow that? He said, I know that can’t be true.  Then he asked me again; did I want to move?  I said again NO!  I shouldn’t have to move when we are not the one causing a problem, again another night we had to put the white noise on to drown out the dog barking.The next night day they either got moved or checked out, because we didn’t’ hear the dog again.  The A/C doesn’t’ work very well either, there is a small vent for the bedroom and never really that cool in the bedroom.   This hotel is located close to the parks. The bus stop is located right out front of the hotel.  I travel extensively and while this hotel is pretty clean and the staff is friendly.  I couldn’t recommend this place.  There are to many other hotels near the parks to choose from. This hotel needs to work on better training their employees and understand who their Elite members are.More</t>
   </si>
   <si>
+    <t>Michael M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r498540914-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -754,6 +832,9 @@
     <t>We had a brief, but pleasant, stay at the Candlewood Suites. Location is very convenient to the Interstate, Disney, and Angels Stadium.  Liked the covered parking at no charge.  Beds were comfortable, and room was large enough for 4 of us.  The pool is tiny, but we were just there to cool off, so it did the trick. Would likely stay here again.More</t>
   </si>
   <si>
+    <t>resawolfis</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r498088899-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -772,6 +853,9 @@
     <t>The staff was very friendly and accommodating. They let us check in a few minutes early and let us leave our car in their parking garage longer than check out on the last day. I was able to get extra coffee, popcorn, creamer, etc. Whenever i asked for something they smiled and said "of course!" The room was a good size for two people. It was clean and updated. It was very nice to have the kitchenette as we were there for 3 nights for a volleyball tournament. It was a 25 minute walk to the convention center which was convenient. I would definitely stay here again and would recommend it to others.More</t>
   </si>
   <si>
+    <t>RichieNotSoRich</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r483997543-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -799,6 +883,9 @@
     <t>This hotel is just over half a mile from Disneyland, easy walking distance. Great room with TV, twin beds, decent bathroom and kitchenette. Free parking is a bonus.The staff were very helpful and accommodating. There's a pool and a gym although we didn't visit either so can't comment on them.It's right beside the I5 freeway so very accessible. There's a large and a small Walmart only a few blocks away to the north and an outlet mall a few blocks to the south. Some great restaurants between the hotel and Disney too.More</t>
   </si>
   <si>
+    <t>TwoDollarToll</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r482746481-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -823,6 +910,9 @@
     <t>We were two people in a room with 2 queen beds for two nights . The bathroom was great and the biggest pluses were the in-room coffee maker, the full size fridge, and a stove + microwave. There is a selection of milk, cereal, and frozen items for sale in the lobby, which we took advantage of for breakfast which saved a lot of time. We also took advantage of the covered parking. We took a ride-share service to get to and from Angels stadium our first day there (about $7 each way). Parking for baseball was just $10 so I might be inclined to drive to the game if I had to do it again. On the second day we walked to and from the Disneyland Resort. The walk was not bad at all. Coming back it was about 10:00 at night and I did not feel any anxiety; you are either walking next to busy streets or through the grounds of other hotels. As always, use caution when in strange places, but I thought the neighborhood was fine.More</t>
   </si>
   <si>
+    <t>jlipscomb010</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r481975798-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -844,6 +934,9 @@
     <t>The suites worked out great with the grand kids.  We were able to have our privacy and sleep while the kids were able to be on their tablets, watch TV and make snacks.  The full kitchen was great!  Fully functional and you could borrow more appliances (crock pot, steamers, etc,) if needed.  The room was clean and well stocked. Very close to Disney, you could walk, however, we just used zoomryde.com and found the closest &amp; cheapest ride available at the time (will give you stats for lyft, uber, bus, taxi, etc.) Turned out to be lyft, which had us at Disneyland within 6 minutes from the time I ordered the ride!  So convenience can't be beat.  The staff was great.  They were all very friendly, helpful &amp; responded to our requests very quickly.  We would stay at the Candlewood Suites again.More</t>
   </si>
   <si>
+    <t>Tom P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r478836024-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -862,6 +955,9 @@
     <t>Is it The Ritz? No. But it is very comfortable (great bed!), practical (very nice stocked kitchenette in the room) and the staff is superb. I cannot say enough about everyone I encountered at the front desk. So helpful and giving. The parking is complementary, a big deal around Disney. And if you check out in the morning and still have one day left in the park, they will let you leave your car until that evening. I will stay here again when I spend the night to go to the park.More</t>
   </si>
   <si>
+    <t>Jodi S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r474330380-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -880,6 +976,9 @@
     <t>I stayed here for 4 nights with my 2 children ages 6 and 13 while going to Disneyland. The rooms are new, super comfortable and the full size kitchen was very useful. The hotel staff was wonderful for checking in and very helpful when needed! The pool is VERY small and not really very kid friendly. It's a small therapeutic pool that we thought was very cold! There is an ART bus right outside the hotel lobby and the Garden Walk is also very close! One morning our ART bus didn't show up after waiting 45 minutes so we had to walk to the park and it only took about 15-20 minutes. I wouldn't have felt safe walking at night though. Over-all its a decent place if you don't care about a pool and just use the bus system for getting to and from the parks!More</t>
   </si>
   <si>
+    <t>Lunas_Traveler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r470910282-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -898,6 +997,9 @@
     <t>This would've been a very nice stay except for ants the first day. Check in was good and initial room check was nice. Brought a few groceries back to room. Next morning had ants all over the desk and in box of donuts. Clerk was very apologetic and immediately moved us to another room. We both worked in the room till about 1230pm and missed housekeeping so after two days put garbage outside the door. Third day we caught the housekeeper and got towels and was told rooms they missed in the morning got serviced in the afternoon but our room only got serviced once when we left by 1130am.Rest of our stay was uneventful.  The kitchen and full size fridge was a nice feature. Wifi worked well.  Bed was very comfortable. The laundry room was free of charge, except soap, which was amazing. Parking was free and plenty of spaces. Hotel is very close to Disneyland and numerous restaurants and by freeways.  Staff were all very nice.More</t>
   </si>
   <si>
+    <t>Mike D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r467345303-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -925,6 +1027,9 @@
     <t>The property is approximately a 10 minute walk from the parks and 15 minutes from Downtown Disney. Brand new with great furnishings and large suites. We were in a one bedroom suite and very much enjoyed it. Wifi worked very well. The "Candlewood Cupboard" or mini convenience store was surprisingly well stocked. There was a nice pool on our floor although we didn't have a chance to use. Everyone we interacted with was pleasant and got the job done. Great stay and great property, would definitely stay again.More</t>
   </si>
   <si>
+    <t>PetiteGrace</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r467087819-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -943,6 +1048,9 @@
     <t>This hotel is very close to Disneyland (about 5 minutes driving) with a walking distance Cheesecake Factory and other places nearby. Having a kitchen, it's a plus so you can save some money on food. The room was big and has a huge desk. I was so happy to do laundry for free (of course, bring your own detergent). There was a night I noticed the water in the shower was not hot at all and that is indispensable for me. I tried to call the front desk but they never picked up my room calls. The next day, I personally went to tell them about my concern and the guy told me it was an issue in the whole hotel. He apologized and explained me they were working on it. Thank God when I came back from the parks it was fixed. Also, if you are looking for a family pool I will suggest you check another hotel because it is tiny. In general, the staff was friendly and I consider it was a good place to stay!More</t>
   </si>
   <si>
+    <t>Stephanie o</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r462693826-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -967,6 +1075,9 @@
     <t>The room is a great size.  It's wonderful to have a kitchen.  The beds are super comfortable!  BUT after a long day at Disneyland if you want to soak in a hot tub, forget it.  You get a cold pool.  Not a big deal.  But if you want a hot, or even warm shower, you might not get that either.  We didn't have hot water for a while.  And speaking of water, I just think a nice hotel like this ought to have filtered drinking water available for guests without charging $2 for Dasani. Also the elevator doors could be more clearly marked.  There are 2.  One leads to the parking garage and the other to the hotel lobby.  They both say 'lobby'.  A little confusing til you get your bearings.  Other than that it was a very comfortable stay.  More</t>
   </si>
   <si>
+    <t>burksmi</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r459345048-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -985,6 +1096,9 @@
     <t>Our family enjoyed our stay at Candlewood. Pros: -Separate bedroom with comfortable queen bed and TV. -Nice Kitchen area with cookware and 4 person dinnerware. Dishwasher, refrigerator, and 2 burner stove. -Comfortable living area with fold out couch and TV. -Clean &amp; New room and room amenities. -Staff was helpful with questions and keeping the room clean daily. -ART stops right out in front of the building. -Free washer &amp; dryer use, just BYO detergent Cons:-Found a trail of small ants after leaving a drink on the counter over night. Didn't bother me but might bother some. -No cribs available for loan or lease. Rough for the parents but our 2yr old loved the freedom of being able to roam around the room at 2am. Pros far out weigh the cons for us. We would definitely stay again, great room for the price. We walked to Disney most of the time, took about 20-30 mins to get to the gate with little ones. More</t>
   </si>
   <si>
+    <t>samsambamalam</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r458788764-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -1001,6 +1115,9 @@
   </si>
   <si>
     <t>We really enjoyed our stay at Candlewood Suites! We arrived early on our day of check in, but were able to be given our room immediately at 10am. The check in process was very simple and stress free. The room was clean and comfortable, very well furnished and it was excellent having a great kitchen to use! The recliner chair was incredibly comfortable! The check out process took only a minute, and was very simple and easy. The staff held our luggage for the afternoon while we waited for our shuttle to the airport.The hotel is very close to Disneyland, we happily walked to and from the parks each day which was execllent!!The only reason I can't give this hotel 5 stars is the noise levels in the room were quite high, with a large gap under the doors and voices being heard from the hallways and adjacent rooms. It wasn't too disruptive to our experience but it was not quite what I expected from a hotel.Overall we would definitely stay here again if we return to Anaheim!!More</t>
+  </si>
+  <si>
+    <t>loveducks</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r457140445-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
@@ -1026,6 +1143,9 @@
     <t>Had some issues with checking in. The guy manning the reception checked us into a room that already has someone in there so i wasted about 30 mins back and forth the room and reception trying to get this sorted. There is no house phones on the floor so there's no option to call. The guy was surprised to hear that so he have me another room and i told him to walk with me in case the cards doesn't work again. Luckily 3rd time lucky and yes he can hear noises from the original room he checked me in.
 The walls are thin and there's a gap at the bottom of the door so light comes through when you switched off all lights for bed. There's also no shower gel (must be a USA thing) and the "facial" soap is very drying. I wouldn't recommend anyone with dry or sensitive skin to use it. The skin on my fingers are peeling off after a week of soap. We end up getting a body shower gel from the supermarket anyway. No showe cap and sanitary bags too. Toiletries provided are 2 bars of soap and a shampoo/conditioner. The heater also makes very loud sound.
 Despite this i think this is a decent place to stay especially for families who want to make use of the kitchen. You also get 1 packet of coffee and 1 decaf coffee and a packet...Had some issues with checking in. The guy manning the reception checked us into a room that already has someone in there so i wasted about 30 mins back and forth the room and reception trying to get this sorted. There is no house phones on the floor so there's no option to call. The guy was surprised to hear that so he have me another room and i told him to walk with me in case the cards doesn't work again. Luckily 3rd time lucky and yes he can hear noises from the original room he checked me in.The walls are thin and there's a gap at the bottom of the door so light comes through when you switched off all lights for bed. There's also no shower gel (must be a USA thing) and the "facial" soap is very drying. I wouldn't recommend anyone with dry or sensitive skin to use it. The skin on my fingers are peeling off after a week of soap. We end up getting a body shower gel from the supermarket anyway. No showe cap and sanitary bags too. Toiletries provided are 2 bars of soap and a shampoo/conditioner. The heater also makes very loud sound.Despite this i think this is a decent place to stay especially for families who want to make use of the kitchen. You also get 1 packet of coffee and 1 decaf coffee and a packet of pocorn. room is big as well. And it's about 20mins walk to Disneyland.More</t>
+  </si>
+  <si>
+    <t>Megkeepers</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r445469492-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
@@ -1075,6 +1195,9 @@
 - Lots of traffic noise since it's right next to the freeway. Much too...Pro's: - Recently built, so everything is clean and brand new. - The in-room kitchen is very convenient if you want to heat something up on the stove or in the microwave. There is a little store in the lobby with food, snacks, and drinks. - We had two rooms - one of them had two bathrooms - which made it much easier to get ready with teenagers. - We made good use of the laundry room, with free washers and dryers - there is even a laundry basket in each room. We brought a few Tide Pods and fabric softener sheets from home. - We though the beds were VERY comfortable. Con's: - Had to wait for almost 2 hours because one of our rooms hadn't been cleaned yet - they said they didn't know the room was going to be used, even though we clearly had reserved that room type. Very annoying after riding in the car for 8 hours, we just wanted to check in and rest.- Our room keys stopped working several hours before the 11am check-out time, stranding us outside while trying to load the kids and luggage. - It was SO LOUD being in a room near the gym, as the weight lifters come in very early and don't have any problem constantly dropping their barbells on the floor. - Lots of traffic noise since it's right next to the freeway. Much too loud to open the windows. - Within walking distance to Disneyland, but it's a long walk. The walk back to the hotel at night was long, dark, and deserted - we were not at all comfortable, and ended up taking a taxi. Too Long/Didn't Read? Nice enough hotel while it's still new, but I wasn't as impressed as I expected to be, and I don't plan on staying here again.More</t>
   </si>
   <si>
+    <t>Trailblazer2012</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r441013988-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -1096,6 +1219,9 @@
     <t>Great stay at new hotel walking distance to Disneyland. Parking on 1st and 2nd floors with awesome exercise equipment in gym. The bicycle or spinner is great for those of us that have damaged our knees but still need to exercise on a daily basis away from home. The room rates were affordable considering the hotel is so close to Disneyland. And for those who are staying more than a week, the laundry room is huge, 6 large dryers, 5 large washers...no coins needed. One minor problem, management needs to post translation from symbols to English in order to operate the washers.More</t>
   </si>
   <si>
+    <t>Tapiafam</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r440949177-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -1111,6 +1237,9 @@
     <t>We've been coming to Disneyland for years and this is our first time staying here at the candlewood on Anaheim VERY close to the Disney park right off the 5 fwy what a great experience we had we stayed for a couple of days the staff is very helpful and the rooms are very clean. It seems as if it has just been remodeled all new carpet beds sheets towels appliances etc. we will definitely be back on our next trip to Disneyland. We highly recommend this place the other hotels don't stand a chance  with this oneMore</t>
   </si>
   <si>
+    <t>Karen T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r431967218-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -1138,6 +1267,9 @@
     <t>I really enjoyed staying at this hotel location. Our room was pretty clean. Was nice and quiet during the night. I am usually a light sleeper so it was nice. The beds were nice and comfy. The staff was always so nice. We ended up walking to Disneyland the first day. Took maybe about 15 minutes to walk there. There is a bus that you can ride over to Disneyland that stops right outside the hotel on the street. And to come back they drop you right off at the same spot and they do come throughout the day I believe. Coming back from Disneyland it was bus #6 and for 2 adults and 1 child it was like $7.00 I think it was for one way. My husband and granddaughter went swimming one afternoon and they didn't stay long in the pool because there were so many bee's out there by the pool. The housekeeping can do a better cleaning job in the hall ways and keeping the elevators clean. I loved how we were able to wash clothes for free and there were no time that they closed it. Need to bring your own laundry soap if you want something other then All laundry detergent that they sell downstairs. They didn't have any Bounce for sale so maybe bring your own. We walked to the laundromat not to far for Tide and Bounce. There were quite a few...I really enjoyed staying at this hotel location. Our room was pretty clean. Was nice and quiet during the night. I am usually a light sleeper so it was nice. The beds were nice and comfy. The staff was always so nice. We ended up walking to Disneyland the first day. Took maybe about 15 minutes to walk there. There is a bus that you can ride over to Disneyland that stops right outside the hotel on the street. And to come back they drop you right off at the same spot and they do come throughout the day I believe. Coming back from Disneyland it was bus #6 and for 2 adults and 1 child it was like $7.00 I think it was for one way. My husband and granddaughter went swimming one afternoon and they didn't stay long in the pool because there were so many bee's out there by the pool. The housekeeping can do a better cleaning job in the hall ways and keeping the elevators clean. I loved how we were able to wash clothes for free and there were no time that they closed it. Need to bring your own laundry soap if you want something other then All laundry detergent that they sell downstairs. They didn't have any Bounce for sale so maybe bring your own. We walked to the laundromat not to far for Tide and Bounce. There were quite a few sketchy people by the laundromat so I suggest bring your own if you can. I would come back and stay here again. Oh and if you are planning on bringing a kid to Disneyland and think they might want to buy some Minnie Mouse ears I would suggest buy some before you go. We paid $35.00 for Minnie Mouse ears and when we went to Walgreen's in Seattle after our trip and saw some there for $5.99!More</t>
   </si>
   <si>
+    <t>richknebel</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r429885235-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -1162,6 +1294,9 @@
     <t>10-15 minute walk depending on speed. It's simply two turns to Disneyland. Close to a cvs and Walgreens for fresh offerings. Clean, modern &amp; pleasant staff. I picked this hotel based on value and proximity to Disneyland. Booked a one bedroom suite, and the kitchen was perfect for my child and I to have some breakfasts and dinners. Close enough you can leave the parks for a meal at the hotel. Would highly recommend this place. More</t>
   </si>
   <si>
+    <t>Mema M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r429356866-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -1180,6 +1315,9 @@
     <t>Stayed 1 night here to go to Disney and we wish we would have stayed more nights. Our room was huge and new! Full bedroom, HUGE Bathroom, full kitchen and living room with a sleeper sofa, hardwood floors and granite counters. It was like being in an apartment.  Has pool, free parking and a little shop with snacks and drinks. Took a $6 Uber to Disney! I would stay here again in a heartbeat!More</t>
   </si>
   <si>
+    <t>Howard W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r427177264-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -1198,6 +1336,9 @@
     <t>Upon checking in I was informed their computer system was out.  While it took a few minutes to check in, they were very friendly and apologized. The rooms are really setup for business travelers as they have a kitchen with a full refrigerator, stove, dishwasher, nice works space and plenty of room to more around.While their system was out and may have slowed me down a minute or so, I would  stay at this property again.The location is close to Disneyland, the convention center, and a close drive to many restaurants.More</t>
   </si>
   <si>
+    <t>wheretonext123</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r426398990-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -1214,6 +1355,9 @@
   </si>
   <si>
     <t>The room itself is very comfortable.  Has free wifi. It has a nice big desk area with chair.  there is also a recliner.  The kitchenette has a 2 burner stove top, convection oven and full size frig.  The kitchen is equipped well enough for you to cook and eat. They provide an iron and board, coffee, hair dryer, shampoo &amp; conditioner.  The towels and sheets are good quality.  I’m not positive but believe the only size bed is queen.  It’s ok but not as soft as I prefer.  In the lobby they have items you can check out like crock pot, DVR and videos and many other items.  They also have several food items for sale.  Two things I did not like.  The bathroom has an automatic light that turns on as you walk in the room.  Now that’s fine normally, but when you get up in the middle of the night, it wakes you up.  They will tell you to stop this to push the button and it will go off and stay off.  But that is not true.  It somehow resets itself.  There is no safe in the room.  As do many European hotels, the air conditioner does not work unless you are in the room.  This property has it’s parking under the hotel.  Not really underground, just under it.  The property is about a city block from Disneyland.  It is walking distance to many places to eat...The room itself is very comfortable.  Has free wifi. It has a nice big desk area with chair.  there is also a recliner.  The kitchenette has a 2 burner stove top, convection oven and full size frig.  The kitchen is equipped well enough for you to cook and eat. They provide an iron and board, coffee, hair dryer, shampoo &amp; conditioner.  The towels and sheets are good quality.  I’m not positive but believe the only size bed is queen.  It’s ok but not as soft as I prefer.  In the lobby they have items you can check out like crock pot, DVR and videos and many other items.  They also have several food items for sale.  Two things I did not like.  The bathroom has an automatic light that turns on as you walk in the room.  Now that’s fine normally, but when you get up in the middle of the night, it wakes you up.  They will tell you to stop this to push the button and it will go off and stay off.  But that is not true.  It somehow resets itself.  There is no safe in the room.  As do many European hotels, the air conditioner does not work unless you are in the room.  This property has it’s parking under the hotel.  Not really underground, just under it.  The property is about a city block from Disneyland.  It is walking distance to many places to eat like PJ Changs, Cheese Cake Factory, Bubba Gumps.  Overall it’s a nice place and we’d stay there again.More</t>
+  </si>
+  <si>
+    <t>MarthaB5515</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r424458892-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
@@ -1745,43 +1889,47 @@
       <c r="A2" t="n">
         <v>52261</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>31558</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>3</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>3</v>
@@ -1801,41 +1949,45 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>52261</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>129983</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>4</v>
@@ -1852,56 +2004,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="X3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Y3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>52261</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>129984</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="O4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1913,56 +2069,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="X4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Y4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>52261</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>129985</v>
+      </c>
+      <c r="C5" t="s">
+        <v>72</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="L5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="n">
@@ -1978,56 +2138,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="X5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="Y5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>52261</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>129986</v>
+      </c>
+      <c r="C6" t="s">
+        <v>81</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="J6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="K6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="L6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2039,56 +2203,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="X6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="Y6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>52261</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>129987</v>
+      </c>
+      <c r="C7" t="s">
+        <v>90</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="J7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="K7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="L7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="M7" t="n">
         <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="n">
@@ -2104,56 +2272,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="X7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="Y7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>52261</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>129988</v>
+      </c>
+      <c r="C8" t="s">
+        <v>99</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="J8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="K8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="L8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="O8" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2165,56 +2337,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="X8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="Y8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>52261</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>66737</v>
+      </c>
+      <c r="C9" t="s">
+        <v>109</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="J9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="K9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="L9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2228,50 +2404,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>52261</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>129989</v>
+      </c>
+      <c r="C10" t="s">
+        <v>115</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="J10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="K10" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="L10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P10" t="n">
         <v>5</v>
@@ -2291,50 +2471,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>52261</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>44154</v>
+      </c>
+      <c r="C11" t="s">
+        <v>122</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="J11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="K11" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="L11" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="O11" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="n">
@@ -2354,50 +2538,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>52261</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>129990</v>
+      </c>
+      <c r="C12" t="s">
+        <v>130</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="J12" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="K12" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="L12" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="O12" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2411,50 +2599,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>52261</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>5292</v>
+      </c>
+      <c r="C13" t="s">
+        <v>136</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="J13" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="K13" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="L13" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="M13" t="n">
         <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="O13" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="n">
@@ -2472,56 +2664,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="X13" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="Y13" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>52261</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>129991</v>
+      </c>
+      <c r="C14" t="s">
+        <v>147</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="J14" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="K14" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="L14" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="O14" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2535,50 +2731,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>52261</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>12675</v>
+      </c>
+      <c r="C15" t="s">
+        <v>154</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="J15" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="K15" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="L15" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2592,50 +2792,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>52261</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>129992</v>
+      </c>
+      <c r="C16" t="s">
+        <v>162</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="J16" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="K16" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="L16" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2649,50 +2853,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>52261</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>30472</v>
+      </c>
+      <c r="C17" t="s">
+        <v>168</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="J17" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="K17" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="L17" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="M17" t="n">
         <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="O17" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -2704,47 +2912,51 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="X17" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="Y17" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>52261</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>129993</v>
+      </c>
+      <c r="C18" t="s">
+        <v>178</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="J18" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="K18" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="L18" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="M18" t="n">
         <v>3</v>
@@ -2761,56 +2973,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="X18" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="Y18" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>52261</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>129994</v>
+      </c>
+      <c r="C19" t="s">
+        <v>187</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="J19" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="K19" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="L19" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -2826,56 +3042,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="X19" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="Y19" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>52261</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>129995</v>
+      </c>
+      <c r="C20" t="s">
+        <v>197</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="J20" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="K20" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="L20" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="O20" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -2887,56 +3107,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="X20" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="Y20" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>52261</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>129996</v>
+      </c>
+      <c r="C21" t="s">
+        <v>205</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="J21" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="K21" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="L21" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="O21" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -2950,56 +3174,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="X21" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="Y21" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>52261</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>129997</v>
+      </c>
+      <c r="C22" t="s">
+        <v>214</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="J22" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="K22" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="L22" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="O22" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -3011,56 +3239,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="X22" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="Y22" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>52261</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>129998</v>
+      </c>
+      <c r="C23" t="s">
+        <v>221</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="J23" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="K23" t="s">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="L23" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="O23" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="n">
@@ -3076,56 +3308,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="X23" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="Y23" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>52261</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>129999</v>
+      </c>
+      <c r="C24" t="s">
+        <v>230</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>208</v>
+        <v>231</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>209</v>
+        <v>232</v>
       </c>
       <c r="J24" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="K24" t="s">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="L24" t="s">
-        <v>212</v>
+        <v>235</v>
       </c>
       <c r="M24" t="n">
         <v>3</v>
       </c>
       <c r="N24" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="O24" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="n">
@@ -3143,56 +3379,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="X24" t="s">
-        <v>215</v>
+        <v>238</v>
       </c>
       <c r="Y24" t="s">
-        <v>216</v>
+        <v>239</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>52261</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>130000</v>
+      </c>
+      <c r="C25" t="s">
+        <v>240</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="J25" t="s">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="K25" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="L25" t="s">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="O25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -3204,56 +3444,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="X25" t="s">
-        <v>215</v>
+        <v>238</v>
       </c>
       <c r="Y25" t="s">
-        <v>222</v>
+        <v>246</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>52261</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>130001</v>
+      </c>
+      <c r="C26" t="s">
+        <v>247</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>223</v>
+        <v>248</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>224</v>
+        <v>249</v>
       </c>
       <c r="J26" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="K26" t="s">
-        <v>226</v>
+        <v>251</v>
       </c>
       <c r="L26" t="s">
-        <v>227</v>
+        <v>252</v>
       </c>
       <c r="M26" t="n">
         <v>2</v>
       </c>
       <c r="N26" t="s">
-        <v>228</v>
+        <v>253</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="n">
@@ -3269,56 +3513,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
       <c r="X26" t="s">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="Y26" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>52261</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>3657</v>
+      </c>
+      <c r="C27" t="s">
+        <v>257</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>232</v>
+        <v>258</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>233</v>
+        <v>259</v>
       </c>
       <c r="J27" t="s">
-        <v>234</v>
+        <v>260</v>
       </c>
       <c r="K27" t="s">
-        <v>235</v>
+        <v>261</v>
       </c>
       <c r="L27" t="s">
-        <v>236</v>
+        <v>262</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>228</v>
+        <v>253</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -3334,56 +3582,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="X27" t="s">
-        <v>215</v>
+        <v>238</v>
       </c>
       <c r="Y27" t="s">
-        <v>237</v>
+        <v>263</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>52261</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>130002</v>
+      </c>
+      <c r="C28" t="s">
+        <v>264</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>238</v>
+        <v>265</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>239</v>
+        <v>266</v>
       </c>
       <c r="J28" t="s">
-        <v>240</v>
+        <v>267</v>
       </c>
       <c r="K28" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="L28" t="s">
-        <v>242</v>
+        <v>269</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>228</v>
+        <v>253</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P28" t="n">
         <v>4</v>
@@ -3401,56 +3653,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="X28" t="s">
-        <v>215</v>
+        <v>238</v>
       </c>
       <c r="Y28" t="s">
-        <v>243</v>
+        <v>270</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>52261</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>130003</v>
+      </c>
+      <c r="C29" t="s">
+        <v>271</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>244</v>
+        <v>272</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>245</v>
+        <v>273</v>
       </c>
       <c r="J29" t="s">
-        <v>246</v>
+        <v>274</v>
       </c>
       <c r="K29" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="L29" t="s">
-        <v>248</v>
+        <v>276</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -3462,56 +3718,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>250</v>
+        <v>278</v>
       </c>
       <c r="X29" t="s">
-        <v>251</v>
+        <v>279</v>
       </c>
       <c r="Y29" t="s">
-        <v>252</v>
+        <v>280</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>52261</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>130004</v>
+      </c>
+      <c r="C30" t="s">
+        <v>281</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>253</v>
+        <v>282</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>254</v>
+        <v>283</v>
       </c>
       <c r="J30" t="s">
-        <v>255</v>
+        <v>284</v>
       </c>
       <c r="K30" t="s">
-        <v>256</v>
+        <v>285</v>
       </c>
       <c r="L30" t="s">
-        <v>257</v>
+        <v>286</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P30" t="n">
         <v>4</v>
@@ -3529,56 +3789,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>258</v>
+        <v>287</v>
       </c>
       <c r="X30" t="s">
-        <v>259</v>
+        <v>288</v>
       </c>
       <c r="Y30" t="s">
-        <v>260</v>
+        <v>289</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>52261</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>130005</v>
+      </c>
+      <c r="C31" t="s">
+        <v>290</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>261</v>
+        <v>291</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>262</v>
+        <v>292</v>
       </c>
       <c r="J31" t="s">
-        <v>263</v>
+        <v>293</v>
       </c>
       <c r="K31" t="s">
-        <v>264</v>
+        <v>294</v>
       </c>
       <c r="L31" t="s">
-        <v>265</v>
+        <v>295</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>266</v>
+        <v>296</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -3594,56 +3858,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>258</v>
+        <v>287</v>
       </c>
       <c r="X31" t="s">
-        <v>259</v>
+        <v>288</v>
       </c>
       <c r="Y31" t="s">
-        <v>267</v>
+        <v>297</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>52261</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>15878</v>
+      </c>
+      <c r="C32" t="s">
+        <v>298</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>268</v>
+        <v>299</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>269</v>
+        <v>300</v>
       </c>
       <c r="J32" t="s">
-        <v>270</v>
+        <v>301</v>
       </c>
       <c r="K32" t="s">
-        <v>271</v>
+        <v>302</v>
       </c>
       <c r="L32" t="s">
-        <v>272</v>
+        <v>303</v>
       </c>
       <c r="M32" t="n">
         <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>266</v>
+        <v>296</v>
       </c>
       <c r="O32" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -3659,56 +3927,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>258</v>
+        <v>287</v>
       </c>
       <c r="X32" t="s">
-        <v>259</v>
+        <v>288</v>
       </c>
       <c r="Y32" t="s">
-        <v>273</v>
+        <v>304</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>52261</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>65281</v>
+      </c>
+      <c r="C33" t="s">
+        <v>305</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>274</v>
+        <v>306</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>275</v>
+        <v>307</v>
       </c>
       <c r="J33" t="s">
-        <v>276</v>
+        <v>308</v>
       </c>
       <c r="K33" t="s">
-        <v>277</v>
+        <v>309</v>
       </c>
       <c r="L33" t="s">
-        <v>278</v>
+        <v>310</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>266</v>
+        <v>296</v>
       </c>
       <c r="O33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P33" t="n">
         <v>5</v>
@@ -3726,56 +3998,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>258</v>
+        <v>287</v>
       </c>
       <c r="X33" t="s">
-        <v>259</v>
+        <v>288</v>
       </c>
       <c r="Y33" t="s">
-        <v>279</v>
+        <v>311</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>52261</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>130006</v>
+      </c>
+      <c r="C34" t="s">
+        <v>312</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>280</v>
+        <v>313</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>281</v>
+        <v>314</v>
       </c>
       <c r="J34" t="s">
-        <v>282</v>
+        <v>315</v>
       </c>
       <c r="K34" t="s">
-        <v>283</v>
+        <v>316</v>
       </c>
       <c r="L34" t="s">
-        <v>284</v>
+        <v>317</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="O34" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -3787,56 +4063,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>258</v>
+        <v>287</v>
       </c>
       <c r="X34" t="s">
-        <v>259</v>
+        <v>288</v>
       </c>
       <c r="Y34" t="s">
-        <v>285</v>
+        <v>318</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>52261</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>21464</v>
+      </c>
+      <c r="C35" t="s">
+        <v>319</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>286</v>
+        <v>320</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>287</v>
+        <v>321</v>
       </c>
       <c r="J35" t="s">
-        <v>288</v>
+        <v>322</v>
       </c>
       <c r="K35" t="s">
-        <v>289</v>
+        <v>323</v>
       </c>
       <c r="L35" t="s">
-        <v>290</v>
+        <v>324</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>291</v>
+        <v>325</v>
       </c>
       <c r="O35" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -3848,56 +4128,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>292</v>
+        <v>326</v>
       </c>
       <c r="X35" t="s">
-        <v>293</v>
+        <v>327</v>
       </c>
       <c r="Y35" t="s">
-        <v>294</v>
+        <v>328</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>52261</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>130007</v>
+      </c>
+      <c r="C36" t="s">
+        <v>329</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>295</v>
+        <v>330</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>296</v>
+        <v>331</v>
       </c>
       <c r="J36" t="s">
-        <v>297</v>
+        <v>332</v>
       </c>
       <c r="K36" t="s">
-        <v>298</v>
+        <v>333</v>
       </c>
       <c r="L36" t="s">
-        <v>299</v>
+        <v>334</v>
       </c>
       <c r="M36" t="n">
         <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="O36" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -3911,56 +4195,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>292</v>
+        <v>326</v>
       </c>
       <c r="X36" t="s">
-        <v>293</v>
+        <v>327</v>
       </c>
       <c r="Y36" t="s">
-        <v>300</v>
+        <v>335</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>52261</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>130008</v>
+      </c>
+      <c r="C37" t="s">
+        <v>336</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>301</v>
+        <v>337</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>302</v>
+        <v>338</v>
       </c>
       <c r="J37" t="s">
-        <v>303</v>
+        <v>339</v>
       </c>
       <c r="K37" t="s">
-        <v>304</v>
+        <v>340</v>
       </c>
       <c r="L37" t="s">
-        <v>305</v>
+        <v>341</v>
       </c>
       <c r="M37" t="n">
         <v>3</v>
       </c>
       <c r="N37" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="O37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -3972,56 +4260,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>306</v>
+        <v>342</v>
       </c>
       <c r="X37" t="s">
-        <v>307</v>
+        <v>343</v>
       </c>
       <c r="Y37" t="s">
-        <v>308</v>
+        <v>344</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>52261</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>130009</v>
+      </c>
+      <c r="C38" t="s">
+        <v>345</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>309</v>
+        <v>346</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>310</v>
+        <v>347</v>
       </c>
       <c r="J38" t="s">
-        <v>311</v>
+        <v>348</v>
       </c>
       <c r="K38" t="s">
-        <v>312</v>
+        <v>349</v>
       </c>
       <c r="L38" t="s">
-        <v>313</v>
+        <v>350</v>
       </c>
       <c r="M38" t="n">
         <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="O38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -4035,50 +4327,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>314</v>
+        <v>351</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>52261</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>130010</v>
+      </c>
+      <c r="C39" t="s">
+        <v>352</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>315</v>
+        <v>353</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>316</v>
+        <v>354</v>
       </c>
       <c r="J39" t="s">
-        <v>317</v>
+        <v>355</v>
       </c>
       <c r="K39" t="s">
-        <v>318</v>
+        <v>356</v>
       </c>
       <c r="L39" t="s">
-        <v>319</v>
+        <v>357</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="O39" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -4092,50 +4388,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>320</v>
+        <v>358</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>52261</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>130011</v>
+      </c>
+      <c r="C40" t="s">
+        <v>359</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>321</v>
+        <v>360</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>322</v>
+        <v>361</v>
       </c>
       <c r="J40" t="s">
-        <v>323</v>
+        <v>362</v>
       </c>
       <c r="K40" t="s">
-        <v>324</v>
+        <v>363</v>
       </c>
       <c r="L40" t="s">
-        <v>325</v>
+        <v>364</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>326</v>
+        <v>365</v>
       </c>
       <c r="O40" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -4149,50 +4449,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>327</v>
+        <v>366</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>52261</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>130012</v>
+      </c>
+      <c r="C41" t="s">
+        <v>367</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>328</v>
+        <v>368</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>329</v>
+        <v>369</v>
       </c>
       <c r="J41" t="s">
-        <v>330</v>
+        <v>370</v>
       </c>
       <c r="K41" t="s">
-        <v>331</v>
+        <v>371</v>
       </c>
       <c r="L41" t="s">
-        <v>332</v>
+        <v>372</v>
       </c>
       <c r="M41" t="n">
         <v>3</v>
       </c>
       <c r="N41" t="s">
-        <v>333</v>
+        <v>373</v>
       </c>
       <c r="O41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -4208,56 +4512,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>334</v>
+        <v>374</v>
       </c>
       <c r="X41" t="s">
-        <v>335</v>
+        <v>375</v>
       </c>
       <c r="Y41" t="s">
-        <v>336</v>
+        <v>376</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>52261</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>130013</v>
+      </c>
+      <c r="C42" t="s">
+        <v>377</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>337</v>
+        <v>378</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>338</v>
+        <v>379</v>
       </c>
       <c r="J42" t="s">
-        <v>339</v>
+        <v>380</v>
       </c>
       <c r="K42" t="s">
-        <v>340</v>
+        <v>381</v>
       </c>
       <c r="L42" t="s">
-        <v>341</v>
+        <v>382</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>342</v>
+        <v>383</v>
       </c>
       <c r="O42" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="P42" t="n">
         <v>4</v>
@@ -4275,56 +4583,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>334</v>
+        <v>374</v>
       </c>
       <c r="X42" t="s">
-        <v>335</v>
+        <v>375</v>
       </c>
       <c r="Y42" t="s">
-        <v>343</v>
+        <v>384</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>52261</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>130014</v>
+      </c>
+      <c r="C43" t="s">
+        <v>385</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>344</v>
+        <v>386</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>345</v>
+        <v>387</v>
       </c>
       <c r="J43" t="s">
-        <v>339</v>
+        <v>380</v>
       </c>
       <c r="K43" t="s">
-        <v>346</v>
+        <v>388</v>
       </c>
       <c r="L43" t="s">
-        <v>347</v>
+        <v>389</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>342</v>
+        <v>383</v>
       </c>
       <c r="O43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
@@ -4336,56 +4648,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>334</v>
+        <v>374</v>
       </c>
       <c r="X43" t="s">
-        <v>335</v>
+        <v>375</v>
       </c>
       <c r="Y43" t="s">
-        <v>348</v>
+        <v>390</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>52261</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>6384</v>
+      </c>
+      <c r="C44" t="s">
+        <v>391</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>349</v>
+        <v>392</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>350</v>
+        <v>393</v>
       </c>
       <c r="J44" t="s">
-        <v>351</v>
+        <v>394</v>
       </c>
       <c r="K44" t="s">
-        <v>352</v>
+        <v>395</v>
       </c>
       <c r="L44" t="s">
-        <v>353</v>
+        <v>396</v>
       </c>
       <c r="M44" t="n">
         <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>354</v>
+        <v>397</v>
       </c>
       <c r="O44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
@@ -4397,56 +4713,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>355</v>
+        <v>398</v>
       </c>
       <c r="X44" t="s">
-        <v>356</v>
+        <v>399</v>
       </c>
       <c r="Y44" t="s">
-        <v>357</v>
+        <v>400</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>52261</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>130015</v>
+      </c>
+      <c r="C45" t="s">
+        <v>401</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>358</v>
+        <v>402</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>359</v>
+        <v>403</v>
       </c>
       <c r="J45" t="s">
-        <v>360</v>
+        <v>404</v>
       </c>
       <c r="K45" t="s">
-        <v>361</v>
+        <v>405</v>
       </c>
       <c r="L45" t="s">
-        <v>362</v>
+        <v>406</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>354</v>
+        <v>397</v>
       </c>
       <c r="O45" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -4458,56 +4778,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>363</v>
+        <v>407</v>
       </c>
       <c r="X45" t="s">
-        <v>364</v>
+        <v>408</v>
       </c>
       <c r="Y45" t="s">
-        <v>365</v>
+        <v>409</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>52261</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>130016</v>
+      </c>
+      <c r="C46" t="s">
+        <v>410</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>366</v>
+        <v>411</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>367</v>
+        <v>412</v>
       </c>
       <c r="J46" t="s">
-        <v>368</v>
+        <v>413</v>
       </c>
       <c r="K46" t="s">
-        <v>369</v>
+        <v>414</v>
       </c>
       <c r="L46" t="s">
-        <v>370</v>
+        <v>415</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>354</v>
+        <v>397</v>
       </c>
       <c r="O46" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P46" t="n">
         <v>5</v>
@@ -4523,56 +4847,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>363</v>
+        <v>407</v>
       </c>
       <c r="X46" t="s">
-        <v>364</v>
+        <v>408</v>
       </c>
       <c r="Y46" t="s">
-        <v>371</v>
+        <v>416</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>52261</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>28605</v>
+      </c>
+      <c r="C47" t="s">
+        <v>417</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>372</v>
+        <v>418</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>373</v>
+        <v>419</v>
       </c>
       <c r="J47" t="s">
-        <v>374</v>
+        <v>420</v>
       </c>
       <c r="K47" t="s">
-        <v>375</v>
+        <v>421</v>
       </c>
       <c r="L47" t="s">
-        <v>376</v>
+        <v>422</v>
       </c>
       <c r="M47" t="n">
         <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>354</v>
+        <v>397</v>
       </c>
       <c r="O47" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="s"/>
@@ -4590,56 +4918,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>363</v>
+        <v>407</v>
       </c>
       <c r="X47" t="s">
-        <v>364</v>
+        <v>408</v>
       </c>
       <c r="Y47" t="s">
-        <v>377</v>
+        <v>423</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>52261</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>130017</v>
+      </c>
+      <c r="C48" t="s">
+        <v>424</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>378</v>
+        <v>425</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>379</v>
+        <v>426</v>
       </c>
       <c r="J48" t="s">
-        <v>380</v>
+        <v>427</v>
       </c>
       <c r="K48" t="s">
-        <v>381</v>
+        <v>428</v>
       </c>
       <c r="L48" t="s">
-        <v>382</v>
+        <v>429</v>
       </c>
       <c r="M48" t="n">
         <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>354</v>
+        <v>397</v>
       </c>
       <c r="O48" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P48" t="s"/>
       <c r="Q48" t="s"/>
@@ -4655,56 +4987,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>363</v>
+        <v>407</v>
       </c>
       <c r="X48" t="s">
-        <v>364</v>
+        <v>408</v>
       </c>
       <c r="Y48" t="s">
-        <v>383</v>
+        <v>430</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>52261</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>130018</v>
+      </c>
+      <c r="C49" t="s">
+        <v>431</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>384</v>
+        <v>432</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>385</v>
+        <v>433</v>
       </c>
       <c r="J49" t="s">
-        <v>386</v>
+        <v>434</v>
       </c>
       <c r="K49" t="s">
-        <v>387</v>
+        <v>435</v>
       </c>
       <c r="L49" t="s">
-        <v>388</v>
+        <v>436</v>
       </c>
       <c r="M49" t="n">
         <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>389</v>
+        <v>437</v>
       </c>
       <c r="O49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="n">
@@ -4722,13 +5058,13 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>390</v>
+        <v>438</v>
       </c>
       <c r="X49" t="s">
-        <v>391</v>
+        <v>439</v>
       </c>
       <c r="Y49" t="s">
-        <v>392</v>
+        <v>440</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_96.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_96.xlsx
@@ -1957,7 +1957,7 @@
         <v>52261</v>
       </c>
       <c r="B3" t="n">
-        <v>129983</v>
+        <v>160691</v>
       </c>
       <c r="C3" t="s">
         <v>55</v>
@@ -2018,7 +2018,7 @@
         <v>52261</v>
       </c>
       <c r="B4" t="n">
-        <v>129984</v>
+        <v>160692</v>
       </c>
       <c r="C4" t="s">
         <v>64</v>
@@ -2083,7 +2083,7 @@
         <v>52261</v>
       </c>
       <c r="B5" t="n">
-        <v>129985</v>
+        <v>160693</v>
       </c>
       <c r="C5" t="s">
         <v>72</v>
@@ -2152,7 +2152,7 @@
         <v>52261</v>
       </c>
       <c r="B6" t="n">
-        <v>129986</v>
+        <v>160694</v>
       </c>
       <c r="C6" t="s">
         <v>81</v>
@@ -2217,7 +2217,7 @@
         <v>52261</v>
       </c>
       <c r="B7" t="n">
-        <v>129987</v>
+        <v>160695</v>
       </c>
       <c r="C7" t="s">
         <v>90</v>
@@ -2286,7 +2286,7 @@
         <v>52261</v>
       </c>
       <c r="B8" t="n">
-        <v>129988</v>
+        <v>160696</v>
       </c>
       <c r="C8" t="s">
         <v>99</v>
@@ -2412,7 +2412,7 @@
         <v>52261</v>
       </c>
       <c r="B10" t="n">
-        <v>129989</v>
+        <v>160697</v>
       </c>
       <c r="C10" t="s">
         <v>115</v>
@@ -2546,7 +2546,7 @@
         <v>52261</v>
       </c>
       <c r="B12" t="n">
-        <v>129990</v>
+        <v>160698</v>
       </c>
       <c r="C12" t="s">
         <v>130</v>
@@ -2678,7 +2678,7 @@
         <v>52261</v>
       </c>
       <c r="B14" t="n">
-        <v>129991</v>
+        <v>160699</v>
       </c>
       <c r="C14" t="s">
         <v>147</v>
@@ -2800,7 +2800,7 @@
         <v>52261</v>
       </c>
       <c r="B16" t="n">
-        <v>129992</v>
+        <v>160700</v>
       </c>
       <c r="C16" t="s">
         <v>162</v>
@@ -2926,7 +2926,7 @@
         <v>52261</v>
       </c>
       <c r="B18" t="n">
-        <v>129993</v>
+        <v>160701</v>
       </c>
       <c r="C18" t="s">
         <v>178</v>
@@ -2987,7 +2987,7 @@
         <v>52261</v>
       </c>
       <c r="B19" t="n">
-        <v>129994</v>
+        <v>160702</v>
       </c>
       <c r="C19" t="s">
         <v>187</v>
@@ -3056,7 +3056,7 @@
         <v>52261</v>
       </c>
       <c r="B20" t="n">
-        <v>129995</v>
+        <v>160703</v>
       </c>
       <c r="C20" t="s">
         <v>197</v>
@@ -3121,7 +3121,7 @@
         <v>52261</v>
       </c>
       <c r="B21" t="n">
-        <v>129996</v>
+        <v>160704</v>
       </c>
       <c r="C21" t="s">
         <v>205</v>
@@ -3188,7 +3188,7 @@
         <v>52261</v>
       </c>
       <c r="B22" t="n">
-        <v>129997</v>
+        <v>160705</v>
       </c>
       <c r="C22" t="s">
         <v>214</v>
@@ -3253,7 +3253,7 @@
         <v>52261</v>
       </c>
       <c r="B23" t="n">
-        <v>129998</v>
+        <v>160706</v>
       </c>
       <c r="C23" t="s">
         <v>221</v>
@@ -3322,7 +3322,7 @@
         <v>52261</v>
       </c>
       <c r="B24" t="n">
-        <v>129999</v>
+        <v>160707</v>
       </c>
       <c r="C24" t="s">
         <v>230</v>
@@ -3393,7 +3393,7 @@
         <v>52261</v>
       </c>
       <c r="B25" t="n">
-        <v>130000</v>
+        <v>160708</v>
       </c>
       <c r="C25" t="s">
         <v>240</v>
@@ -3458,7 +3458,7 @@
         <v>52261</v>
       </c>
       <c r="B26" t="n">
-        <v>130001</v>
+        <v>160709</v>
       </c>
       <c r="C26" t="s">
         <v>247</v>
@@ -3596,7 +3596,7 @@
         <v>52261</v>
       </c>
       <c r="B28" t="n">
-        <v>130002</v>
+        <v>160710</v>
       </c>
       <c r="C28" t="s">
         <v>264</v>
@@ -3667,7 +3667,7 @@
         <v>52261</v>
       </c>
       <c r="B29" t="n">
-        <v>130003</v>
+        <v>160711</v>
       </c>
       <c r="C29" t="s">
         <v>271</v>
@@ -3732,7 +3732,7 @@
         <v>52261</v>
       </c>
       <c r="B30" t="n">
-        <v>130004</v>
+        <v>160712</v>
       </c>
       <c r="C30" t="s">
         <v>281</v>
@@ -3803,7 +3803,7 @@
         <v>52261</v>
       </c>
       <c r="B31" t="n">
-        <v>130005</v>
+        <v>160713</v>
       </c>
       <c r="C31" t="s">
         <v>290</v>
@@ -4012,7 +4012,7 @@
         <v>52261</v>
       </c>
       <c r="B34" t="n">
-        <v>130006</v>
+        <v>160714</v>
       </c>
       <c r="C34" t="s">
         <v>312</v>
@@ -4142,7 +4142,7 @@
         <v>52261</v>
       </c>
       <c r="B36" t="n">
-        <v>130007</v>
+        <v>160715</v>
       </c>
       <c r="C36" t="s">
         <v>329</v>
@@ -4209,7 +4209,7 @@
         <v>52261</v>
       </c>
       <c r="B37" t="n">
-        <v>130008</v>
+        <v>160716</v>
       </c>
       <c r="C37" t="s">
         <v>336</v>
@@ -4274,7 +4274,7 @@
         <v>52261</v>
       </c>
       <c r="B38" t="n">
-        <v>130009</v>
+        <v>160717</v>
       </c>
       <c r="C38" t="s">
         <v>345</v>
@@ -4335,7 +4335,7 @@
         <v>52261</v>
       </c>
       <c r="B39" t="n">
-        <v>130010</v>
+        <v>160718</v>
       </c>
       <c r="C39" t="s">
         <v>352</v>
@@ -4396,7 +4396,7 @@
         <v>52261</v>
       </c>
       <c r="B40" t="n">
-        <v>130011</v>
+        <v>160719</v>
       </c>
       <c r="C40" t="s">
         <v>359</v>
@@ -4457,7 +4457,7 @@
         <v>52261</v>
       </c>
       <c r="B41" t="n">
-        <v>130012</v>
+        <v>160720</v>
       </c>
       <c r="C41" t="s">
         <v>367</v>
@@ -4526,7 +4526,7 @@
         <v>52261</v>
       </c>
       <c r="B42" t="n">
-        <v>130013</v>
+        <v>160721</v>
       </c>
       <c r="C42" t="s">
         <v>377</v>
@@ -4597,7 +4597,7 @@
         <v>52261</v>
       </c>
       <c r="B43" t="n">
-        <v>130014</v>
+        <v>160722</v>
       </c>
       <c r="C43" t="s">
         <v>385</v>
@@ -4727,7 +4727,7 @@
         <v>52261</v>
       </c>
       <c r="B45" t="n">
-        <v>130015</v>
+        <v>160723</v>
       </c>
       <c r="C45" t="s">
         <v>401</v>
@@ -4792,7 +4792,7 @@
         <v>52261</v>
       </c>
       <c r="B46" t="n">
-        <v>130016</v>
+        <v>160724</v>
       </c>
       <c r="C46" t="s">
         <v>410</v>
@@ -4932,7 +4932,7 @@
         <v>52261</v>
       </c>
       <c r="B48" t="n">
-        <v>130017</v>
+        <v>160725</v>
       </c>
       <c r="C48" t="s">
         <v>424</v>
@@ -5001,7 +5001,7 @@
         <v>52261</v>
       </c>
       <c r="B49" t="n">
-        <v>130018</v>
+        <v>160726</v>
       </c>
       <c r="C49" t="s">
         <v>431</v>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_96.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_96.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="765">
   <si>
     <t>STR#</t>
   </si>
@@ -150,21 +150,568 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>Karen V</t>
-  </si>
-  <si>
-    <t>06/29/2018</t>
+    <t>09/05/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r613536647-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>29092</t>
+  </si>
+  <si>
+    <t>10372357</t>
+  </si>
+  <si>
+    <t>613536647</t>
+  </si>
+  <si>
+    <t>09/03/2018</t>
+  </si>
+  <si>
+    <t>Awesome experience</t>
+  </si>
+  <si>
+    <t>Very nice and clean. A lot of complementaries including popcorn and tv. I recommend staying here and the prices are on a budget !! The beds are super comfy. The only problem I had was connecting to wifi but that’s because I did the email when they provide the access code.</t>
+  </si>
+  <si>
+    <t>September 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r587447737-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>587447737</t>
+  </si>
+  <si>
+    <t>06/14/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comfortable beds and well equipped facilities </t>
+  </si>
+  <si>
+    <t>Upon entering the room you can see how well set up it is with great kitchenette facilities.  The bed was one of the most comfortable my husband and I haf ever slept on too.  The bathroom was roomy and super clean.  The bath/shower was slippery however a quick mention to the reception staff had this covered with a bathmat delivered.The staff were friendly and helpful.  There was a small section in reception that offered some food basics to cover a couple of light breakfasts though there was a 7/11 round the corner and CVS and Walgreens down the road.  Apparently there was a couple of supermarkets around as well though we didn't see them or have a great need for them.  I thoroughly recommend the Candlewood Suites on S Harbor Blvd.  There is another Candlewood Suites about a mile away, not sure about that place, this one was great! MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t>Tae C, General Manager at Candlewood Suites Anaheim - Resort Area, responded to this reviewResponded June 29, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 29, 2018</t>
+  </si>
+  <si>
+    <t>Upon entering the room you can see how well set up it is with great kitchenette facilities.  The bed was one of the most comfortable my husband and I haf ever slept on too.  The bathroom was roomy and super clean.  The bath/shower was slippery however a quick mention to the reception staff had this covered with a bathmat delivered.The staff were friendly and helpful.  There was a small section in reception that offered some food basics to cover a couple of light breakfasts though there was a 7/11 round the corner and CVS and Walgreens down the road.  Apparently there was a couple of supermarkets around as well though we didn't see them or have a great need for them.  I thoroughly recommend the Candlewood Suites on S Harbor Blvd.  There is another Candlewood Suites about a mile away, not sure about that place, this one was great! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r613246621-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>613246621</t>
+  </si>
+  <si>
+    <t>09/02/2018</t>
+  </si>
+  <si>
+    <t>Date day</t>
+  </si>
+  <si>
+    <t>This is our third time here and we love it! They have a kitchen, great check-in team and it's never crowded. Love how close it was to Disneyland too. Will be back! We made this plade our Disneyland choice for a hotel.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r612991989-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>612991989</t>
+  </si>
+  <si>
+    <t>09/01/2018</t>
+  </si>
+  <si>
+    <t>Ms.</t>
+  </si>
+  <si>
+    <t>Very nice hotelRooms were great,front desk reps were very pleasant and polite. J loved the fact that I was able to have a room put on hold w/o and depisit. only problem was I asked more than 8 times to pop the popcorn. Belinda on Guest Services kept saying she was going to pop it, but she never did.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r609285627-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>609285627</t>
+  </si>
+  <si>
+    <t>08/22/2018</t>
+  </si>
+  <si>
+    <t>Best local hotel to Disneyland!</t>
+  </si>
+  <si>
+    <t>This is our second week long stay with Candlewood Suites! We absolutely love it! The room is perfect, the service is amazing, and the hotel is close to Disneyland! The rooms are well equipped for anything you may need for your stay and they have an excellent selection of snacks for purchase!</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r609042527-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>609042527</t>
+  </si>
+  <si>
+    <t>08/21/2018</t>
+  </si>
+  <si>
+    <t>When miscomunications go right!</t>
+  </si>
+  <si>
+    <t>Our trip was booked via the call center and booked incorrectly with incorrect information given by the call center.   Upon arrival Arianna completely transformed out diemma into a pleasure.   Ariana the Front Desk Supervisor, took command of the situation.  She took responsibility for the call centers mistakes, corrected the incorrect booking and compensated us for the inconveniences which were no fault of hers or her staff with world class customer service.  Thank you Ariana. We appreciate your service and are extremely greatful!  Smiles all around!    -Extremely satisfied guests</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r608545678-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>608545678</t>
+  </si>
+  <si>
+    <t>08/20/2018</t>
+  </si>
+  <si>
+    <t>Wow!!</t>
+  </si>
+  <si>
+    <t>A fantastic room for two and with a more than stocked kitchen than I anticipated with a full fridge and a not disguising coffee maker. I am very pleased with the cleanliness and the overall room. Super comfortable bed, spacious bathroom and a decent view of the park even from this distance. Parking fee was a bit of a surprise and put a dent in budgets along with the early check in fee, but it’s ok worth it.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r608199763-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>608199763</t>
+  </si>
+  <si>
+    <t>08/19/2018</t>
+  </si>
+  <si>
+    <t>Will definitely be back! A must stay!</t>
+  </si>
+  <si>
+    <t>My mom and I stayed here and absolutely loved it. Nice, clean rooms, equipped with everything you need and more. Our room has a refrigerator, microve, plates, silverware, etc. Also they have a snack, coffee, drink area where you can purchase snacks, which was great when you get the munchies! Alao, they have free popcorn. There are also gas stations, Walgreens, CVS, CityWalk, Bubba Gumps, etc. all within walking distance of the hotel if you need to get food or items from a store. This hotel is located in the perfect location. Close to disney and downtown disney. The staff was nice and very helpful. The pool is very small but it looked nice and clean and is in a closed in area with chairs and a grill. We will definitely be back! You won't regret staying here!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t>My mom and I stayed here and absolutely loved it. Nice, clean rooms, equipped with everything you need and more. Our room has a refrigerator, microve, plates, silverware, etc. Also they have a snack, coffee, drink area where you can purchase snacks, which was great when you get the munchies! Alao, they have free popcorn. There are also gas stations, Walgreens, CVS, CityWalk, Bubba Gumps, etc. all within walking distance of the hotel if you need to get food or items from a store. This hotel is located in the perfect location. Close to disney and downtown disney. The staff was nice and very helpful. The pool is very small but it looked nice and clean and is in a closed in area with chairs and a grill. We will definitely be back! You won't regret staying here!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r606867594-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>606867594</t>
+  </si>
+  <si>
+    <t>08/15/2018</t>
+  </si>
+  <si>
+    <t>GREAT EXPERIENCE!! WILL DEFINETLY STAY HERE AGAIN WITH MY FAMILY!!</t>
+  </si>
+  <si>
+    <t>we selected this hotel, near disneyland. the staff was great! very friendly and available to the needs of my family.  freddy the manager was so caring and treated us like royalty!!  very clean hotel. over all completely happy!!  will stay here again!!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r606865251-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>606865251</t>
+  </si>
+  <si>
+    <t>Best costumer service ever!!!</t>
+  </si>
+  <si>
+    <t>My family and my self we stay at the candlewood suites, the rooms were great and clean. Everything was great and the costumer service was the best ever Belinda Cortez helped us and provide us with all the necessary information she was really helpful and kind. She was awesome.Thank you Candlewood Suites!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r606136064-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>606136064</t>
+  </si>
+  <si>
+    <t>08/13/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Family annual vacation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Our second time vacationing in CA.  We had a great couple of weeks at Candlewood Suites.  The employees are all very sweet and accommodating.  Everyday we returned to a clean room with fresh towels and beds made.  The laundry room is nice and clean with free use with your stay.  We love it here and would stay again. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r605699420-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>605699420</t>
+  </si>
+  <si>
+    <t>08/12/2018</t>
+  </si>
+  <si>
+    <t>Awesome place!</t>
+  </si>
+  <si>
+    <t>We were very happy with our stay at The Candlewood Suites Anaheim-Resort. It was clean and modern. Great location! The front desk supervisor Arianna was great in providing us with practical information. We will definitely come back!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r605605002-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>605605002</t>
+  </si>
+  <si>
+    <t>Candlewood stay review</t>
+  </si>
+  <si>
+    <t>Candlewood suites is a very easy hotel to access, very clean and has very informative and helpful staff. I will definitely be coming back if I need to stay in the area. Plus, it’s close to Disneyland, the angels stadium, the block and not too far from LA. Perfect spot!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r605437530-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>605437530</t>
+  </si>
+  <si>
+    <t>08/11/2018</t>
+  </si>
+  <si>
+    <t>Disneyland trip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Room is clean! It has a kitchenette and is spacious. Very nice staff! Great location with a walking distance to Disneyland and shuttle available if needed. Price is affordable. Good for an extended stay! </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r604808783-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>604808783</t>
+  </si>
+  <si>
+    <t>08/09/2018</t>
+  </si>
+  <si>
+    <t>Best Vacation Ever</t>
+  </si>
+  <si>
+    <t>Although our stay was short there was plenty to enjoy at the Candlewood Resort! The kids had fun swimming in the pool while I visited the gym. My family and I are so thankful for being able to stay at such an amazing hotel and thank you Freddie Cruz and your staff for making our stay so much better! You da real MVP             ~ The Alarcon FamilyMoreShow less</t>
+  </si>
+  <si>
+    <t>Tae C, General Manager at Candlewood Suites Anaheim - Resort Area, responded to this reviewResponded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>Although our stay was short there was plenty to enjoy at the Candlewood Resort! The kids had fun swimming in the pool while I visited the gym. My family and I are so thankful for being able to stay at such an amazing hotel and thank you Freddie Cruz and your staff for making our stay so much better! You da real MVP             ~ The Alarcon FamilyMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r604484442-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>604484442</t>
+  </si>
+  <si>
+    <t>08/08/2018</t>
+  </si>
+  <si>
+    <t>amazing hotel</t>
+  </si>
+  <si>
+    <t>the hotel was great got a lot of help from the staff specially from David at the from desk he helped a lot he was wonderful and very respectful and ariana the manger was wonderful and kind and helped us alot with our check in overall the hotel was amazing and the rooms were clean and big enough for all for of usMoreShow less</t>
+  </si>
+  <si>
+    <t>the hotel was great got a lot of help from the staff specially from David at the from desk he helped a lot he was wonderful and very respectful and ariana the manger was wonderful and kind and helped us alot with our check in overall the hotel was amazing and the rooms were clean and big enough for all for of usMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r604473028-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>604473028</t>
+  </si>
+  <si>
+    <t>Anniversary Celebration</t>
+  </si>
+  <si>
+    <t>There was ample parking and check in was as smooth as I had wished. David checked us in and provided us with all necessary information. When walking to our room, we were pleasantly surprised with how spacious our room was. We enjoyed our first night and added an extra night to our stay :)MoreShow less</t>
+  </si>
+  <si>
+    <t>There was ample parking and check in was as smooth as I had wished. David checked us in and provided us with all necessary information. When walking to our room, we were pleasantly surprised with how spacious our room was. We enjoyed our first night and added an extra night to our stay :)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r604468524-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>604468524</t>
+  </si>
+  <si>
+    <t>Anniversary!</t>
+  </si>
+  <si>
+    <t>To begin with parking and check in was super smooth. Upon check in, David provided us with all information needed and more. The room was clean, super spacious, and comforting. We are Definitely come back!MoreShow less</t>
+  </si>
+  <si>
+    <t>To begin with parking and check in was super smooth. Upon check in, David provided us with all information needed and more. The room was clean, super spacious, and comforting. We are Definitely come back!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r604108839-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>604108839</t>
+  </si>
+  <si>
+    <t>08/07/2018</t>
+  </si>
+  <si>
+    <t>GREAT PLACE!!</t>
+  </si>
+  <si>
+    <t>Had a very great stay friendly employees! Every morning I will get greeted by the Front Desk! Rooms are very clean and very big. The property is close by Disneyland about a 10 to 15 min walk! I will return to the Candlewood Suites in Anaheim good place to stay at! I really highly recommend the property!MoreShow less</t>
+  </si>
+  <si>
+    <t>Had a very great stay friendly employees! Every morning I will get greeted by the Front Desk! Rooms are very clean and very big. The property is close by Disneyland about a 10 to 15 min walk! I will return to the Candlewood Suites in Anaheim good place to stay at! I really highly recommend the property!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r602826256-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>602826256</t>
+  </si>
+  <si>
+    <t>08/04/2018</t>
+  </si>
+  <si>
+    <t>Last Minute Saviors</t>
+  </si>
+  <si>
+    <t>We came in a few hours after check in time at another hotel next door to the Candlewood, got into a room and it wasn’t at all what we expected especially after a long day at the Magical Kingdom. We were lucky that the Candlewood staff next door, was there to save our day. Arianna, one of the front desk supervisors was there to save us from our last minute nightmare. Not only was the price competitive with some of the other hotels around, the hotel was really clean and we felt safe. The comfort of having a great parking garage for large vehicles, an F-150 XLT supercab, the kitchenette set up with full size fridges and dishwashing machines, as well as onsite laundry room, in case you get messy from the treats from Disney or wet clothes from a water ride, that made it feel more like home. The other friendly staff members including front desk attendant Jafet made us feel good to be there. They really helped us out when we were in need. Thank you Arianna and Jafet for helping save our trip from an uncomfortable and unexpected disaster. I recommend The Candlewood Suites for anyone looking for a clean, comfortable hotel near Disneyland as well as some galleria shopping just 3-5 minutes down the road. Thank you Candlewood.MoreShow less</t>
+  </si>
+  <si>
+    <t>Tae C, General Manager at Candlewood Suites Anaheim - Resort Area, responded to this reviewResponded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>We came in a few hours after check in time at another hotel next door to the Candlewood, got into a room and it wasn’t at all what we expected especially after a long day at the Magical Kingdom. We were lucky that the Candlewood staff next door, was there to save our day. Arianna, one of the front desk supervisors was there to save us from our last minute nightmare. Not only was the price competitive with some of the other hotels around, the hotel was really clean and we felt safe. The comfort of having a great parking garage for large vehicles, an F-150 XLT supercab, the kitchenette set up with full size fridges and dishwashing machines, as well as onsite laundry room, in case you get messy from the treats from Disney or wet clothes from a water ride, that made it feel more like home. The other friendly staff members including front desk attendant Jafet made us feel good to be there. They really helped us out when we were in need. Thank you Arianna and Jafet for helping save our trip from an uncomfortable and unexpected disaster. I recommend The Candlewood Suites for anyone looking for a clean, comfortable hotel near Disneyland as well as some galleria shopping just 3-5 minutes down the road. Thank you Candlewood.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r602807608-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>602807608</t>
+  </si>
+  <si>
+    <t>Excellent place to stay</t>
+  </si>
+  <si>
+    <t>Rooms are clean and nice! Stay here every time for business.Management is nice and love the location . Walking distance to restraunts and different activities. Would definitely stay here again and look forward to my next stay.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Rooms are clean and nice! Stay here every time for business.Management is nice and love the location . Walking distance to restraunts and different activities. Would definitely stay here again and look forward to my next stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r602745996-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>602745996</t>
+  </si>
+  <si>
+    <t>Great getaway!</t>
+  </si>
+  <si>
+    <t>Hotel was great! Got helped as soon as we walked in the door. Front desk followed up a few hours later to make sure we we're happy with our room. Operations Manager, Freddy C. is a great guy. We loved our stay! This is definitely our go to hotel when we're back in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>Hotel was great! Got helped as soon as we walked in the door. Front desk followed up a few hours later to make sure we we're happy with our room. Operations Manager, Freddy C. is a great guy. We loved our stay! This is definitely our go to hotel when we're back in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r600818838-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>600818838</t>
+  </si>
+  <si>
+    <t>07/29/2018</t>
+  </si>
+  <si>
+    <t>Amazing Hospitality!!</t>
+  </si>
+  <si>
+    <t>We came to Disneyland for our first time to celebrate our one year anniversary and decided to stay at the Candlewood Suites, Anaheim, due to its close proximity to the park. Since the moment we arrived the hotel staff was courteous, friendly and extremely hospitable. Arianna offered us numerous suggestions on places to eat and entertainment, other than the Disney parks. When we told her we were celebrating our first year wedding anniversary, she excitedly prepared a gift for us(a beautiful photo frame and coupons to purchase items from the hotel) and wrote an announcement on their display board with our names and what we were celebrating. We received amazing service from Arianna and the hotel staff and would highly recommend this hotel for those who do not plan to stay at the Disney resorts.MoreShow less</t>
+  </si>
+  <si>
+    <t>We came to Disneyland for our first time to celebrate our one year anniversary and decided to stay at the Candlewood Suites, Anaheim, due to its close proximity to the park. Since the moment we arrived the hotel staff was courteous, friendly and extremely hospitable. Arianna offered us numerous suggestions on places to eat and entertainment, other than the Disney parks. When we told her we were celebrating our first year wedding anniversary, she excitedly prepared a gift for us(a beautiful photo frame and coupons to purchase items from the hotel) and wrote an announcement on their display board with our names and what we were celebrating. We received amazing service from Arianna and the hotel staff and would highly recommend this hotel for those who do not plan to stay at the Disney resorts.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r600606347-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>600606347</t>
+  </si>
+  <si>
+    <t>07/28/2018</t>
+  </si>
+  <si>
+    <t>The Best Hotel in Anaheim!! 5-Stars!!!</t>
+  </si>
+  <si>
+    <t>We checked into Candlewood Suites and my wife and I were amazed at how CLEAN &amp; SPACIOUS the room was - the bedroom was separate from the area with the pullout sofa bed where the kids slept - this ensured the kids got a good night sleep and didn’t have to hear my snoring. ;) I was also amazed at how the kitchen had all the plates, cookware, and utensils available to us and we didn’t have to ask for them (and they were clean too!).
+But I want to give a HUGE shout out to the hotel manager, Freddie! I came across a situation where we had a change of plans and decided to go to Vegas a day earlier so this meant we would lose one night. Because I had already prepaid via hotels.com I would not be able to get a refund. Since I had no choice, I was about to book another night at the hotel and pay again since we were flying out of LAX; but I spoke to Freddie explaining the situation and without even thinking about it he graciously offered us a free night stay the day before our departure from LAX!!
+I could not be more thankful to him for making our experience unforgettable. Freddie went out of his way to make a customer happy and this is the main reason I give Candlewoood Suites Anaheim 5-Stars!!!
+Thank you Freddie! Hope to...We checked into Candlewood Suites and my wife and I were amazed at how CLEAN &amp; SPACIOUS the room was - the bedroom was separate from the area with the pullout sofa bed where the kids slept - this ensured the kids got a good night sleep and didn’t have to hear my snoring. ;) I was also amazed at how the kitchen had all the plates, cookware, and utensils available to us and we didn’t have to ask for them (and they were clean too!).But I want to give a HUGE shout out to the hotel manager, Freddie! I came across a situation where we had a change of plans and decided to go to Vegas a day earlier so this meant we would lose one night. Because I had already prepaid via hotels.com I would not be able to get a refund. Since I had no choice, I was about to book another night at the hotel and pay again since we were flying out of LAX; but I spoke to Freddie explaining the situation and without even thinking about it he graciously offered us a free night stay the day before our departure from LAX!!I could not be more thankful to him for making our experience unforgettable. Freddie went out of his way to make a customer happy and this is the main reason I give Candlewoood Suites Anaheim 5-Stars!!!Thank you Freddie! Hope to be back again soon!Cheers,MarkMoreShow less</t>
+  </si>
+  <si>
+    <t>We checked into Candlewood Suites and my wife and I were amazed at how CLEAN &amp; SPACIOUS the room was - the bedroom was separate from the area with the pullout sofa bed where the kids slept - this ensured the kids got a good night sleep and didn’t have to hear my snoring. ;) I was also amazed at how the kitchen had all the plates, cookware, and utensils available to us and we didn’t have to ask for them (and they were clean too!).
+But I want to give a HUGE shout out to the hotel manager, Freddie! I came across a situation where we had a change of plans and decided to go to Vegas a day earlier so this meant we would lose one night. Because I had already prepaid via hotels.com I would not be able to get a refund. Since I had no choice, I was about to book another night at the hotel and pay again since we were flying out of LAX; but I spoke to Freddie explaining the situation and without even thinking about it he graciously offered us a free night stay the day before our departure from LAX!!
+I could not be more thankful to him for making our experience unforgettable. Freddie went out of his way to make a customer happy and this is the main reason I give Candlewoood Suites Anaheim 5-Stars!!!
+Thank you Freddie! Hope to...We checked into Candlewood Suites and my wife and I were amazed at how CLEAN &amp; SPACIOUS the room was - the bedroom was separate from the area with the pullout sofa bed where the kids slept - this ensured the kids got a good night sleep and didn’t have to hear my snoring. ;) I was also amazed at how the kitchen had all the plates, cookware, and utensils available to us and we didn’t have to ask for them (and they were clean too!).But I want to give a HUGE shout out to the hotel manager, Freddie! I came across a situation where we had a change of plans and decided to go to Vegas a day earlier so this meant we would lose one night. Because I had already prepaid via hotels.com I would not be able to get a refund. Since I had no choice, I was about to book another night at the hotel and pay again since we were flying out of LAX; but I spoke to Freddie explaining the situation and without even thinking about it he graciously offered us a free night stay the day before our departure from LAX!!I could not be more thankful to him for making our experience unforgettable. Freddie went out of his way to make a customer happy and this is the main reason I give Candlewoood Suites Anaheim 5-Stars!!!Thank you Freddie! Hope to be back again soon!Cheers,MarkMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r599345283-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>599345283</t>
+  </si>
+  <si>
+    <t>07/24/2018</t>
+  </si>
+  <si>
+    <t>Nice hotel</t>
+  </si>
+  <si>
+    <t>This was our second year staying at Candlewood.  It's a newer hotel so still in good shape.  It has a full kitchen with pots and plates, pretty much everything you need.  The room was clean and modern as well as the restroom.  The shower has soap and shampoo/conditioner dispensers of a higher end brand.  I really liked those, and they smell nice.  It's close to Disney, maybe even walking distance but we chose to take the trolley last year and drive ourselves this year since you're really going to be walking many miles once inside Disney.  
+Now the bad:
+This year (but not last year) they charged us like $17 or $18 per day parking.  As it is, they inflate their room prices because of Disney, now they want to suck every last penny that they can from you.  Shame on you Candlewood for jumping on the bandwagon.
+The pool is tiny and there is no hot tub.  A hot tub would be great after all the walking at Disney.  
+There was this very odd (and suspicious) sensor like object in the room ceiling directly above the beds.  Hidden camera crossed my mind but hopefully Candlewood wouldn't do that.  My wife also immediately pointed it out the first day.
+The main door to our room had a huge gap almost an inch wide on the bottom of the door so you can clearly hear people passing by and everything they're...This was our second year staying at Candlewood.  It's a newer hotel so still in good shape.  It has a full kitchen with pots and plates, pretty much everything you need.  The room was clean and modern as well as the restroom.  The shower has soap and shampoo/conditioner dispensers of a higher end brand.  I really liked those, and they smell nice.  It's close to Disney, maybe even walking distance but we chose to take the trolley last year and drive ourselves this year since you're really going to be walking many miles once inside Disney.  Now the bad:This year (but not last year) they charged us like $17 or $18 per day parking.  As it is, they inflate their room prices because of Disney, now they want to suck every last penny that they can from you.  Shame on you Candlewood for jumping on the bandwagon.The pool is tiny and there is no hot tub.  A hot tub would be great after all the walking at Disney.  There was this very odd (and suspicious) sensor like object in the room ceiling directly above the beds.  Hidden camera crossed my mind but hopefully Candlewood wouldn't do that.  My wife also immediately pointed it out the first day.The main door to our room had a huge gap almost an inch wide on the bottom of the door so you can clearly hear people passing by and everything they're talking about.  The other three sides of the door also didn't seal properly as evident by the hallway light seem from inside when the lights are off in the room.  My solution to the lower gap was to cover the bottom of the door with a long throw pillow that is on the beds.  That was the only way I could cover the gap and get some peace.  It fit perfect.  I looked at other rooms on the way to the elevator and some have the huge gap, others don't.The parking is ok for average vehicles but good luck if you have a big truck.Overall, I was satisfied and may stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>This was our second year staying at Candlewood.  It's a newer hotel so still in good shape.  It has a full kitchen with pots and plates, pretty much everything you need.  The room was clean and modern as well as the restroom.  The shower has soap and shampoo/conditioner dispensers of a higher end brand.  I really liked those, and they smell nice.  It's close to Disney, maybe even walking distance but we chose to take the trolley last year and drive ourselves this year since you're really going to be walking many miles once inside Disney.  
+Now the bad:
+This year (but not last year) they charged us like $17 or $18 per day parking.  As it is, they inflate their room prices because of Disney, now they want to suck every last penny that they can from you.  Shame on you Candlewood for jumping on the bandwagon.
+The pool is tiny and there is no hot tub.  A hot tub would be great after all the walking at Disney.  
+There was this very odd (and suspicious) sensor like object in the room ceiling directly above the beds.  Hidden camera crossed my mind but hopefully Candlewood wouldn't do that.  My wife also immediately pointed it out the first day.
+The main door to our room had a huge gap almost an inch wide on the bottom of the door so you can clearly hear people passing by and everything they're...This was our second year staying at Candlewood.  It's a newer hotel so still in good shape.  It has a full kitchen with pots and plates, pretty much everything you need.  The room was clean and modern as well as the restroom.  The shower has soap and shampoo/conditioner dispensers of a higher end brand.  I really liked those, and they smell nice.  It's close to Disney, maybe even walking distance but we chose to take the trolley last year and drive ourselves this year since you're really going to be walking many miles once inside Disney.  Now the bad:This year (but not last year) they charged us like $17 or $18 per day parking.  As it is, they inflate their room prices because of Disney, now they want to suck every last penny that they can from you.  Shame on you Candlewood for jumping on the bandwagon.The pool is tiny and there is no hot tub.  A hot tub would be great after all the walking at Disney.  There was this very odd (and suspicious) sensor like object in the room ceiling directly above the beds.  Hidden camera crossed my mind but hopefully Candlewood wouldn't do that.  My wife also immediately pointed it out the first day.The main door to our room had a huge gap almost an inch wide on the bottom of the door so you can clearly hear people passing by and everything they're talking about.  The other three sides of the door also didn't seal properly as evident by the hallway light seem from inside when the lights are off in the room.  My solution to the lower gap was to cover the bottom of the door with a long throw pillow that is on the beds.  That was the only way I could cover the gap and get some peace.  It fit perfect.  I looked at other rooms on the way to the elevator and some have the huge gap, others don't.The parking is ok for average vehicles but good luck if you have a big truck.Overall, I was satisfied and may stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r598045503-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>598045503</t>
+  </si>
+  <si>
+    <t>07/20/2018</t>
+  </si>
+  <si>
+    <t>Great location</t>
+  </si>
+  <si>
+    <t>This candlewood suites location rocks!! You don’t have the luxury but for the price and the location next to Freeway #5 and complemetary Washing machines and super close to Disneyland make it a grat choice if you are planned to Visit Anaheim area . The room I stayed in has a small kitchen full equiped.. if you want to feel secure and have everything else that you need in a small vacation This one is a good choice!!MoreShow less</t>
+  </si>
+  <si>
+    <t>This candlewood suites location rocks!! You don’t have the luxury but for the price and the location next to Freeway #5 and complemetary Washing machines and super close to Disneyland make it a grat choice if you are planned to Visit Anaheim area . The room I stayed in has a small kitchen full equiped.. if you want to feel secure and have everything else that you need in a small vacation This one is a good choice!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r597733195-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>597733195</t>
+  </si>
+  <si>
+    <t>07/19/2018</t>
+  </si>
+  <si>
+    <t>mom</t>
+  </si>
+  <si>
+    <t>Cottonwoods suites is the best thing since ice cream. Stephanie serves the best ice cream. Kitchen cimes with a dishwasher,ice maker and yhe bed is the bedt.Bed is pillowtop with fluffy pillows. A five star plus!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Tae C, General Manager at Candlewood Suites Anaheim - Resort Area, responded to this reviewResponded July 20, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 20, 2018</t>
+  </si>
+  <si>
+    <t>Cottonwoods suites is the best thing since ice cream. Stephanie serves the best ice cream. Kitchen cimes with a dishwasher,ice maker and yhe bed is the bedt.Bed is pillowtop with fluffy pillows. A five star plus!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r595851848-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>595851848</t>
+  </si>
+  <si>
+    <t>07/13/2018</t>
+  </si>
+  <si>
+    <t>Disneyland Stay - Overall Very Good</t>
+  </si>
+  <si>
+    <t>We stayed at this property last summer for a Disneyland trip. It is walkable to the parks but took about 20-25 minutes to get to the gates which may be a bit far for kids (our party was all adults). The room was clean and we got a good night's rest as the beds were very comfortable. We didn't use the kitchenette but it was nicely set up if you planned to make meals during your stay. Check-in was pretty basic and breakfast was not included which is something we missed as normally we stay at places that include this when visiting Disneyland. All in all, the rate we paid, the cleanliness and location made this hotel one we'll keep in mind for future visits.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>We stayed at this property last summer for a Disneyland trip. It is walkable to the parks but took about 20-25 minutes to get to the gates which may be a bit far for kids (our party was all adults). The room was clean and we got a good night's rest as the beds were very comfortable. We didn't use the kitchenette but it was nicely set up if you planned to make meals during your stay. Check-in was pretty basic and breakfast was not included which is something we missed as normally we stay at places that include this when visiting Disneyland. All in all, the rate we paid, the cleanliness and location made this hotel one we'll keep in mind for future visits.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r593641530-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>593641530</t>
+  </si>
+  <si>
+    <t>07/06/2018</t>
+  </si>
+  <si>
+    <t>Amazing!</t>
+  </si>
+  <si>
+    <t>We stayed for 5 nights and absolutely loved it! We stayed here while visiting Disneyland. We simply took and Uber to the park instead of walking. It felt like a home away from home. The staff was very friendly and accommodating. You pay for parking BUT it’s within the building so you feel more secure and we never had a problem finding a space when coming and going. The bed was absolutely amazing and comfortable. It was the most comfortable bed we’ve ever slept on in a hotel. We will definitely be staying here again when visiting the area!MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed for 5 nights and absolutely loved it! We stayed here while visiting Disneyland. We simply took and Uber to the park instead of walking. It felt like a home away from home. The staff was very friendly and accommodating. You pay for parking BUT it’s within the building so you feel more secure and we never had a problem finding a space when coming and going. The bed was absolutely amazing and comfortable. It was the most comfortable bed we’ve ever slept on in a hotel. We will definitely be staying here again when visiting the area!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r590700070-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>590700070</t>
+  </si>
+  <si>
+    <t>06/25/2018</t>
+  </si>
+  <si>
+    <t>Great</t>
+  </si>
+  <si>
+    <t>The Candlewood Suites Anaheim has a great service. Rooms have a good size are are well-equipped. Service is good and beds are very comfortable. Close to Disney. As great option if your vacationing and need to stay close to the park.MoreShow less</t>
+  </si>
+  <si>
+    <t>The Candlewood Suites Anaheim has a great service. Rooms have a good size are are well-equipped. Service is good and beds are very comfortable. Close to Disney. As great option if your vacationing and need to stay close to the park.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r586300109-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
-    <t>29092</t>
-  </si>
-  <si>
-    <t>10372357</t>
-  </si>
-  <si>
     <t>586300109</t>
   </si>
   <si>
@@ -174,16 +721,13 @@
     <t>Clean basic hotel, parking issues</t>
   </si>
   <si>
-    <t>We were here one night when our favorite "regular" hotels were booked during a last minute trip. The hotel was clean and the room was spacious. The full kitchen would have been nice if we were staying for longer. Huge shower in our room was a nice plus. We were going to Disneyland. The shuttle stop is right outside and very convenient. If you are looking for walking distance, you need to look elsewhere. Also, parking was EXTREMELY limited.</t>
+    <t>We were here one night when our favorite "regular" hotels were booked during a last minute trip. The hotel was clean and the room was spacious. The full kitchen would have been nice if we were staying for longer. Huge shower in our room was a nice plus. We were going to Disneyland. The shuttle stop is right outside and very convenient. If you are looking for walking distance, you need to look elsewhere. Also, parking was EXTREMELY limited.MoreShow less</t>
   </si>
   <si>
     <t>April 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
-    <t>BMAYE</t>
+    <t>We were here one night when our favorite "regular" hotels were booked during a last minute trip. The hotel was clean and the room was spacious. The full kitchen would have been nice if we were staying for longer. Huge shower in our room was a nice plus. We were going to Disneyland. The shuttle stop is right outside and very convenient. If you are looking for walking distance, you need to look elsewhere. Also, parking was EXTREMELY limited.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r583466550-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
@@ -201,18 +745,15 @@
     <t>We stayed at Candlewood suites in February 2018. We had won a room for part of our trip from a local travel agency but we needed two rooms for a little longer than what we had won so we did purchase room nights during our trip.  The rates were very reasonable given the size and cleanliness of the rooms.  We have traveled to Anaheim several times the past few years and never had as big a room as these.  We loved the kitchen and even the bathroom was nice and spacious.  The room was very well kept and clean upon arrival.  There were a couple downsides to the hotel.  It was not as close to the parks as we thought.  We usually stay on Harbor so this was a bit more of a walk than we were used to.  It was about 25-30 minutes to the park gates and we had gotten lost more than a couple times while we were there.  It would have been nice if they provided a map showing the easiest route to walk to the park.  Also, I had called the week before confirming if they had the swimming pool open during the time we were to arrive and they had said they would be open.  But when we checked in the pool was closed due to maintenance.  My kids were very disappointed as we had told them they'd get to swim so they had...We stayed at Candlewood suites in February 2018. We had won a room for part of our trip from a local travel agency but we needed two rooms for a little longer than what we had won so we did purchase room nights during our trip.  The rates were very reasonable given the size and cleanliness of the rooms.  We have traveled to Anaheim several times the past few years and never had as big a room as these.  We loved the kitchen and even the bathroom was nice and spacious.  The room was very well kept and clean upon arrival.  There were a couple downsides to the hotel.  It was not as close to the parks as we thought.  We usually stay on Harbor so this was a bit more of a walk than we were used to.  It was about 25-30 minutes to the park gates and we had gotten lost more than a couple times while we were there.  It would have been nice if they provided a map showing the easiest route to walk to the park.  Also, I had called the week before confirming if they had the swimming pool open during the time we were to arrive and they had said they would be open.  But when we checked in the pool was closed due to maintenance.  My kids were very disappointed as we had told them they'd get to swim so they had been excited for that only to be let down.  The service was mediocre.  Not anything to complain or rave about.  I would stay here again if we were going into town for something other than Disneyland but we did not like the walk to the parks.  With 2 small kids and a giant stroller a shuttle was not a good option for us.  MoreShow less</t>
   </si>
   <si>
-    <t>Tae C, General Manager at Candlewood Suites Anaheim - Resort Area, responded to this reviewResponded 3 weeks ago</t>
-  </si>
-  <si>
-    <t>Responded 3 weeks ago</t>
+    <t>Tae C, General Manager at Candlewood Suites Anaheim - Resort Area, responded to this reviewResponded June 4, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 4, 2018</t>
   </si>
   <si>
     <t>We stayed at Candlewood suites in February 2018. We had won a room for part of our trip from a local travel agency but we needed two rooms for a little longer than what we had won so we did purchase room nights during our trip.  The rates were very reasonable given the size and cleanliness of the rooms.  We have traveled to Anaheim several times the past few years and never had as big a room as these.  We loved the kitchen and even the bathroom was nice and spacious.  The room was very well kept and clean upon arrival.  There were a couple downsides to the hotel.  It was not as close to the parks as we thought.  We usually stay on Harbor so this was a bit more of a walk than we were used to.  It was about 25-30 minutes to the park gates and we had gotten lost more than a couple times while we were there.  It would have been nice if they provided a map showing the easiest route to walk to the park.  Also, I had called the week before confirming if they had the swimming pool open during the time we were to arrive and they had said they would be open.  But when we checked in the pool was closed due to maintenance.  My kids were very disappointed as we had told them they'd get to swim so they had...We stayed at Candlewood suites in February 2018. We had won a room for part of our trip from a local travel agency but we needed two rooms for a little longer than what we had won so we did purchase room nights during our trip.  The rates were very reasonable given the size and cleanliness of the rooms.  We have traveled to Anaheim several times the past few years and never had as big a room as these.  We loved the kitchen and even the bathroom was nice and spacious.  The room was very well kept and clean upon arrival.  There were a couple downsides to the hotel.  It was not as close to the parks as we thought.  We usually stay on Harbor so this was a bit more of a walk than we were used to.  It was about 25-30 minutes to the park gates and we had gotten lost more than a couple times while we were there.  It would have been nice if they provided a map showing the easiest route to walk to the park.  Also, I had called the week before confirming if they had the swimming pool open during the time we were to arrive and they had said they would be open.  But when we checked in the pool was closed due to maintenance.  My kids were very disappointed as we had told them they'd get to swim so they had been excited for that only to be let down.  The service was mediocre.  Not anything to complain or rave about.  I would stay here again if we were going into town for something other than Disneyland but we did not like the walk to the parks.  With 2 small kids and a giant stroller a shuttle was not a good option for us.  More</t>
   </si>
   <si>
-    <t>Diego S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r583408123-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -228,13 +769,49 @@
     <t>May 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>Wonderful Staff Arianna was so nice and helpfull , Super Clean hotel looks very appealing from the inside and out , Very close to Disneyland and super inexpensive. The only thing really is no drinking water fountain besides the gym should be one with the lobbyMore</t>
   </si>
   <si>
-    <t>Michaela E</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r581324030-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>581324030</t>
+  </si>
+  <si>
+    <t>05/19/2018</t>
+  </si>
+  <si>
+    <t>1 day stay</t>
+  </si>
+  <si>
+    <t>Good place to stay if your plan on an extended visit. It was nice to have a full size refrigerator and all the kitchen amenities. The room is a little small but the bed and pillows were very comfortable. I really didn't care for the parking, or the lobby and I almost missed the entrance because it looks similar to a driveway, however the freeway is nearby.MoreShow less</t>
+  </si>
+  <si>
+    <t>Good place to stay if your plan on an extended visit. It was nice to have a full size refrigerator and all the kitchen amenities. The room is a little small but the bed and pillows were very comfortable. I really didn't care for the parking, or the lobby and I almost missed the entrance because it looks similar to a driveway, however the freeway is nearby.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r576071156-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>576071156</t>
+  </si>
+  <si>
+    <t>04/27/2018</t>
+  </si>
+  <si>
+    <t>Fast Disney trip. HotWire</t>
+  </si>
+  <si>
+    <t>We used Hotwire to book they gave us candlewood suits at first I was a little worried but once we got here I felt more comfortable. Then the room was great bed is comfy pillows a bit too soft but they give you plenty. Elevator is a bit slow and you can hear people in the hall but it’s not too bad once you fall asleep. Got the room for $130 April 27th 2018MoreShow less</t>
+  </si>
+  <si>
+    <t>Tae C, General Manager at Candlewood Suites Anaheim - Resort Area, responded to this reviewResponded April 27, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 27, 2018</t>
+  </si>
+  <si>
+    <t>We used Hotwire to book they gave us candlewood suits at first I was a little worried but once we got here I felt more comfortable. Then the room was great bed is comfy pillows a bit too soft but they give you plenty. Elevator is a bit slow and you can hear people in the hall but it’s not too bad once you fall asleep. Got the room for $130 April 27th 2018More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r575493304-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
@@ -252,18 +829,9 @@
     <t>I just recently stayed here with my young son (taking him on a surprise trip to Disneyland). I've stayed in a Candlewood Suites before and loved the room for the price you pay and I was not disappointed again! My trip didn't start off great as my wallet turned up missing. The staff could not have been more helpful and understanding and I was incredibly grateful. Fortunately it was turned in the next day and the front desk contacted me immediately. Even with the rocky start, the trip ended up being successful and I appreciated the staff checking in to see how everything was going throughout the rest of our vacation! Bonus- Within walking distance to good restaurants as well as Disneyland or you can just buy a bus pass at the front desk if you're looking to save your legs for walking around the park instead. Would definitely stay here again!MoreShow less</t>
   </si>
   <si>
-    <t>Tae C, General Manager at Candlewood Suites Anaheim - Resort Area, responded to this reviewResponded April 27, 2018</t>
-  </si>
-  <si>
-    <t>Responded April 27, 2018</t>
-  </si>
-  <si>
     <t>I just recently stayed here with my young son (taking him on a surprise trip to Disneyland). I've stayed in a Candlewood Suites before and loved the room for the price you pay and I was not disappointed again! My trip didn't start off great as my wallet turned up missing. The staff could not have been more helpful and understanding and I was incredibly grateful. Fortunately it was turned in the next day and the front desk contacted me immediately. Even with the rocky start, the trip ended up being successful and I appreciated the staff checking in to see how everything was going throughout the rest of our vacation! Bonus- Within walking distance to good restaurants as well as Disneyland or you can just buy a bus pass at the front desk if you're looking to save your legs for walking around the park instead. Would definitely stay here again!More</t>
   </si>
   <si>
-    <t>hootersmama5</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r574825437-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -288,9 +856,6 @@
     <t>I must say, it was the best. Staff is amazing, Arianna was remarkable. I will come back because of Arianna. She made us feel welcome. Great customer service. The room was very comfortable loved it. Truely recommend this place,Candlewood Suites yes.More</t>
   </si>
   <si>
-    <t>frequent_traveler290</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r573584914-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -315,7 +880,43 @@
     <t>We were able to get rooms at this hotel several weeks prior to visiting Disneyland.  After we checked into Room #608, we realized the air conditioning didn't work.  A quick phone call brought their electrician who said the unit needed to be replaced.  We were able to be moved to another room several rooms away from Room #608.  We did request a room facing NORTH so we could watch the Disneyland fireworks ... but we realized much later after we'd unpacked and were settled in that we were in a room facing south.  Gotta teach those employees which direction is NORTH.  :-(It is about a 15-20 minute walk from the hotel to Disneyland and easy to navigate; you won't get lost.  Just follow the crowd.More</t>
   </si>
   <si>
-    <t>Garfield C</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r573183856-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>573183856</t>
+  </si>
+  <si>
+    <t>04/13/2018</t>
+  </si>
+  <si>
+    <t>Great value for money</t>
+  </si>
+  <si>
+    <t>Newly renovated hotel, great self contained kitchenette facilities. Small shop downstairs to buy the essential supplies. Short walk to south Anaheim boulevard, Disneyland Park, IHOP, Tony Roma’s, Denny’s and Cheesecake Factory!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>Newly renovated hotel, great self contained kitchenette facilities. Small shop downstairs to buy the essential supplies. Short walk to south Anaheim boulevard, Disneyland Park, IHOP, Tony Roma’s, Denny’s and Cheesecake Factory!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r572521734-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>572521734</t>
+  </si>
+  <si>
+    <t>04/10/2018</t>
+  </si>
+  <si>
+    <t>This place is amazing and has  really great staff  like Belinda,Ayde,David,Jaime,Stephanie, Arianna.freddy,jafet,Alex,</t>
+  </si>
+  <si>
+    <t>Ive been here for over 8 months and I feel like home. I gave them a five star review plus a 100  more Belinda,Ayde,David,Jaime,Stephanie, Arianna.freddy,jafet,Alex,They are all amazing and funny very family oriented have amazing personalities love to see their guest smile and laugh! Good place to recommend and stay at!MoreShow less</t>
+  </si>
+  <si>
+    <t>Ive been here for over 8 months and I feel like home. I gave them a five star review plus a 100  more Belinda,Ayde,David,Jaime,Stephanie, Arianna.freddy,jafet,Alex,They are all amazing and funny very family oriented have amazing personalities love to see their guest smile and laugh! Good place to recommend and stay at!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r569329671-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
@@ -345,9 +946,6 @@
     <t>My wife and I decided to stay here for a quick mid week getaway . We were pleased with the look and feel of the hotel and friendly staff. The location relative to Disney, Garden Walk and the nice restaurants was ideal; all within walking distance. This hotel really felt safe (key access to parking garage as well as a secure doors that leads to an elevator that takes you directly to sleeping room floors from garage or to the lobby (plenty of cameras).My wife loved the well lit hallways, the fresh smell of the hotel interior and especially in our suites. She however was most impressed with the super comfortable bed. I am not exaggerating when I tell you that this is the most comfortable bed that we have slept in, in forever!More</t>
   </si>
   <si>
-    <t>Joshua G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r564398351-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -363,9 +961,6 @@
     <t xml:space="preserve">My family and I stayed at this wonderful hotel. The front desk service was very helpful and friendly. The room we stayed in was perfect for a family are size 2 adults and 2 children. The hotel over all is very clean from the rooms to the parking lot and the price was extremely affordable being so near Disneyland. This is a hotel that I will be booking future stays at and will be recommending to people. </t>
   </si>
   <si>
-    <t>Andre46</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r563232031-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -384,7 +979,34 @@
     <t>February 2018</t>
   </si>
   <si>
-    <t>Will G</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r562678224-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>562678224</t>
+  </si>
+  <si>
+    <t>02/25/2018</t>
+  </si>
+  <si>
+    <t>Highly recommended</t>
+  </si>
+  <si>
+    <t>Excellent location for travelling around LA. Very comfortable room and spotlessly clean. The complementary laundry room was very handy (take your own laundry detergent as this is not provided). We stayed here for four and a half weeks. In that time we met many of the staff, Management, Reception, Maintenance and Housekeepers. They were all extremely polite, professional, helpful and friendly. We would definitely stay here again without any hesitation.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r561812533-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>561812533</t>
+  </si>
+  <si>
+    <t>02/20/2018</t>
+  </si>
+  <si>
+    <t>Grandparent Visit</t>
+  </si>
+  <si>
+    <t>We wanted a hotel close to the Anaheim Sports Center so we could watch our granddaughter play in a volleyball tournament.  That is how we found the Gem of Anaheim, Candlewood Suites.  We have stayed in Anaheim probably 5 times in the last two years, but we didn't know about this hotel.  The value was amazing!  I expected minimal room and accommodations for the price.  Wow!  Not only was the room great, staff outstanding, but we found it was within walking distance of Gardenwalk Anaheim which had a great choice of restaurants.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r561370294-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
@@ -402,15 +1024,9 @@
     <t>Solid spot for a few days at Disneyland. Not a bad walk to the theme parks. Clean and decently appointed extended stay rooms. We caught a nice rate for our stay too, which worked out well. Quite pleased with this property overall and would consider in the future.</t>
   </si>
   <si>
-    <t>August 2017</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
-    <t>advcards</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r560023649-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -424,9 +1040,6 @@
   </si>
   <si>
     <t>Comes with a kitchen and desk area, in addition seems fairly new.  The resort does not provide breakfast but do have coffee downstairs as well as in the room.About a twenty minute walk to downtown Disney and the parks, so nice location. Overall good place to stay</t>
-  </si>
-  <si>
-    <t>David G</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r556533141-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
@@ -452,9 +1065,6 @@
     <t>January 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>Freddy C, Front Office Manager at Candlewood Suites Anaheim - Resort Area, responded to this reviewResponded January 29, 2018</t>
   </si>
   <si>
@@ -469,7 +1079,43 @@
 Note: It's an easy one-mile walk to Disney or the Convention Center. However, I walked to my event via Katella, which is brightly lit, has...I spent a night at the Candlewood Suites during the NAMM Show. Thanks to a show discount, my room rate was only $139. (With room taxes, etc., it came to about $173.) The GOOD: The location is clean. The check-in staff was super-courteous and prompt. The rooms are small, but reasonably well-designed, and mine was very clean. The BAD: The decor, unfortunately, feels straight out of 1987. (See photo.) The linens, while clean, were all "scratchy," from the sheets to the bath towels. California energy regulations now require motion sensors in all bathrooms, so when you enter the bathroom in the middle of the night, you will be blinded by all the lights turning on. (Not the hotel's fault, but I think a better choice of lights would help.)Freeway noise was not a problem when I went to bed, but in the morning, I woke up at 5am and the noise was significant enough that I couldn't go back to sleep. Having appliances in the room is also a noise factor, and there was a constant clicking through the night (like a bird pecking on the wall) that I assume was the refrigerator. Although my room was elevator-adjacent, I did not hear any noise from the elevator, other than noisy guests coming and going.Note: It's an easy one-mile walk to Disney or the Convention Center. However, I walked to my event via Katella, which is brightly lit, has lots of businesses, and feels safe. My maps app had me return from the event via Disney Way, which is dark, creepy, and I would strongly recommend avoiding at night.Despite my caveats, I would recommend Candlewood Suites Anaheim for anyone who wants a clean, friendly budget hotel.More</t>
   </si>
   <si>
-    <t>crismiss</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r552769865-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>552769865</t>
+  </si>
+  <si>
+    <t>01/09/2018</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>We visited this hotel this past weekend. The hotel was clean, quiet, and provide welcoming customer service.The front desk person, Arianna was great. She was very friendly, informative, and made sure we had everything we needed during our stay. The hotel has everything available, including Disney passes as well as Shuttle passes. They do not offer shuttle service to and from the theme parks however they do have ART shuttle passes available for purchase. The shuttle stops right in front and is only $5.50 unlimited fornthr day or you can purchase 5 day passes, I believe were  $24 per person, and arrives every 20 mins or so.The hotel was also within walking distance, if you choose that route, which also takes about 20 mins or so. Definitely will be visiting again.MoreShow less</t>
+  </si>
+  <si>
+    <t>We visited this hotel this past weekend. The hotel was clean, quiet, and provide welcoming customer service.The front desk person, Arianna was great. She was very friendly, informative, and made sure we had everything we needed during our stay. The hotel has everything available, including Disney passes as well as Shuttle passes. They do not offer shuttle service to and from the theme parks however they do have ART shuttle passes available for purchase. The shuttle stops right in front and is only $5.50 unlimited fornthr day or you can purchase 5 day passes, I believe were  $24 per person, and arrives every 20 mins or so.The hotel was also within walking distance, if you choose that route, which also takes about 20 mins or so. Definitely will be visiting again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r551210468-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>551210468</t>
+  </si>
+  <si>
+    <t>01/03/2018</t>
+  </si>
+  <si>
+    <t>Solid Family Hotel - Walking Distance From Disneyland</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel in December 2017. The hotel does not offer any frills but it is clean, up to date, and the rooms have a small kitchen which allows the budget conscious family to prepare meals. We prefer to choose hotels that are within walking distance from Disneyland. This hotel is a reasonable 20min walk to the east side security entrance via Disney Way &amp; Harbor Blvd.  Note the shortest distance is to start by heading north from the back of the hotel to Disney Way. It is considerably farther to walk via Katella Ave. If Walking is not your preference there are two bust stops for the local shuttle busses. On in front of the hotel and one in the back. This is a decent hotel close to Disneyland and has some advantages for the budget conscious travelers.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel in December 2017. The hotel does not offer any frills but it is clean, up to date, and the rooms have a small kitchen which allows the budget conscious family to prepare meals. We prefer to choose hotels that are within walking distance from Disneyland. This hotel is a reasonable 20min walk to the east side security entrance via Disney Way &amp; Harbor Blvd.  Note the shortest distance is to start by heading north from the back of the hotel to Disney Way. It is considerably farther to walk via Katella Ave. If Walking is not your preference there are two bust stops for the local shuttle busses. On in front of the hotel and one in the back. This is a decent hotel close to Disneyland and has some advantages for the budget conscious travelers.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r550527356-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
@@ -490,9 +1136,6 @@
     <t>My husband and I stayed here for a weekend getaway. Great bed and pillows. Had a really nice kitchenette (dishwasher, plates, cutlery, glasses, pot, toaster, etc) with a two burner stove, full size refrigerator,sink, and large microwave. All appliances were super clean, no funky odors! There was a nice tv, and, according my husband, nice Direct TV channels. There was a built in L-shaped desk (which would be perfect for laptop work) which (the shorter end) doubled as a dining table. Bathroom was nice and clean. No mildew spots on grout around tub. The shower head was high enough for my 6 foot 4 inch husband to be able to shower in without having to duck his head. Plenty of hot water too! Because of the kitchenette, I would recommend this hotel to travelers staying for a few days,especially if you want to save money by making your own food instead of going out to eat for every meal. This hotel has toasters, waffle irons, crock pots and many other small appliances you can barrow from the main lobby/check-in area to use for cooking purposes in your room. Great friendly staff too! We will definitely stay here again and recommend to others!More</t>
   </si>
   <si>
-    <t>Pat W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r548316311-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -508,15 +1151,9 @@
     <t>A solid 3 stars amenities, but I am giving a 4 for the friendly and cordial staff (both day and night shift). We stayed in a 1 bedroom 2 baths suite. The carpet was a bit worn and the furniture are a bit dated in the room. But the room and bathrooms were clean, the bed sheets, blankets and pillow cases were well-laundered. The bed was comfortable. The pots and pans, coffee maker were squeaky clean. Free coffee and tea in room. Dishwasher in room with detergent given. I asked for an extra set of blanket and pillow, and they were prompt, no issue whatsoever. There is a pool and a small exercise room (no one seemed to use it). No lobby area per se, just small area for check in with a set of sofa, and an area for vending machines and snacks for purchase. No breakfast service but 7-11 was just a block away (5 minutes walk). The location is convenient enough for Disneyland visit but you will likely need to drive (a short drive). Parking at Candlewood is 10 usd per night. There is also a coin laundry room on-site. Overall a good stay and would not mind to stay again. MoreShow less</t>
   </si>
   <si>
-    <t>December 2017</t>
-  </si>
-  <si>
     <t>A solid 3 stars amenities, but I am giving a 4 for the friendly and cordial staff (both day and night shift). We stayed in a 1 bedroom 2 baths suite. The carpet was a bit worn and the furniture are a bit dated in the room. But the room and bathrooms were clean, the bed sheets, blankets and pillow cases were well-laundered. The bed was comfortable. The pots and pans, coffee maker were squeaky clean. Free coffee and tea in room. Dishwasher in room with detergent given. I asked for an extra set of blanket and pillow, and they were prompt, no issue whatsoever. There is a pool and a small exercise room (no one seemed to use it). No lobby area per se, just small area for check in with a set of sofa, and an area for vending machines and snacks for purchase. No breakfast service but 7-11 was just a block away (5 minutes walk). The location is convenient enough for Disneyland visit but you will likely need to drive (a short drive). Parking at Candlewood is 10 usd per night. There is also a coin laundry room on-site. Overall a good stay and would not mind to stay again. More</t>
   </si>
   <si>
-    <t>Disneyilove</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r547401142-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -532,7 +1169,37 @@
     <t>As someone who seeks comfortable lodging that is clean and reasonably priced, Candlewood Suites far exceeded my expectations! The staff was friendly and attentive! The kitchenette was very well appointed and even though we didn’t cook in the room, having a grocery delivery on our first night allowed us to not have to buy water or soda in the parks! We can’t wait to return!</t>
   </si>
   <si>
-    <t>Travis S</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r546409845-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>546409845</t>
+  </si>
+  <si>
+    <t>12/10/2017</t>
+  </si>
+  <si>
+    <t>Enjoyable Experience</t>
+  </si>
+  <si>
+    <t>We were very comfortable at the Candlewood Suites.  Our room was clean with plenty of amenities.  The kitchen was stocked with dishes, cookware, dishwasher, fridge, microwave, coffee maker, soap, dishcloths, etc.  The bathroom was roomy as was the closet.  We had a great night sleep in the comfortable bed.  Also included are free WiFi and parking.We did walk back and forth to Disneyland each of the 3 days of our visit.  It is a pleasant 15 minute brisk walk.  Although most of the way is well lit, I would recommend taking a flashlight in the evening.</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r546118121-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>546118121</t>
+  </si>
+  <si>
+    <t>12/08/2017</t>
+  </si>
+  <si>
+    <t>Disneyland Hotel</t>
+  </si>
+  <si>
+    <t>This hotel is with in a 15 minute walking distance to Disneyland. The staff were great and the location was great. The walls are a little thin so noises from other rooms and the hall could be heard.  It was nice to have a fridge and microwave to use. The pool is pretty small, more like a lap pool.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r544511051-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
@@ -562,9 +1229,6 @@
     <t>Nice sized room with good parking. The ART bus system stops nearby that is only a five minute ride to the mouse park. The location is easy of and on to I-5 but near lots of good places to eat, from everything from fancy to super expensive. Also, it is also close to shopping.More</t>
   </si>
   <si>
-    <t>surfer_downunder</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r542689830-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -589,9 +1253,6 @@
     <t>Stayed here on the promise of a pool and air con. Well the air didn’t work and the pool was more like an oversized hot tub. Weather was hot and this made for an uncomfortable stay. Staff were pleasant. Room was clean enough.More</t>
   </si>
   <si>
-    <t>Hansen I</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r541181481-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -607,9 +1268,6 @@
     <t>Stayed in room 507 with kitchen suite, fold out bed and queen room. Check in and check out was straight forward. Free parking, compliementary laundry, satellite TV, WiFi, common community cupboard, fitness room, therapy pool and BBQ patio was nice extras.MoreShow less</t>
   </si>
   <si>
-    <t>November 2017</t>
-  </si>
-  <si>
     <t>Gene K, Manager at Candlewood Suites Anaheim - Resort Area, responded to this reviewResponded November 16, 2017</t>
   </si>
   <si>
@@ -619,7 +1277,40 @@
     <t>Stayed in room 507 with kitchen suite, fold out bed and queen room. Check in and check out was straight forward. Free parking, compliementary laundry, satellite TV, WiFi, common community cupboard, fitness room, therapy pool and BBQ patio was nice extras.More</t>
   </si>
   <si>
-    <t>AlanCAL</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r539801795-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>539801795</t>
+  </si>
+  <si>
+    <t>11/09/2017</t>
+  </si>
+  <si>
+    <t>Amazing place to stay for Disneyland!</t>
+  </si>
+  <si>
+    <t>We loved this place.  Perfect place to stay for Disney.  Clean, accommodating, and perfect for a small family. I thought this was going to be further away from the reviews that I had read.  But when we got there, we realized we were super close to Downtown Disney, so we walked.  We were able to go to Disneyland and California adventure through DD.  We will stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>We loved this place.  Perfect place to stay for Disney.  Clean, accommodating, and perfect for a small family. I thought this was going to be further away from the reviews that I had read.  But when we got there, we realized we were super close to Downtown Disney, so we walked.  We were able to go to Disneyland and California adventure through DD.  We will stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r534986624-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>534986624</t>
+  </si>
+  <si>
+    <t>10/21/2017</t>
+  </si>
+  <si>
+    <t>Anaheim Hotel close to Disneyland with great kitchen</t>
+  </si>
+  <si>
+    <t>This is a great hotel, looks newly remodeled, with a full size refrigerator and dishwasher in the kitchen.  The studio room includes a recliner, desk area, dining area, nice size tv and refrigerator is perfect, but just don't bother with the ice maker, it produces hardly any ice and even after you turn it off, it continues to make noise,  Our room happened to have a view of the Disneyland fireworks as well.Note that if you call a car service, GPS will send the driver through the neighboring hotel but the parking lot does not connect with this hotel's parking lot.  There is no restaurant, but snacks are available for purchase downstairs.  The parking is located in the garage beneath the hotel with a convenient elevator from the garage to the rooms.There is a fitness room and free laundry facilities, with detergent available for purchase in the lobby.Easy access to HWY 5 and they sell Disneyland tickets at the hotel.  Would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is a great hotel, looks newly remodeled, with a full size refrigerator and dishwasher in the kitchen.  The studio room includes a recliner, desk area, dining area, nice size tv and refrigerator is perfect, but just don't bother with the ice maker, it produces hardly any ice and even after you turn it off, it continues to make noise,  Our room happened to have a view of the Disneyland fireworks as well.Note that if you call a car service, GPS will send the driver through the neighboring hotel but the parking lot does not connect with this hotel's parking lot.  There is no restaurant, but snacks are available for purchase downstairs.  The parking is located in the garage beneath the hotel with a convenient elevator from the garage to the rooms.There is a fitness room and free laundry facilities, with detergent available for purchase in the lobby.Easy access to HWY 5 and they sell Disneyland tickets at the hotel.  Would stay here again.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r534868024-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
@@ -628,22 +1319,13 @@
     <t>534868024</t>
   </si>
   <si>
-    <t>10/21/2017</t>
-  </si>
-  <si>
     <t xml:space="preserve">Pleasant enough </t>
   </si>
   <si>
     <t>Pleasant enough. Kind of suspicious of people standing around outside of the building at all times of the day. Had experience that someone tried to open entry door as we were waiting for garage elevator. Did not open on as room key is required for entry. Room was spacious but a little on the unclean side. Floor needed vacuuming. Refrigerator made noise throughout the stay. Check in took a long time as clerk was having problems with register. MoreShow less</t>
   </si>
   <si>
-    <t>October 2017</t>
-  </si>
-  <si>
     <t>Pleasant enough. Kind of suspicious of people standing around outside of the building at all times of the day. Had experience that someone tried to open entry door as we were waiting for garage elevator. Did not open on as room key is required for entry. Room was spacious but a little on the unclean side. Floor needed vacuuming. Refrigerator made noise throughout the stay. Check in took a long time as clerk was having problems with register. More</t>
-  </si>
-  <si>
-    <t>jlm495</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r532097553-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
@@ -674,9 +1356,6 @@
 While I do acknowledge that I should have had the balance on my card, to me it is a little ridiculous that they would put the charge through at such a random time (4 days before my arrival) and give me such short notice about the insufficient funds (3 HOURS!!!). To me this seems like a ploy to screw people out of extremely expensive...I want to start this review by saying that I have not yet completed my stay at the Candlewood Suites and that nothing in this review is a reflection of my experience at the hotel.I booked my stay at this hotel about a month ago.  Today (Wed), I received a call from the hotel saying that they charged my card for my stay (arriving Sat) but that it was declined. I apologized and let them know that in my past experience with other IHG hotels my card was never charged until check-in and I offered to give them another card to put it on. They told me that they would be unable to put it on another card and that if the charge did not go through by the end of the day that the reservation would be cancelled but that I would STILL be responsible for paying the balance in total. So essentially I had 3 hours to put a payment through on my credit card, or be charge $500 AND forfeit my stay. While I do acknowledge that I should have had the balance on my card, to me it is a little ridiculous that they would put the charge through at such a random time (4 days before my arrival) and give me such short notice about the insufficient funds (3 HOURS!!!). To me this seems like a ploy to screw people out of extremely expensive reservations. Very disappointed in this hotel and the entire IHG brand.More</t>
   </si>
   <si>
-    <t>Magic K</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r520757573-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -695,7 +1374,46 @@
     <t>We were on our honeymoon for the final part of our trip to California. We arrived about 4.30pm and checked in straight away. Check in was fast and efficient I paid for our pre booked room and $50 was also held on the card for incidentals. We had a room on the 3rd floor by the lift we are concerned it would be noisy but this wasn't the case. Our room was very nice and comfortable the fridge was a great asset to the room. We never used anything else to cook with but there was also a dishwasher, small stove, microwave and utensils. Bathroom was large and clean. One afternoon we went to the pool which was small but the decking area was lovely with lots of loungers and even BBQs which were being cleaned- the man doing this never stopped cleaning everywhere each time we saw him around the hotel. We walked to and from the Disney parks during our stay it was an easy walk and in a good area. We had a great stay and would return here. More</t>
   </si>
   <si>
-    <t>funsandybeach</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r515771169-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>515771169</t>
+  </si>
+  <si>
+    <t>08/21/2017</t>
+  </si>
+  <si>
+    <t>Terrible experience</t>
+  </si>
+  <si>
+    <t>I haven't had a television for 7 days, even after daily calls to the front desk.Laundry is  free and very, very strange.  No pool.  In California!Front office personnel is uniformly rude, hotel is worn, room carpets are filthy, my room's windows were literally covered with bugs - on the inside - it wasn't a pleasant experience!MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded August 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 22, 2017</t>
+  </si>
+  <si>
+    <t>I haven't had a television for 7 days, even after daily calls to the front desk.Laundry is  free and very, very strange.  No pool.  In California!Front office personnel is uniformly rude, hotel is worn, room carpets are filthy, my room's windows were literally covered with bugs - on the inside - it wasn't a pleasant experience!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r515721377-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>515721377</t>
+  </si>
+  <si>
+    <t>08/20/2017</t>
+  </si>
+  <si>
+    <t>Stay Somewhere Else!!</t>
+  </si>
+  <si>
+    <t>This is our second month-long stay here, and it'll be our last.  We gave it 2 stars but only because Housekeeping is decent.  But the Front Desk/General Management?  Whoo-boy, this place is bad!We've waited 6 days (SIX DAYS!) for a working television, we're going on 10 hours for a working hair-dryer (we were assured we'd have one within 5 minutes), Front Desk personnel is snarky/condescending at best, snotty at worst, it's virtually impossible to escape from dealing with the Front Desk in under 15 minutes...it's just a mess.On the other hand, Housekeeping is fast and thorough considering what they have to work with (the property is aging poorly, carpets are disgusting, mold in the bathrooms, linens smell of mildew, the light that I'm typing under flickers off and on every 5-10 seconds) but, without exception, the Housekeeping staff are very, very friendly and helpful.  But General Management is just the worst.  We won't make the same mistake a third time; spending significant extra dollars to be able to watch the news is definitely worth it.  Dry hair would be a good thing, also.Folks, this just isn't a good place to stay, nor is it a good representative of the Hospitality Industry in Southern California.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is our second month-long stay here, and it'll be our last.  We gave it 2 stars but only because Housekeeping is decent.  But the Front Desk/General Management?  Whoo-boy, this place is bad!We've waited 6 days (SIX DAYS!) for a working television, we're going on 10 hours for a working hair-dryer (we were assured we'd have one within 5 minutes), Front Desk personnel is snarky/condescending at best, snotty at worst, it's virtually impossible to escape from dealing with the Front Desk in under 15 minutes...it's just a mess.On the other hand, Housekeeping is fast and thorough considering what they have to work with (the property is aging poorly, carpets are disgusting, mold in the bathrooms, linens smell of mildew, the light that I'm typing under flickers off and on every 5-10 seconds) but, without exception, the Housekeeping staff are very, very friendly and helpful.  But General Management is just the worst.  We won't make the same mistake a third time; spending significant extra dollars to be able to watch the news is definitely worth it.  Dry hair would be a good thing, also.Folks, this just isn't a good place to stay, nor is it a good representative of the Hospitality Industry in Southern California.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r513094180-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
@@ -728,9 +1446,6 @@
 Pool area...pool is very small. Don't stay here if a large pool is important to you. However, the water was the perfect temp, pool was clean. Nice lounge chairs near the pool and the...My husband chose this hotel while staying for business, and i tagged along to visit Disneyland. The location is good...several restaurants nearby, within walking distance. It is close to the highway too. Proximity to Disney is OK...I walked, and it was just under a mile. If you're OK with walking, then it's a great property for a Disney related trip. Room...decent size room. The kitchen was nice, though we didn't use it much. Used the fridge for chilling water and storing leftover pizza, which we reheated in the microwave. We had one lamp that wouldn't work. I let the front desk know on our way out in the morning, and upon returning that evening it had been fixed. No other issues with the room...everything else functioned well and we had no problems. Towels were replaced and the bed made, trash emptied daily. There is a small area for some basic food and drinks available for purchase. No restaurant or breakfast available in this area. Just a grab and go type of set up. There are also some items available for borrowing...games, additional kitchen items, grilling tools. There are 3 nice size gas grills up at the pool deck. We didn't use them, but they looked nice.Pool area...pool is very small. Don't stay here if a large pool is important to you. However, the water was the perfect temp, pool was clean. Nice lounge chairs near the pool and the grilling area. There are also two rooms with additional tables and chairs and TV's in them. Nice if you want shade and an inside feel...they are open facing the pool. The only issue I had with cleanliness would be the stairways. It seemed like the same messy spots were on the stairs the whole stay...Monday-Friday. And there are trash cans on each level, and maybe someone put something gross in the trash and they don't get emptied often, because there was one stairway in particular that smelled rather bad each time I used it.Overall we had a good stay, and would stay again if in the area.More</t>
   </si>
   <si>
-    <t>Texangal13</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r509844658-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -758,9 +1473,6 @@
     <t>We stayed 4 nights in Feb 2017. We did not have hot water the first night we stayed but we did the following nights. The staff was friendly and helpful, they refunded us for the night without hot water. The bed was comfortable and the room was very clean. For the deal we got through trip advisor, this was a great value.More</t>
   </si>
   <si>
-    <t>TessRomaniak</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r509459686-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -779,7 +1491,46 @@
     <t>This hotel was so disgusting. I chose it based on reviews here. Carpets were filthy, the room smelled bad, we were given one very small shampoo/conditioner combo and two small bars of soap (for 4 people), there was a bunch of hair under the sheets of one of the beds, the air conditioner also did not work. We requested a different room and the new room was also dirty, plus the person directly across from us was blaring his tv. Someone was coming out of his room as we were bringing our stuff in and the room reeked of marijuana. We decided to leave and went to the Embassy Suites not far away. The only good thing I can say is that we had no problem when we said we didn't want to be charged for the room. I don't know how anyone could give this place a decent review. It was gross. If I could give it no stars, I would.More</t>
   </si>
   <si>
-    <t>sfofun202</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r505117291-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>505117291</t>
+  </si>
+  <si>
+    <t>07/24/2017</t>
+  </si>
+  <si>
+    <t>Nice place to stay for Disney</t>
+  </si>
+  <si>
+    <t>This was the first time staying here.  We have stayed at their sister hotel at Staybridge Suites.  Our suite is very similar in size as well as the layout.  We are also Worldmark owners which is just down the street from this location.  (Worldmark is a timeshare by Wyndam.) So we are used to having a kitchen in our unit and this one does.  Check in was simple but they didn't give us any info on where to park.  It was easy but didn't know there was another parking area on the 2nd floor until you come back in the evening and there is no parking and hard to back out of the parking lot.  The first time we entered out unit suite, we notice they did not clean the inside of the cupboards.  There was crumbs and dirt in them.  No big deal for us because we didn't use them but they should do a better job because it and easy wipe down if they opened them.  Suite was nice but the AC does not reach the bedroom unless the room door is open.  The AC is also right next to the sofa bed which can be harmful if someone is sleeping there.  We had to open the windows in order to get air in the bedroom.  The hotel is near a freeway but the noise is not a factor.  I did notice they had BBQ grills but we...This was the first time staying here.  We have stayed at their sister hotel at Staybridge Suites.  Our suite is very similar in size as well as the layout.  We are also Worldmark owners which is just down the street from this location.  (Worldmark is a timeshare by Wyndam.) So we are used to having a kitchen in our unit and this one does.  Check in was simple but they didn't give us any info on where to park.  It was easy but didn't know there was another parking area on the 2nd floor until you come back in the evening and there is no parking and hard to back out of the parking lot.  The first time we entered out unit suite, we notice they did not clean the inside of the cupboards.  There was crumbs and dirt in them.  No big deal for us because we didn't use them but they should do a better job because it and easy wipe down if they opened them.  Suite was nice but the AC does not reach the bedroom unless the room door is open.  The AC is also right next to the sofa bed which can be harmful if someone is sleeping there.  We had to open the windows in order to get air in the bedroom.  The hotel is near a freeway but the noise is not a factor.  I did notice they had BBQ grills but we did not use it.  The pool is very small.  (if you want a bigger pool, I would suggest to stay at their sister hotel Staybridge Suites on Manchester).  Over all, I would stay here again.  This and Staybridge would be our choices when our Worldmark timeshare is not available.MoreShow less</t>
+  </si>
+  <si>
+    <t>This was the first time staying here.  We have stayed at their sister hotel at Staybridge Suites.  Our suite is very similar in size as well as the layout.  We are also Worldmark owners which is just down the street from this location.  (Worldmark is a timeshare by Wyndam.) So we are used to having a kitchen in our unit and this one does.  Check in was simple but they didn't give us any info on where to park.  It was easy but didn't know there was another parking area on the 2nd floor until you come back in the evening and there is no parking and hard to back out of the parking lot.  The first time we entered out unit suite, we notice they did not clean the inside of the cupboards.  There was crumbs and dirt in them.  No big deal for us because we didn't use them but they should do a better job because it and easy wipe down if they opened them.  Suite was nice but the AC does not reach the bedroom unless the room door is open.  The AC is also right next to the sofa bed which can be harmful if someone is sleeping there.  We had to open the windows in order to get air in the bedroom.  The hotel is near a freeway but the noise is not a factor.  I did notice they had BBQ grills but we...This was the first time staying here.  We have stayed at their sister hotel at Staybridge Suites.  Our suite is very similar in size as well as the layout.  We are also Worldmark owners which is just down the street from this location.  (Worldmark is a timeshare by Wyndam.) So we are used to having a kitchen in our unit and this one does.  Check in was simple but they didn't give us any info on where to park.  It was easy but didn't know there was another parking area on the 2nd floor until you come back in the evening and there is no parking and hard to back out of the parking lot.  The first time we entered out unit suite, we notice they did not clean the inside of the cupboards.  There was crumbs and dirt in them.  No big deal for us because we didn't use them but they should do a better job because it and easy wipe down if they opened them.  Suite was nice but the AC does not reach the bedroom unless the room door is open.  The AC is also right next to the sofa bed which can be harmful if someone is sleeping there.  We had to open the windows in order to get air in the bedroom.  The hotel is near a freeway but the noise is not a factor.  I did notice they had BBQ grills but we did not use it.  The pool is very small.  (if you want a bigger pool, I would suggest to stay at their sister hotel Staybridge Suites on Manchester).  Over all, I would stay here again.  This and Staybridge would be our choices when our Worldmark timeshare is not available.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r502065957-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>502065957</t>
+  </si>
+  <si>
+    <t>07/14/2017</t>
+  </si>
+  <si>
+    <t>Not worth the money!</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel because I got a decent deal......was not worth it! 1st night went ok, found a decent parking spot and got to our room and settled in. The second day we went out, came back to hotel, and had similar experiece as first night. When I went out to truck in the morning, there was a car parked in "no parking" spot because there are not enought spaces. It smelled horrible amd as I got to the rear of my truck I found someone had pooped on the ground between mine and the illegally parked car. I got back to my room around 9 am, contacted front desk and notified them. When I went to leave around 11am it was still there. Housekeeping came by at 945am, we had not left yet so no housekeeping today because apperantly they dont come back. When we came back that evening, there were not enough spots, vehicles were parked in fire lane, and the vehicles were blocking drive way. I notified front desk of illegally parked vehocles but "guests could not be reached" and I was sent with my vehicle across the street to residence inn to park. When walking back to our room we passed the spot we were in earlier and the poop was STILL there. Today, we were getting ready to leave and at 945am housekeeping came and we hadnt left so again no "tidy up". On...Stayed at this hotel because I got a decent deal......was not worth it! 1st night went ok, found a decent parking spot and got to our room and settled in. The second day we went out, came back to hotel, and had similar experiece as first night. When I went out to truck in the morning, there was a car parked in "no parking" spot because there are not enought spaces. It smelled horrible amd as I got to the rear of my truck I found someone had pooped on the ground between mine and the illegally parked car. I got back to my room around 9 am, contacted front desk and notified them. When I went to leave around 11am it was still there. Housekeeping came by at 945am, we had not left yet so no housekeeping today because apperantly they dont come back. When we came back that evening, there were not enough spots, vehicles were parked in fire lane, and the vehicles were blocking drive way. I notified front desk of illegally parked vehocles but "guests could not be reached" and I was sent with my vehicle across the street to residence inn to park. When walking back to our room we passed the spot we were in earlier and the poop was STILL there. Today, we were getting ready to leave and at 945am housekeeping came and we hadnt left so again no "tidy up". On the way out we see poop is still there and the vehicle in fire lane is still there. We returned tonight (4th night) the car is still in fire lane, poop is still on ground, we had no housekeeping so trash is all full, towels piled up. Not impressed with this hotel! The pool is so small and hardly classified as a pool, I would describe it as a hybrid Jacuzzi, its about the size of the room.  I would not recommend this hotel! MoreShow less</t>
+  </si>
+  <si>
+    <t>Sureya A, Manager at Candlewood Suites Anaheim - Resort Area, responded to this reviewResponded July 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 20, 2017</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel because I got a decent deal......was not worth it! 1st night went ok, found a decent parking spot and got to our room and settled in. The second day we went out, came back to hotel, and had similar experiece as first night. When I went out to truck in the morning, there was a car parked in "no parking" spot because there are not enought spaces. It smelled horrible amd as I got to the rear of my truck I found someone had pooped on the ground between mine and the illegally parked car. I got back to my room around 9 am, contacted front desk and notified them. When I went to leave around 11am it was still there. Housekeeping came by at 945am, we had not left yet so no housekeeping today because apperantly they dont come back. When we came back that evening, there were not enough spots, vehicles were parked in fire lane, and the vehicles were blocking drive way. I notified front desk of illegally parked vehocles but "guests could not be reached" and I was sent with my vehicle across the street to residence inn to park. When walking back to our room we passed the spot we were in earlier and the poop was STILL there. Today, we were getting ready to leave and at 945am housekeeping came and we hadnt left so again no "tidy up". On...Stayed at this hotel because I got a decent deal......was not worth it! 1st night went ok, found a decent parking spot and got to our room and settled in. The second day we went out, came back to hotel, and had similar experiece as first night. When I went out to truck in the morning, there was a car parked in "no parking" spot because there are not enought spaces. It smelled horrible amd as I got to the rear of my truck I found someone had pooped on the ground between mine and the illegally parked car. I got back to my room around 9 am, contacted front desk and notified them. When I went to leave around 11am it was still there. Housekeeping came by at 945am, we had not left yet so no housekeeping today because apperantly they dont come back. When we came back that evening, there were not enough spots, vehicles were parked in fire lane, and the vehicles were blocking drive way. I notified front desk of illegally parked vehocles but "guests could not be reached" and I was sent with my vehicle across the street to residence inn to park. When walking back to our room we passed the spot we were in earlier and the poop was STILL there. Today, we were getting ready to leave and at 945am housekeeping came and we hadnt left so again no "tidy up". On the way out we see poop is still there and the vehicle in fire lane is still there. We returned tonight (4th night) the car is still in fire lane, poop is still on ground, we had no housekeeping so trash is all full, towels piled up. Not impressed with this hotel! The pool is so small and hardly classified as a pool, I would describe it as a hybrid Jacuzzi, its about the size of the room.  I would not recommend this hotel! More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r498889408-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
@@ -811,9 +1562,6 @@
 We finally got into the other room almost two hours after the 3pm check in time.  We went out to dinner and came back, around 10:00 pm and the room next to us had a dog.  The dog was barking and whining continuously.  I called the front desk and they said they would call the guest (who clearly wasn’t in the room) They ask me if I wanted to move; I said NO!  I have a 5yo I need to get to bed, why should I have to move? We had to put on white noise to cancel out the dog barking.  The next morning before we left, I went to the front desk and made sure that they contacted the guest and make sure it doesn’t happen again or move them.  The girl didn’t even know what...I am a IHG Gold Elite, soon to be Platinum.  I had two rooms and requested that they be close to each other and with an early check in.  When I arrived at 4PM, the guy at the desk said “oh, I was just trying to find a rooms near each other and we only have one room ready and I don’t have any rooms near each other.”  I realized these are only request, but I would think, they would try to honor request from your elite members and try to make the request happen the night before by blocking room’s etc.  We finally got into the other room almost two hours after the 3pm check in time.  We went out to dinner and came back, around 10:00 pm and the room next to us had a dog.  The dog was barking and whining continuously.  I called the front desk and they said they would call the guest (who clearly wasn’t in the room) They ask me if I wanted to move; I said NO!  I have a 5yo I need to get to bed, why should I have to move? We had to put on white noise to cancel out the dog barking.  The next morning before we left, I went to the front desk and made sure that they contacted the guest and make sure it doesn’t happen again or move them.  The girl didn’t even know what I was talking about.  The guy from the night before didn’t pass on the incident.  She assured me that they would take care of it.   We got back to the room around 8pm.  The guest had not been moved and the dog was barking and whining again.  I called the Front Desk again; the guy said he would call the guest.  He called me back and said the guess was upset that he was calling her about the dog barking and said that Expedia said the dog would be allowed to bark.  I said to the guy; seriously??  What hotel would ever allow that? He said, I know that can’t be true.  Then he asked me again; did I want to move?  I said again NO!  I shouldn’t have to move when we are not the one causing a problem, again another night we had to put the white noise on to drown out the dog barking.The next night day they either got moved or checked out, because we didn’t’ hear the dog again.  The A/C doesn’t’ work very well either, there is a small vent for the bedroom and never really that cool in the bedroom.   This hotel is located close to the parks. The bus stop is located right out front of the hotel.  I travel extensively and while this hotel is pretty clean and the staff is friendly.  I couldn’t recommend this place.  There are to many other hotels near the parks to choose from. This hotel needs to work on better training their employees and understand who their Elite members are.More</t>
   </si>
   <si>
-    <t>Michael M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r498540914-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -832,9 +1580,6 @@
     <t>We had a brief, but pleasant, stay at the Candlewood Suites. Location is very convenient to the Interstate, Disney, and Angels Stadium.  Liked the covered parking at no charge.  Beds were comfortable, and room was large enough for 4 of us.  The pool is tiny, but we were just there to cool off, so it did the trick. Would likely stay here again.More</t>
   </si>
   <si>
-    <t>resawolfis</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r498088899-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -853,7 +1598,52 @@
     <t>The staff was very friendly and accommodating. They let us check in a few minutes early and let us leave our car in their parking garage longer than check out on the last day. I was able to get extra coffee, popcorn, creamer, etc. Whenever i asked for something they smiled and said "of course!" The room was a good size for two people. It was clean and updated. It was very nice to have the kitchenette as we were there for 3 nights for a volleyball tournament. It was a 25 minute walk to the convention center which was convenient. I would definitely stay here again and would recommend it to others.More</t>
   </si>
   <si>
-    <t>RichieNotSoRich</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r495103695-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>495103695</t>
+  </si>
+  <si>
+    <t>06/22/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great stay! </t>
+  </si>
+  <si>
+    <t>My family and I had a wonderful stay. It was extremely clean, and the staff were friendly and knowledgeable. We were within walking distance to Disneyland which was nice. I also liked the covered garage that was free to park in (which many of the hotels in the area did not offer) also no resort fee! I really can't say enough good things about our stay, the kitchen in the room was also nice..if we are ever in the area we will stay here again for sure.MoreShow less</t>
+  </si>
+  <si>
+    <t>Sureya A, Front Office Supervisor at Candlewood Suites Anaheim - Resort Area, responded to this reviewResponded June 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 25, 2017</t>
+  </si>
+  <si>
+    <t>My family and I had a wonderful stay. It was extremely clean, and the staff were friendly and knowledgeable. We were within walking distance to Disneyland which was nice. I also liked the covered garage that was free to park in (which many of the hotels in the area did not offer) also no resort fee! I really can't say enough good things about our stay, the kitchen in the room was also nice..if we are ever in the area we will stay here again for sure.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r492233667-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>492233667</t>
+  </si>
+  <si>
+    <t>06/11/2017</t>
+  </si>
+  <si>
+    <t>Close, but not up to par</t>
+  </si>
+  <si>
+    <t>Stayed here for a Disney vacation. The 2 positives were the location and the fact that a shuttle runs pretty constant to visit the park. The hotel itself was disappointing. Beds are comfy, but rooms are small. Needs to be updated. One of the days, housekeeping didn't clean or rooms, so no clean linen or towels. To be truthful, even when they came, all they did was just restock paper towels , toilet paper, etc. but did not really clean. Maybe more of an extended stay versus and actually hotel. Would not spend my money on a candlewood suite again. Just book with Homewood Suites down the way. But service for better value in my opinion.MoreShow less</t>
+  </si>
+  <si>
+    <t>Sureya A, Guest Relations Manager at Candlewood Suites Anaheim - Resort Area, responded to this reviewResponded June 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 16, 2017</t>
+  </si>
+  <si>
+    <t>Stayed here for a Disney vacation. The 2 positives were the location and the fact that a shuttle runs pretty constant to visit the park. The hotel itself was disappointing. Beds are comfy, but rooms are small. Needs to be updated. One of the days, housekeeping didn't clean or rooms, so no clean linen or towels. To be truthful, even when they came, all they did was just restock paper towels , toilet paper, etc. but did not really clean. Maybe more of an extended stay versus and actually hotel. Would not spend my money on a candlewood suite again. Just book with Homewood Suites down the way. But service for better value in my opinion.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r483997543-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
@@ -865,9 +1655,6 @@
     <t>05/13/2017</t>
   </si>
   <si>
-    <t>Great location</t>
-  </si>
-  <si>
     <t>This hotel is just over half a mile from Disneyland, easy walking distance. Great room with TV, twin beds, decent bathroom and kitchenette. Free parking is a bonus.The staff were very helpful and accommodating. There's a pool and a gym although we didn't visit either so can't comment on them.It's right beside the I5 freeway so very accessible. There's a large and a small Walmart only a few blocks away to the north and an outlet mall a few blocks to the south. Some great restaurants between the hotel and Disney too.MoreShow less</t>
   </si>
   <si>
@@ -883,9 +1670,6 @@
     <t>This hotel is just over half a mile from Disneyland, easy walking distance. Great room with TV, twin beds, decent bathroom and kitchenette. Free parking is a bonus.The staff were very helpful and accommodating. There's a pool and a gym although we didn't visit either so can't comment on them.It's right beside the I5 freeway so very accessible. There's a large and a small Walmart only a few blocks away to the north and an outlet mall a few blocks to the south. Some great restaurants between the hotel and Disney too.More</t>
   </si>
   <si>
-    <t>TwoDollarToll</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r482746481-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -910,9 +1694,6 @@
     <t>We were two people in a room with 2 queen beds for two nights . The bathroom was great and the biggest pluses were the in-room coffee maker, the full size fridge, and a stove + microwave. There is a selection of milk, cereal, and frozen items for sale in the lobby, which we took advantage of for breakfast which saved a lot of time. We also took advantage of the covered parking. We took a ride-share service to get to and from Angels stadium our first day there (about $7 each way). Parking for baseball was just $10 so I might be inclined to drive to the game if I had to do it again. On the second day we walked to and from the Disneyland Resort. The walk was not bad at all. Coming back it was about 10:00 at night and I did not feel any anxiety; you are either walking next to busy streets or through the grounds of other hotels. As always, use caution when in strange places, but I thought the neighborhood was fine.More</t>
   </si>
   <si>
-    <t>jlipscomb010</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r481975798-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -934,7 +1715,40 @@
     <t>The suites worked out great with the grand kids.  We were able to have our privacy and sleep while the kids were able to be on their tablets, watch TV and make snacks.  The full kitchen was great!  Fully functional and you could borrow more appliances (crock pot, steamers, etc,) if needed.  The room was clean and well stocked. Very close to Disney, you could walk, however, we just used zoomryde.com and found the closest &amp; cheapest ride available at the time (will give you stats for lyft, uber, bus, taxi, etc.) Turned out to be lyft, which had us at Disneyland within 6 minutes from the time I ordered the ride!  So convenience can't be beat.  The staff was great.  They were all very friendly, helpful &amp; responded to our requests very quickly.  We would stay at the Candlewood Suites again.More</t>
   </si>
   <si>
-    <t>Tom P</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r480980955-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>480980955</t>
+  </si>
+  <si>
+    <t>05/02/2017</t>
+  </si>
+  <si>
+    <t>Excellent value for the location</t>
+  </si>
+  <si>
+    <t>This is a great hotel for the value.  You have a breakfast, pleasant staff and great rooms.  It is located within walking distance of Disneyland and is quiet.  Pool is very small and there isn't much fitness equipment but it is a great hotel to stay at when visiting Disneyland for being at the convention center.  staff is great, very friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is a great hotel for the value.  You have a breakfast, pleasant staff and great rooms.  It is located within walking distance of Disneyland and is quiet.  Pool is very small and there isn't much fitness equipment but it is a great hotel to stay at when visiting Disneyland for being at the convention center.  staff is great, very friendly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r478847586-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>478847586</t>
+  </si>
+  <si>
+    <t>04/25/2017</t>
+  </si>
+  <si>
+    <t>Excellent Stay</t>
+  </si>
+  <si>
+    <t>I can't say enough good things about this hotel. We are a family of 5 and we had an excellent stay. We have all boys, 8, 5 and 8 months. The hotel provides a crib upon request which was super convenient with the baby.  I will say, if you will be using their crib, it is a basic metal-framed crib with a basic 3" pad (give or take).  We wiped it down with a wet wipe and bought a clearance crib sheet for it at the local Target - we just felt more comfortable going that. We also did a little grocery shopping at the Target because we had a full kitchen which helped us save some money in cooking some of our meals. Hotel grounds were nice and clean.  Beds and pillows were nice and super comfy. Bathroom was a good size. Iron board/iron, hair dryer, provided in our room. Kitchen was stocked with plates, utensils, pot/pans, cups, coffee maker and coffee although hotel provides FREE coffee in the lobby. Dish soap and dish washer soap was provided. If you will be cooking, you will need to purchase your own cooking oil or cooking spray/butter - whatever you prefer/need.  No kitchen table, but a long desk that doubled as what would be a kitchen table at one end.  Not enough room or chairs though for everone to sit and eat together.  This didn't bother us.  Full fridge with ice...I can't say enough good things about this hotel. We are a family of 5 and we had an excellent stay. We have all boys, 8, 5 and 8 months. The hotel provides a crib upon request which was super convenient with the baby.  I will say, if you will be using their crib, it is a basic metal-framed crib with a basic 3" pad (give or take).  We wiped it down with a wet wipe and bought a clearance crib sheet for it at the local Target - we just felt more comfortable going that. We also did a little grocery shopping at the Target because we had a full kitchen which helped us save some money in cooking some of our meals. Hotel grounds were nice and clean.  Beds and pillows were nice and super comfy. Bathroom was a good size. Iron board/iron, hair dryer, provided in our room. Kitchen was stocked with plates, utensils, pot/pans, cups, coffee maker and coffee although hotel provides FREE coffee in the lobby. Dish soap and dish washer soap was provided. If you will be cooking, you will need to purchase your own cooking oil or cooking spray/butter - whatever you prefer/need.  No kitchen table, but a long desk that doubled as what would be a kitchen table at one end.  Not enough room or chairs though for everone to sit and eat together.  This didn't bother us.  Full fridge with ice maker.  Being able to take home leftovers and reheat also helped us save money where we could.  We did not use the gym, but it looked sufficient. Pool area met all basic needs, bbq grills, lounge chairs and 2 cabana-type areas with bathrooms. Pool itself is small and no more than 3' deep, but for us it was perfect with having little ones who don't swim very well.  Great location. Close to so many places to eat. Walk to Disney is doable. You may want to weigh the pros and cons when doing the walk with littles.  I booked the room directly through the IHG website, but I started with checking reviews and guest photos on Trip Advisor. I believe the hotel is fairly new as far as ownership and renovations so there aren't any negative pictures as of date which helped me to choose this hotel.  We would definitely stay here again and would recommend this hotel to everyone. Our stay was 4/18/17 to 4/22/17.MoreShow less</t>
+  </si>
+  <si>
+    <t>I can't say enough good things about this hotel. We are a family of 5 and we had an excellent stay. We have all boys, 8, 5 and 8 months. The hotel provides a crib upon request which was super convenient with the baby.  I will say, if you will be using their crib, it is a basic metal-framed crib with a basic 3" pad (give or take).  We wiped it down with a wet wipe and bought a clearance crib sheet for it at the local Target - we just felt more comfortable going that. We also did a little grocery shopping at the Target because we had a full kitchen which helped us save some money in cooking some of our meals. Hotel grounds were nice and clean.  Beds and pillows were nice and super comfy. Bathroom was a good size. Iron board/iron, hair dryer, provided in our room. Kitchen was stocked with plates, utensils, pot/pans, cups, coffee maker and coffee although hotel provides FREE coffee in the lobby. Dish soap and dish washer soap was provided. If you will be cooking, you will need to purchase your own cooking oil or cooking spray/butter - whatever you prefer/need.  No kitchen table, but a long desk that doubled as what would be a kitchen table at one end.  Not enough room or chairs though for everone to sit and eat together.  This didn't bother us.  Full fridge with ice...I can't say enough good things about this hotel. We are a family of 5 and we had an excellent stay. We have all boys, 8, 5 and 8 months. The hotel provides a crib upon request which was super convenient with the baby.  I will say, if you will be using their crib, it is a basic metal-framed crib with a basic 3" pad (give or take).  We wiped it down with a wet wipe and bought a clearance crib sheet for it at the local Target - we just felt more comfortable going that. We also did a little grocery shopping at the Target because we had a full kitchen which helped us save some money in cooking some of our meals. Hotel grounds were nice and clean.  Beds and pillows were nice and super comfy. Bathroom was a good size. Iron board/iron, hair dryer, provided in our room. Kitchen was stocked with plates, utensils, pot/pans, cups, coffee maker and coffee although hotel provides FREE coffee in the lobby. Dish soap and dish washer soap was provided. If you will be cooking, you will need to purchase your own cooking oil or cooking spray/butter - whatever you prefer/need.  No kitchen table, but a long desk that doubled as what would be a kitchen table at one end.  Not enough room or chairs though for everone to sit and eat together.  This didn't bother us.  Full fridge with ice maker.  Being able to take home leftovers and reheat also helped us save money where we could.  We did not use the gym, but it looked sufficient. Pool area met all basic needs, bbq grills, lounge chairs and 2 cabana-type areas with bathrooms. Pool itself is small and no more than 3' deep, but for us it was perfect with having little ones who don't swim very well.  Great location. Close to so many places to eat. Walk to Disney is doable. You may want to weigh the pros and cons when doing the walk with littles.  I booked the room directly through the IHG website, but I started with checking reviews and guest photos on Trip Advisor. I believe the hotel is fairly new as far as ownership and renovations so there aren't any negative pictures as of date which helped me to choose this hotel.  We would definitely stay here again and would recommend this hotel to everyone. Our stay was 4/18/17 to 4/22/17.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r478836024-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
@@ -943,9 +1757,6 @@
     <t>478836024</t>
   </si>
   <si>
-    <t>04/25/2017</t>
-  </si>
-  <si>
     <t>Excellent for the price/Disney</t>
   </si>
   <si>
@@ -955,9 +1766,6 @@
     <t>Is it The Ritz? No. But it is very comfortable (great bed!), practical (very nice stocked kitchenette in the room) and the staff is superb. I cannot say enough about everyone I encountered at the front desk. So helpful and giving. The parking is complementary, a big deal around Disney. And if you check out in the morning and still have one day left in the park, they will let you leave your car until that evening. I will stay here again when I spend the night to go to the park.More</t>
   </si>
   <si>
-    <t>Jodi S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r474330380-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -976,9 +1784,6 @@
     <t>I stayed here for 4 nights with my 2 children ages 6 and 13 while going to Disneyland. The rooms are new, super comfortable and the full size kitchen was very useful. The hotel staff was wonderful for checking in and very helpful when needed! The pool is VERY small and not really very kid friendly. It's a small therapeutic pool that we thought was very cold! There is an ART bus right outside the hotel lobby and the Garden Walk is also very close! One morning our ART bus didn't show up after waiting 45 minutes so we had to walk to the park and it only took about 15-20 minutes. I wouldn't have felt safe walking at night though. Over-all its a decent place if you don't care about a pool and just use the bus system for getting to and from the parks!More</t>
   </si>
   <si>
-    <t>Lunas_Traveler</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r470910282-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -997,7 +1802,53 @@
     <t>This would've been a very nice stay except for ants the first day. Check in was good and initial room check was nice. Brought a few groceries back to room. Next morning had ants all over the desk and in box of donuts. Clerk was very apologetic and immediately moved us to another room. We both worked in the room till about 1230pm and missed housekeeping so after two days put garbage outside the door. Third day we caught the housekeeper and got towels and was told rooms they missed in the morning got serviced in the afternoon but our room only got serviced once when we left by 1130am.Rest of our stay was uneventful.  The kitchen and full size fridge was a nice feature. Wifi worked well.  Bed was very comfortable. The laundry room was free of charge, except soap, which was amazing. Parking was free and plenty of spaces. Hotel is very close to Disneyland and numerous restaurants and by freeways.  Staff were all very nice.More</t>
   </si>
   <si>
-    <t>Mike D</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r469745392-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>469745392</t>
+  </si>
+  <si>
+    <t>03/23/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great Location and Good Amenities </t>
+  </si>
+  <si>
+    <t>This is a newer hotel facility in the area. I had made reservations ahead of time online and the check-in was very easy. I found the room to be clean and the beds comfortable. The full size refrigerator/freezer and microwave was great to have for our drinks and leftovers. There was a 2-burner cooktop, but we did not cook any meals while there. The daily housekeeping of making beds, taking out trash, and replenishing bath towels was sufficient for our stay. The room we stayed in was on the 4th floor and we were able to access the wifi sufficiently. 
+We did opt to Uber to and from Disneyland due to the cooler weather that SoCal was experiencing during our vacation. Each one way trip for our family of 3 cost approximately $6.50, which ended up being a much better deal than the ART bus that inconsistently serves the area. 
+The only problems we encountered were that housekeeping did not leave us enough wash clothes on the 2nd and 3rd night of our stay. The front desk was kind enough to deliver some to our room. Also, the hallways had the tendency to become littered with random, small pieces of trash, like Q-tips. I know it's hard to keep a common living space like that clean due to the disrespectful nature of some tenants, but workers should be reminded to pickup trash if they see it laying around... or at...This is a newer hotel facility in the area. I had made reservations ahead of time online and the check-in was very easy. I found the room to be clean and the beds comfortable. The full size refrigerator/freezer and microwave was great to have for our drinks and leftovers. There was a 2-burner cooktop, but we did not cook any meals while there. The daily housekeeping of making beds, taking out trash, and replenishing bath towels was sufficient for our stay. The room we stayed in was on the 4th floor and we were able to access the wifi sufficiently. We did opt to Uber to and from Disneyland due to the cooler weather that SoCal was experiencing during our vacation. Each one way trip for our family of 3 cost approximately $6.50, which ended up being a much better deal than the ART bus that inconsistently serves the area. The only problems we encountered were that housekeeping did not leave us enough wash clothes on the 2nd and 3rd night of our stay. The front desk was kind enough to deliver some to our room. Also, the hallways had the tendency to become littered with random, small pieces of trash, like Q-tips. I know it's hard to keep a common living space like that clean due to the disrespectful nature of some tenants, but workers should be reminded to pickup trash if they see it laying around... or at least let housekeeping know that a quick vacuum of the hallway on the 4th floor is needed. I would definitely recommend and stay at this hotel in the future. MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>This is a newer hotel facility in the area. I had made reservations ahead of time online and the check-in was very easy. I found the room to be clean and the beds comfortable. The full size refrigerator/freezer and microwave was great to have for our drinks and leftovers. There was a 2-burner cooktop, but we did not cook any meals while there. The daily housekeeping of making beds, taking out trash, and replenishing bath towels was sufficient for our stay. The room we stayed in was on the 4th floor and we were able to access the wifi sufficiently. 
+We did opt to Uber to and from Disneyland due to the cooler weather that SoCal was experiencing during our vacation. Each one way trip for our family of 3 cost approximately $6.50, which ended up being a much better deal than the ART bus that inconsistently serves the area. 
+The only problems we encountered were that housekeeping did not leave us enough wash clothes on the 2nd and 3rd night of our stay. The front desk was kind enough to deliver some to our room. Also, the hallways had the tendency to become littered with random, small pieces of trash, like Q-tips. I know it's hard to keep a common living space like that clean due to the disrespectful nature of some tenants, but workers should be reminded to pickup trash if they see it laying around... or at...This is a newer hotel facility in the area. I had made reservations ahead of time online and the check-in was very easy. I found the room to be clean and the beds comfortable. The full size refrigerator/freezer and microwave was great to have for our drinks and leftovers. There was a 2-burner cooktop, but we did not cook any meals while there. The daily housekeeping of making beds, taking out trash, and replenishing bath towels was sufficient for our stay. The room we stayed in was on the 4th floor and we were able to access the wifi sufficiently. We did opt to Uber to and from Disneyland due to the cooler weather that SoCal was experiencing during our vacation. Each one way trip for our family of 3 cost approximately $6.50, which ended up being a much better deal than the ART bus that inconsistently serves the area. The only problems we encountered were that housekeeping did not leave us enough wash clothes on the 2nd and 3rd night of our stay. The front desk was kind enough to deliver some to our room. Also, the hallways had the tendency to become littered with random, small pieces of trash, like Q-tips. I know it's hard to keep a common living space like that clean due to the disrespectful nature of some tenants, but workers should be reminded to pickup trash if they see it laying around... or at least let housekeeping know that a quick vacuum of the hallway on the 4th floor is needed. I would definitely recommend and stay at this hotel in the future. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r467643017-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>467643017</t>
+  </si>
+  <si>
+    <t>03/15/2017</t>
+  </si>
+  <si>
+    <t>Walking distance to Convention Centre and Downtown Disney</t>
+  </si>
+  <si>
+    <t>Hotel is close to highway, convention centre and Disney.  In fact, it is only about a block from the parking lot for both.  The area is not the best place for walking at night, but no problems during the day.  The Anaheim Garden Walk is very close as well.The room is a good size and comes with minimal cleaning.  Due to the extended stays, the cleaning seems to last all day in the hotel.The pool area was very nice, but not what I would consider kid friendly. Okay by me, as I could enjoy the sun and quiet in the small pool.  The area is also set up for BBQs and common rooms with tables and tvs.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Candlewood Suites Anaheim - Resort Area, responded to this reviewResponded April 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 3, 2017</t>
+  </si>
+  <si>
+    <t>Hotel is close to highway, convention centre and Disney.  In fact, it is only about a block from the parking lot for both.  The area is not the best place for walking at night, but no problems during the day.  The Anaheim Garden Walk is very close as well.The room is a good size and comes with minimal cleaning.  Due to the extended stays, the cleaning seems to last all day in the hotel.The pool area was very nice, but not what I would consider kid friendly. Okay by me, as I could enjoy the sun and quiet in the small pool.  The area is also set up for BBQs and common rooms with tables and tvs.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r467345303-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
@@ -1015,9 +1866,6 @@
     <t>The property is approximately a 10 minute walk from the parks and 15 minutes from Downtown Disney. Brand new with great furnishings and large suites. We were in a one bedroom suite and very much enjoyed it. Wifi worked very well. The "Candlewood Cupboard" or mini convenience store was surprisingly well stocked. There was a nice pool on our floor although we didn't have a chance to use. Everyone we interacted with was pleasant and got the job done. Great stay and great property, would definitely stay again.MoreShow less</t>
   </si>
   <si>
-    <t>March 2017</t>
-  </si>
-  <si>
     <t>Sureya A, Guest Relations Manager at Candlewood Suites Anaheim - Resort Area, responded to this reviewResponded May 12, 2017</t>
   </si>
   <si>
@@ -1027,9 +1875,6 @@
     <t>The property is approximately a 10 minute walk from the parks and 15 minutes from Downtown Disney. Brand new with great furnishings and large suites. We were in a one bedroom suite and very much enjoyed it. Wifi worked very well. The "Candlewood Cupboard" or mini convenience store was surprisingly well stocked. There was a nice pool on our floor although we didn't have a chance to use. Everyone we interacted with was pleasant and got the job done. Great stay and great property, would definitely stay again.More</t>
   </si>
   <si>
-    <t>PetiteGrace</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r467087819-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -1048,9 +1893,6 @@
     <t>This hotel is very close to Disneyland (about 5 minutes driving) with a walking distance Cheesecake Factory and other places nearby. Having a kitchen, it's a plus so you can save some money on food. The room was big and has a huge desk. I was so happy to do laundry for free (of course, bring your own detergent). There was a night I noticed the water in the shower was not hot at all and that is indispensable for me. I tried to call the front desk but they never picked up my room calls. The next day, I personally went to tell them about my concern and the guy told me it was an issue in the whole hotel. He apologized and explained me they were working on it. Thank God when I came back from the parks it was fixed. Also, if you are looking for a family pool I will suggest you check another hotel because it is tiny. In general, the staff was friendly and I consider it was a good place to stay!More</t>
   </si>
   <si>
-    <t>Stephanie o</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r462693826-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -1075,7 +1917,43 @@
     <t>The room is a great size.  It's wonderful to have a kitchen.  The beds are super comfortable!  BUT after a long day at Disneyland if you want to soak in a hot tub, forget it.  You get a cold pool.  Not a big deal.  But if you want a hot, or even warm shower, you might not get that either.  We didn't have hot water for a while.  And speaking of water, I just think a nice hotel like this ought to have filtered drinking water available for guests without charging $2 for Dasani. Also the elevator doors could be more clearly marked.  There are 2.  One leads to the parking garage and the other to the hotel lobby.  They both say 'lobby'.  A little confusing til you get your bearings.  Other than that it was a very comfortable stay.  More</t>
   </si>
   <si>
-    <t>burksmi</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r462130685-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>462130685</t>
+  </si>
+  <si>
+    <t>02/22/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great location </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The hotel is so close to Disneyland and reasonably priced. We had a kitchenette which helped a lot with eating in and cooking for the kids. The theme park dining options are expensive so this was a great plus. We were rained out of the park so we had to stay in. There were delivery options when we didn't want to cook. They have DVD players on loan with a decent movie selection. This came in very handy since their cable selections weren't very kid/family oriented. The housekeepers and maintenance we encountered were all very friendly. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r461353878-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>461353878</t>
+  </si>
+  <si>
+    <t>02/19/2017</t>
+  </si>
+  <si>
+    <t>Odd experience for a newly opened hotel</t>
+  </si>
+  <si>
+    <t>Three-stars for the hotel due to:Arriving close to 6pm (three hours after posted check-in time), room not ready yet,        advised to return after dinner - had to wait for cleaning even though the fridge had an opened drink and missing amenities when we checked-in? Heater making loud clicking sounds.Upstairs neighbors jumping up and down starting around 11:30pm.Getting a continuous busy signal when trying to call the front desk from the room (but got through on the first try using cell phone). Lack of hot water for showers, though lukewarm water was available (maintenance was working on it).Why I'm writing this review at 1am in the morning:I hope management reads this review and commends Charmaine Smith for excellent customer service! She came in response to our call regarding the heater.  When she couldn't fix the clicking noise, she was proactive and checked to see if we could be moved to a room down the hall that she had cleaned earlier.  She went to the room to double-check that the heater, TV, etc. were all functioning properly, gave us an opportunity to check the new room, and even went downstairs to make a new key and ensure a smooth transfer to the new room at 12:30 in the morning.  Now that's service!!We're staying here one more night.  Hopefully things will go more smoothly in the room Charmaine arranged for us.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Candlewood Suites Anaheim - Resort Area, responded to this reviewResponded March 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 7, 2017</t>
+  </si>
+  <si>
+    <t>Three-stars for the hotel due to:Arriving close to 6pm (three hours after posted check-in time), room not ready yet,        advised to return after dinner - had to wait for cleaning even though the fridge had an opened drink and missing amenities when we checked-in? Heater making loud clicking sounds.Upstairs neighbors jumping up and down starting around 11:30pm.Getting a continuous busy signal when trying to call the front desk from the room (but got through on the first try using cell phone). Lack of hot water for showers, though lukewarm water was available (maintenance was working on it).Why I'm writing this review at 1am in the morning:I hope management reads this review and commends Charmaine Smith for excellent customer service! She came in response to our call regarding the heater.  When she couldn't fix the clicking noise, she was proactive and checked to see if we could be moved to a room down the hall that she had cleaned earlier.  She went to the room to double-check that the heater, TV, etc. were all functioning properly, gave us an opportunity to check the new room, and even went downstairs to make a new key and ensure a smooth transfer to the new room at 12:30 in the morning.  Now that's service!!We're staying here one more night.  Hopefully things will go more smoothly in the room Charmaine arranged for us.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r459345048-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
@@ -1096,9 +1974,6 @@
     <t>Our family enjoyed our stay at Candlewood. Pros: -Separate bedroom with comfortable queen bed and TV. -Nice Kitchen area with cookware and 4 person dinnerware. Dishwasher, refrigerator, and 2 burner stove. -Comfortable living area with fold out couch and TV. -Clean &amp; New room and room amenities. -Staff was helpful with questions and keeping the room clean daily. -ART stops right out in front of the building. -Free washer &amp; dryer use, just BYO detergent Cons:-Found a trail of small ants after leaving a drink on the counter over night. Didn't bother me but might bother some. -No cribs available for loan or lease. Rough for the parents but our 2yr old loved the freedom of being able to roam around the room at 2am. Pros far out weigh the cons for us. We would definitely stay again, great room for the price. We walked to Disney most of the time, took about 20-30 mins to get to the gate with little ones. More</t>
   </si>
   <si>
-    <t>samsambamalam</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r458788764-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -1115,9 +1990,6 @@
   </si>
   <si>
     <t>We really enjoyed our stay at Candlewood Suites! We arrived early on our day of check in, but were able to be given our room immediately at 10am. The check in process was very simple and stress free. The room was clean and comfortable, very well furnished and it was excellent having a great kitchen to use! The recliner chair was incredibly comfortable! The check out process took only a minute, and was very simple and easy. The staff held our luggage for the afternoon while we waited for our shuttle to the airport.The hotel is very close to Disneyland, we happily walked to and from the parks each day which was execllent!!The only reason I can't give this hotel 5 stars is the noise levels in the room were quite high, with a large gap under the doors and voices being heard from the hallways and adjacent rooms. It wasn't too disruptive to our experience but it was not quite what I expected from a hotel.Overall we would definitely stay here again if we return to Anaheim!!More</t>
-  </si>
-  <si>
-    <t>loveducks</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r457140445-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
@@ -1145,7 +2017,52 @@
 Despite this i think this is a decent place to stay especially for families who want to make use of the kitchen. You also get 1 packet of coffee and 1 decaf coffee and a packet...Had some issues with checking in. The guy manning the reception checked us into a room that already has someone in there so i wasted about 30 mins back and forth the room and reception trying to get this sorted. There is no house phones on the floor so there's no option to call. The guy was surprised to hear that so he have me another room and i told him to walk with me in case the cards doesn't work again. Luckily 3rd time lucky and yes he can hear noises from the original room he checked me in.The walls are thin and there's a gap at the bottom of the door so light comes through when you switched off all lights for bed. There's also no shower gel (must be a USA thing) and the "facial" soap is very drying. I wouldn't recommend anyone with dry or sensitive skin to use it. The skin on my fingers are peeling off after a week of soap. We end up getting a body shower gel from the supermarket anyway. No showe cap and sanitary bags too. Toiletries provided are 2 bars of soap and a shampoo/conditioner. The heater also makes very loud sound.Despite this i think this is a decent place to stay especially for families who want to make use of the kitchen. You also get 1 packet of coffee and 1 decaf coffee and a packet of pocorn. room is big as well. And it's about 20mins walk to Disneyland.More</t>
   </si>
   <si>
-    <t>Megkeepers</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r455252170-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>455252170</t>
+  </si>
+  <si>
+    <t>01/27/2017</t>
+  </si>
+  <si>
+    <t>Clean rooms, awesome stay.</t>
+  </si>
+  <si>
+    <t>This place is new, big rooms and great service. Close to Disneyland and the convention centre. Great price and comfy beds. The housekeeping team does nice work. Good bang for the buck. I would defiantly return.MoreShow less</t>
+  </si>
+  <si>
+    <t>Kasee O, General Manager at Candlewood Suites Anaheim - Resort Area, responded to this reviewResponded January 31, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 31, 2017</t>
+  </si>
+  <si>
+    <t>This place is new, big rooms and great service. Close to Disneyland and the convention centre. Great price and comfy beds. The housekeeping team does nice work. Good bang for the buck. I would defiantly return.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r450827738-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>450827738</t>
+  </si>
+  <si>
+    <t>01/09/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best kept secret new hotel near Disney </t>
+  </si>
+  <si>
+    <t>Love the full suites with kitchen. I stayed two weeks so could cook my own meals and still earn IHG Rewards Club points. Economy price with all luxury feel. Parking garage for free and excellent outdoor heated poolMoreShow less</t>
+  </si>
+  <si>
+    <t>Kasee O, General Manager at Candlewood Suites Anaheim - Resort Area, responded to this reviewResponded January 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 11, 2017</t>
+  </si>
+  <si>
+    <t>Love the full suites with kitchen. I stayed two weeks so could cook my own meals and still earn IHG Rewards Club points. Economy price with all luxury feel. Parking garage for free and excellent outdoor heated poolMore</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r445469492-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
@@ -1176,12 +2093,6 @@
     <t>December 2016</t>
   </si>
   <si>
-    <t>Kasee O, General Manager at Candlewood Suites Anaheim - Resort Area, responded to this reviewResponded January 11, 2017</t>
-  </si>
-  <si>
-    <t>Responded January 11, 2017</t>
-  </si>
-  <si>
     <t>Pro's: 
 - Recently built, so everything is clean and brand new. 
 - The in-room kitchen is very convenient if you want to heat something up on the stove or in the microwave. There is a little store in the lobby with food, snacks, and drinks. 
@@ -1195,9 +2106,6 @@
 - Lots of traffic noise since it's right next to the freeway. Much too...Pro's: - Recently built, so everything is clean and brand new. - The in-room kitchen is very convenient if you want to heat something up on the stove or in the microwave. There is a little store in the lobby with food, snacks, and drinks. - We had two rooms - one of them had two bathrooms - which made it much easier to get ready with teenagers. - We made good use of the laundry room, with free washers and dryers - there is even a laundry basket in each room. We brought a few Tide Pods and fabric softener sheets from home. - We though the beds were VERY comfortable. Con's: - Had to wait for almost 2 hours because one of our rooms hadn't been cleaned yet - they said they didn't know the room was going to be used, even though we clearly had reserved that room type. Very annoying after riding in the car for 8 hours, we just wanted to check in and rest.- Our room keys stopped working several hours before the 11am check-out time, stranding us outside while trying to load the kids and luggage. - It was SO LOUD being in a room near the gym, as the weight lifters come in very early and don't have any problem constantly dropping their barbells on the floor. - Lots of traffic noise since it's right next to the freeway. Much too loud to open the windows. - Within walking distance to Disneyland, but it's a long walk. The walk back to the hotel at night was long, dark, and deserted - we were not at all comfortable, and ended up taking a taxi. Too Long/Didn't Read? Nice enough hotel while it's still new, but I wasn't as impressed as I expected to be, and I don't plan on staying here again.More</t>
   </si>
   <si>
-    <t>Trailblazer2012</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r441013988-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -1219,9 +2127,6 @@
     <t>Great stay at new hotel walking distance to Disneyland. Parking on 1st and 2nd floors with awesome exercise equipment in gym. The bicycle or spinner is great for those of us that have damaged our knees but still need to exercise on a daily basis away from home. The room rates were affordable considering the hotel is so close to Disneyland. And for those who are staying more than a week, the laundry room is huge, 6 large dryers, 5 large washers...no coins needed. One minor problem, management needs to post translation from symbols to English in order to operate the washers.More</t>
   </si>
   <si>
-    <t>Tapiafam</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r440949177-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -1237,7 +2142,55 @@
     <t>We've been coming to Disneyland for years and this is our first time staying here at the candlewood on Anaheim VERY close to the Disney park right off the 5 fwy what a great experience we had we stayed for a couple of days the staff is very helpful and the rooms are very clean. It seems as if it has just been remodeled all new carpet beds sheets towels appliances etc. we will definitely be back on our next trip to Disneyland. We highly recommend this place the other hotels don't stand a chance  with this oneMore</t>
   </si>
   <si>
-    <t>Karen T</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r439550278-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>439550278</t>
+  </si>
+  <si>
+    <t>11/23/2016</t>
+  </si>
+  <si>
+    <t>SERVICE! SERVICE! SERVICE!</t>
+  </si>
+  <si>
+    <t>Stayed at the hotel 3 months ago, the week it opened. I have stayed at other Candlewood Suites and this location did not disappoint. The Front Desk Agent (a young slim light skinned male) welcomed me and shared they just had opened that week. He provide me with a verbal layout of the hotel. I love the set up and parking. Rooms are spacious and quiet.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Stayed at the hotel 3 months ago, the week it opened. I have stayed at other Candlewood Suites and this location did not disappoint. The Front Desk Agent (a young slim light skinned male) welcomed me and shared they just had opened that week. He provide me with a verbal layout of the hotel. I love the set up and parking. Rooms are spacious and quiet.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r436962587-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>436962587</t>
+  </si>
+  <si>
+    <t>11/13/2016</t>
+  </si>
+  <si>
+    <t>New Hotel</t>
+  </si>
+  <si>
+    <t>Business trip turned Disney trip. We would give the hotel a full Excellent rating but we missed having a shuttle service, maybe that's and add-on for the future. There is a bus service but it wasn't as inviting you have to pay a flat fee and have access for the whole day but when you want to get to Disneyland ASAP it's not as convenient. We took Lyft most of the time and walked once (20 minute walk)**advice for the ride share users- we don't know if it was due to the hotel being new or the maps being out of whack but talk to your driver and give directions; we had several drivers be misdirected and get lost**Every room is equip with a full kitchenette and a complementary bag of popcorn. Even though we made no use of it, we really liked that they have additional item available to "borrow." The bed was awesome, very comfy. The location was convenient and the staff was friendly. We will be coming back.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Kasee O, General Manager at Candlewood Suites Anaheim - Resort Area, responded to this reviewResponded November 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 23, 2016</t>
+  </si>
+  <si>
+    <t>Business trip turned Disney trip. We would give the hotel a full Excellent rating but we missed having a shuttle service, maybe that's and add-on for the future. There is a bus service but it wasn't as inviting you have to pay a flat fee and have access for the whole day but when you want to get to Disneyland ASAP it's not as convenient. We took Lyft most of the time and walked once (20 minute walk)**advice for the ride share users- we don't know if it was due to the hotel being new or the maps being out of whack but talk to your driver and give directions; we had several drivers be misdirected and get lost**Every room is equip with a full kitchenette and a complementary bag of popcorn. Even though we made no use of it, we really liked that they have additional item available to "borrow." The bed was awesome, very comfy. The location was convenient and the staff was friendly. We will be coming back.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r431967218-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
@@ -1255,9 +2208,6 @@
     <t>I really enjoyed staying at this hotel location. Our room was pretty clean. Was nice and quiet during the night. I am usually a light sleeper so it was nice. The beds were nice and comfy. The staff was always so nice. We ended up walking to Disneyland the first day. Took maybe about 15 minutes to walk there. There is a bus that you can ride over to Disneyland that stops right outside the hotel on the street. And to come back they drop you right off at the same spot and they do come throughout the day I believe. Coming back from Disneyland it was bus #6 and for 2 adults and 1 child it was like $7.00 I think it was for one way. My husband and granddaughter went swimming one afternoon and they didn't stay long in the pool because there were so many bee's out there by the pool. The housekeeping can do a better cleaning job in the hall ways and keeping the elevators clean. I loved how we were able to wash clothes for free and there were no time that they closed it. Need to bring your own laundry soap if you want something other then All laundry detergent that they sell downstairs. They didn't have any Bounce for sale so maybe bring your own. We walked to the laundromat not to far for Tide and Bounce. There were quite a few...I really enjoyed staying at this hotel location. Our room was pretty clean. Was nice and quiet during the night. I am usually a light sleeper so it was nice. The beds were nice and comfy. The staff was always so nice. We ended up walking to Disneyland the first day. Took maybe about 15 minutes to walk there. There is a bus that you can ride over to Disneyland that stops right outside the hotel on the street. And to come back they drop you right off at the same spot and they do come throughout the day I believe. Coming back from Disneyland it was bus #6 and for 2 adults and 1 child it was like $7.00 I think it was for one way. My husband and granddaughter went swimming one afternoon and they didn't stay long in the pool because there were so many bee's out there by the pool. The housekeeping can do a better cleaning job in the hall ways and keeping the elevators clean. I loved how we were able to wash clothes for free and there were no time that they closed it. Need to bring your own laundry soap if you want something other then All laundry detergent that they sell downstairs. They didn't have any Bounce for sale so maybe bring your own. We walked to the laundromat not to far for Tide and Bounce. There were quite a few sketchy people by the laundromat so I suggest bring your own if you can. I would come back and stay here again. Oh and if you are planning on bringing a kid to Disneyland and think they might want to buy some Minnie Mouse ears I would suggest buy some before you go. We paid $35.00 for Minnie Mouse ears and when we went to Walgreen's in Seattle after our trip and saw some there for $5.99!MoreShow less</t>
   </si>
   <si>
-    <t>October 2016</t>
-  </si>
-  <si>
     <t>Kasee O, General Manager at Candlewood Suites Anaheim - Resort Area, responded to this reviewResponded October 28, 2016</t>
   </si>
   <si>
@@ -1267,9 +2217,6 @@
     <t>I really enjoyed staying at this hotel location. Our room was pretty clean. Was nice and quiet during the night. I am usually a light sleeper so it was nice. The beds were nice and comfy. The staff was always so nice. We ended up walking to Disneyland the first day. Took maybe about 15 minutes to walk there. There is a bus that you can ride over to Disneyland that stops right outside the hotel on the street. And to come back they drop you right off at the same spot and they do come throughout the day I believe. Coming back from Disneyland it was bus #6 and for 2 adults and 1 child it was like $7.00 I think it was for one way. My husband and granddaughter went swimming one afternoon and they didn't stay long in the pool because there were so many bee's out there by the pool. The housekeeping can do a better cleaning job in the hall ways and keeping the elevators clean. I loved how we were able to wash clothes for free and there were no time that they closed it. Need to bring your own laundry soap if you want something other then All laundry detergent that they sell downstairs. They didn't have any Bounce for sale so maybe bring your own. We walked to the laundromat not to far for Tide and Bounce. There were quite a few...I really enjoyed staying at this hotel location. Our room was pretty clean. Was nice and quiet during the night. I am usually a light sleeper so it was nice. The beds were nice and comfy. The staff was always so nice. We ended up walking to Disneyland the first day. Took maybe about 15 minutes to walk there. There is a bus that you can ride over to Disneyland that stops right outside the hotel on the street. And to come back they drop you right off at the same spot and they do come throughout the day I believe. Coming back from Disneyland it was bus #6 and for 2 adults and 1 child it was like $7.00 I think it was for one way. My husband and granddaughter went swimming one afternoon and they didn't stay long in the pool because there were so many bee's out there by the pool. The housekeeping can do a better cleaning job in the hall ways and keeping the elevators clean. I loved how we were able to wash clothes for free and there were no time that they closed it. Need to bring your own laundry soap if you want something other then All laundry detergent that they sell downstairs. They didn't have any Bounce for sale so maybe bring your own. We walked to the laundromat not to far for Tide and Bounce. There were quite a few sketchy people by the laundromat so I suggest bring your own if you can. I would come back and stay here again. Oh and if you are planning on bringing a kid to Disneyland and think they might want to buy some Minnie Mouse ears I would suggest buy some before you go. We paid $35.00 for Minnie Mouse ears and when we went to Walgreen's in Seattle after our trip and saw some there for $5.99!More</t>
   </si>
   <si>
-    <t>richknebel</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r429885235-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -1294,9 +2241,6 @@
     <t>10-15 minute walk depending on speed. It's simply two turns to Disneyland. Close to a cvs and Walgreens for fresh offerings. Clean, modern &amp; pleasant staff. I picked this hotel based on value and proximity to Disneyland. Booked a one bedroom suite, and the kitchen was perfect for my child and I to have some breakfasts and dinners. Close enough you can leave the parks for a meal at the hotel. Would highly recommend this place. More</t>
   </si>
   <si>
-    <t>Mema M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r429356866-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -1315,7 +2259,40 @@
     <t>Stayed 1 night here to go to Disney and we wish we would have stayed more nights. Our room was huge and new! Full bedroom, HUGE Bathroom, full kitchen and living room with a sleeper sofa, hardwood floors and granite counters. It was like being in an apartment.  Has pool, free parking and a little shop with snacks and drinks. Took a $6 Uber to Disney! I would stay here again in a heartbeat!More</t>
   </si>
   <si>
-    <t>Howard W</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r428842554-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>428842554</t>
+  </si>
+  <si>
+    <t>10/17/2016</t>
+  </si>
+  <si>
+    <t>Disneyland</t>
+  </si>
+  <si>
+    <t>Great Hotel close to Disney. Very Clean. Late night front desk staff not friendly at all. We almost did not stay because of the attitude of the workers but when we got to our room we were not leaving. It was so nice and clean. I highly recommend this place! Maybe they were just having a bad day. I would definitely give them another chance.MoreShow less</t>
+  </si>
+  <si>
+    <t>Great Hotel close to Disney. Very Clean. Late night front desk staff not friendly at all. We almost did not stay because of the attitude of the workers but when we got to our room we were not leaving. It was so nice and clean. I highly recommend this place! Maybe they were just having a bad day. I would definitely give them another chance.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r428613232-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>428613232</t>
+  </si>
+  <si>
+    <t>10/16/2016</t>
+  </si>
+  <si>
+    <t>Spacious rooms, comfortable beds, and easy to get to Disney!</t>
+  </si>
+  <si>
+    <t>This hotel was clean and comfortable and had spacious rooms, with really great kitchenette appliances.  The lobby also had more than the typical small items:  it was like a small store of items you could buy:  boxes of cereal, milk, soda, beer, etc.  Some uber drivers struggled to navigate the entrance:  it is tucked among hotels and a bit confusing...  But overall, it was a great, great hotel that had easy access to Disney for a fraction of the price of other hotels.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel was clean and comfortable and had spacious rooms, with really great kitchenette appliances.  The lobby also had more than the typical small items:  it was like a small store of items you could buy:  boxes of cereal, milk, soda, beer, etc.  Some uber drivers struggled to navigate the entrance:  it is tucked among hotels and a bit confusing...  But overall, it was a great, great hotel that had easy access to Disney for a fraction of the price of other hotels.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r427177264-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
@@ -1336,9 +2313,6 @@
     <t>Upon checking in I was informed their computer system was out.  While it took a few minutes to check in, they were very friendly and apologized. The rooms are really setup for business travelers as they have a kitchen with a full refrigerator, stove, dishwasher, nice works space and plenty of room to more around.While their system was out and may have slowed me down a minute or so, I would  stay at this property again.The location is close to Disneyland, the convention center, and a close drive to many restaurants.More</t>
   </si>
   <si>
-    <t>wheretonext123</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r426398990-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -1357,9 +2331,6 @@
     <t>The room itself is very comfortable.  Has free wifi. It has a nice big desk area with chair.  there is also a recliner.  The kitchenette has a 2 burner stove top, convection oven and full size frig.  The kitchen is equipped well enough for you to cook and eat. They provide an iron and board, coffee, hair dryer, shampoo &amp; conditioner.  The towels and sheets are good quality.  I’m not positive but believe the only size bed is queen.  It’s ok but not as soft as I prefer.  In the lobby they have items you can check out like crock pot, DVR and videos and many other items.  They also have several food items for sale.  Two things I did not like.  The bathroom has an automatic light that turns on as you walk in the room.  Now that’s fine normally, but when you get up in the middle of the night, it wakes you up.  They will tell you to stop this to push the button and it will go off and stay off.  But that is not true.  It somehow resets itself.  There is no safe in the room.  As do many European hotels, the air conditioner does not work unless you are in the room.  This property has it’s parking under the hotel.  Not really underground, just under it.  The property is about a city block from Disneyland.  It is walking distance to many places to eat...The room itself is very comfortable.  Has free wifi. It has a nice big desk area with chair.  there is also a recliner.  The kitchenette has a 2 burner stove top, convection oven and full size frig.  The kitchen is equipped well enough for you to cook and eat. They provide an iron and board, coffee, hair dryer, shampoo &amp; conditioner.  The towels and sheets are good quality.  I’m not positive but believe the only size bed is queen.  It’s ok but not as soft as I prefer.  In the lobby they have items you can check out like crock pot, DVR and videos and many other items.  They also have several food items for sale.  Two things I did not like.  The bathroom has an automatic light that turns on as you walk in the room.  Now that’s fine normally, but when you get up in the middle of the night, it wakes you up.  They will tell you to stop this to push the button and it will go off and stay off.  But that is not true.  It somehow resets itself.  There is no safe in the room.  As do many European hotels, the air conditioner does not work unless you are in the room.  This property has it’s parking under the hotel.  Not really underground, just under it.  The property is about a city block from Disneyland.  It is walking distance to many places to eat like PJ Changs, Cheese Cake Factory, Bubba Gumps.  Overall it’s a nice place and we’d stay there again.More</t>
   </si>
   <si>
-    <t>MarthaB5515</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r424458892-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
   </si>
   <si>
@@ -1375,9 +2346,6 @@
     <t>We arrived around 10pm and were pleasantly surprised by the amenities in the room!  Full refrigerator, completely stocked kitchen with cabinets, stove top, silverware, etc. Unfortunately, there were ants by the AC.  We called the office, and they gave us another room on the same floor.  Once again, there were ants.  It was hot, and I'm sure they were looking for water.  Anyway, we called down to the office again, and were switched to another room, and another floor.  All the staff was apologetic, professional, concerned with our satisfaction, and eager to help in any way, including moving our things.  Our third room was ant-free.  We were told that that the room would cool down soon, because the AC had just been turned on.  Unfortunately, the fan worked, but there was no cool air.  By this time, we were exhausted and just went to bed.  The next morning, we went to the office to let them know that the AC needed fixing.  Once again, the staff was apologetic, professional, and offered to compensate us for our trouble. They also gave us keys to another room so that when we returned from our day at Disneyland we could take our things there.  The final room was perfect! This hotel just opened a few weeks ago, and they are in the process of getting out all the kinks.  The rooms were clean, well designed, and well equipped for a single night or...We arrived around 10pm and were pleasantly surprised by the amenities in the room!  Full refrigerator, completely stocked kitchen with cabinets, stove top, silverware, etc. Unfortunately, there were ants by the AC.  We called the office, and they gave us another room on the same floor.  Once again, there were ants.  It was hot, and I'm sure they were looking for water.  Anyway, we called down to the office again, and were switched to another room, and another floor.  All the staff was apologetic, professional, concerned with our satisfaction, and eager to help in any way, including moving our things.  Our third room was ant-free.  We were told that that the room would cool down soon, because the AC had just been turned on.  Unfortunately, the fan worked, but there was no cool air.  By this time, we were exhausted and just went to bed.  The next morning, we went to the office to let them know that the AC needed fixing.  Once again, the staff was apologetic, professional, and offered to compensate us for our trouble. They also gave us keys to another room so that when we returned from our day at Disneyland we could take our things there.  The final room was perfect! This hotel just opened a few weeks ago, and they are in the process of getting out all the kinks.  The rooms were clean, well designed, and well equipped for a single night or an extended stay.  We didn't explore the rest of the hotel, but we liked the parts that we saw. The staff was excellent and we appreciated the features and amenities of the rooms.MoreShow less</t>
   </si>
   <si>
-    <t>September 2016</t>
-  </si>
-  <si>
     <t>Kasee O, General Manager at Candlewood Suites Anaheim - Resort Area, responded to this reviewResponded October 4, 2016</t>
   </si>
   <si>
@@ -1385,6 +2353,30 @@
   </si>
   <si>
     <t>We arrived around 10pm and were pleasantly surprised by the amenities in the room!  Full refrigerator, completely stocked kitchen with cabinets, stove top, silverware, etc. Unfortunately, there were ants by the AC.  We called the office, and they gave us another room on the same floor.  Once again, there were ants.  It was hot, and I'm sure they were looking for water.  Anyway, we called down to the office again, and were switched to another room, and another floor.  All the staff was apologetic, professional, concerned with our satisfaction, and eager to help in any way, including moving our things.  Our third room was ant-free.  We were told that that the room would cool down soon, because the AC had just been turned on.  Unfortunately, the fan worked, but there was no cool air.  By this time, we were exhausted and just went to bed.  The next morning, we went to the office to let them know that the AC needed fixing.  Once again, the staff was apologetic, professional, and offered to compensate us for our trouble. They also gave us keys to another room so that when we returned from our day at Disneyland we could take our things there.  The final room was perfect! This hotel just opened a few weeks ago, and they are in the process of getting out all the kinks.  The rooms were clean, well designed, and well equipped for a single night or...We arrived around 10pm and were pleasantly surprised by the amenities in the room!  Full refrigerator, completely stocked kitchen with cabinets, stove top, silverware, etc. Unfortunately, there were ants by the AC.  We called the office, and they gave us another room on the same floor.  Once again, there were ants.  It was hot, and I'm sure they were looking for water.  Anyway, we called down to the office again, and were switched to another room, and another floor.  All the staff was apologetic, professional, concerned with our satisfaction, and eager to help in any way, including moving our things.  Our third room was ant-free.  We were told that that the room would cool down soon, because the AC had just been turned on.  Unfortunately, the fan worked, but there was no cool air.  By this time, we were exhausted and just went to bed.  The next morning, we went to the office to let them know that the AC needed fixing.  Once again, the staff was apologetic, professional, and offered to compensate us for our trouble. They also gave us keys to another room so that when we returned from our day at Disneyland we could take our things there.  The final room was perfect! This hotel just opened a few weeks ago, and they are in the process of getting out all the kinks.  The rooms were clean, well designed, and well equipped for a single night or an extended stay.  We didn't explore the rest of the hotel, but we liked the parts that we saw. The staff was excellent and we appreciated the features and amenities of the rooms.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d10372357-r415159698-Candlewood_Suites_Anaheim_Resort_Area-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>415159698</t>
+  </si>
+  <si>
+    <t>09/05/2016</t>
+  </si>
+  <si>
+    <t>fantastic</t>
+  </si>
+  <si>
+    <t>this hotel was great... we made reservations and they were not sure they would open in the time we had reservations from since it was a new hotel.. however gene and kacey were in constant contact with me to let me know if we would be able to stay. they even stated if they did not open they would place us at another hotel close by in there chain. from the general manager gene, to manager kacey to the staff like kenny.. we loved the hotel and location. its maybe 0.7 miles walking from disneyland, and 15 minutes by bus. the hotel has a use locker which you can borrow a george foreman grill, 12 cup coffee pot, blenders, toaster oven. the room... we stayed in 2 different units. 1st unit 2 queen beds and all room come with full size kitchen minus the oven. was great to the 1 bedroom king size bed with a full size couch pull out and a chair that is a single bed. all fantastic. the only reason we had 2 different rooms and the hotel was above and beyond accommodating was the west coast extreme basketball team was there and they were horrible.. on a friday night at 1215 am they checked in with like 4 charpones for 50 teens and the teens were yelling, screaming, hitting walls, having full length of hotel conversation and no respect for anyone else sleeping. they people...this hotel was great... we made reservations and they were not sure they would open in the time we had reservations from since it was a new hotel.. however gene and kacey were in constant contact with me to let me know if we would be able to stay. they even stated if they did not open they would place us at another hotel close by in there chain. from the general manager gene, to manager kacey to the staff like kenny.. we loved the hotel and location. its maybe 0.7 miles walking from disneyland, and 15 minutes by bus. the hotel has a use locker which you can borrow a george foreman grill, 12 cup coffee pot, blenders, toaster oven. the room... we stayed in 2 different units. 1st unit 2 queen beds and all room come with full size kitchen minus the oven. was great to the 1 bedroom king size bed with a full size couch pull out and a chair that is a single bed. all fantastic. the only reason we had 2 different rooms and the hotel was above and beyond accommodating was the west coast extreme basketball team was there and they were horrible.. on a friday night at 1215 am they checked in with like 4 charpones for 50 teens and the teens were yelling, screaming, hitting walls, having full length of hotel conversation and no respect for anyone else sleeping. they people next to us their babys screamed till four with the amount of door slamming and yelling across the hall. when i talked to the staff in the am they said they would talk to the coaches and the management. the next night after being moved off the teen floor we slept good. it was amazing the 4 chaperones were on floor 6 and the 25 teens were on floor 5 causing chos and smoking pot in the elevator and being rude to all other customers. sad thing was they were really rude to staff..i have nothing but respect dealing with the shabby teens and west coast extreme basketball people as the teens and parents were nothing less than low class and shabby for not respecting all other customers, staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>Kasee O, General Manager at Candlewood Suites Anaheim - Resort Area, responded to this reviewResponded September 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 9, 2016</t>
+  </si>
+  <si>
+    <t>this hotel was great... we made reservations and they were not sure they would open in the time we had reservations from since it was a new hotel.. however gene and kacey were in constant contact with me to let me know if we would be able to stay. they even stated if they did not open they would place us at another hotel close by in there chain. from the general manager gene, to manager kacey to the staff like kenny.. we loved the hotel and location. its maybe 0.7 miles walking from disneyland, and 15 minutes by bus. the hotel has a use locker which you can borrow a george foreman grill, 12 cup coffee pot, blenders, toaster oven. the room... we stayed in 2 different units. 1st unit 2 queen beds and all room come with full size kitchen minus the oven. was great to the 1 bedroom king size bed with a full size couch pull out and a chair that is a single bed. all fantastic. the only reason we had 2 different rooms and the hotel was above and beyond accommodating was the west coast extreme basketball team was there and they were horrible.. on a friday night at 1215 am they checked in with like 4 charpones for 50 teens and the teens were yelling, screaming, hitting walls, having full length of hotel conversation and no respect for anyone else sleeping. they people...this hotel was great... we made reservations and they were not sure they would open in the time we had reservations from since it was a new hotel.. however gene and kacey were in constant contact with me to let me know if we would be able to stay. they even stated if they did not open they would place us at another hotel close by in there chain. from the general manager gene, to manager kacey to the staff like kenny.. we loved the hotel and location. its maybe 0.7 miles walking from disneyland, and 15 minutes by bus. the hotel has a use locker which you can borrow a george foreman grill, 12 cup coffee pot, blenders, toaster oven. the room... we stayed in 2 different units. 1st unit 2 queen beds and all room come with full size kitchen minus the oven. was great to the 1 bedroom king size bed with a full size couch pull out and a chair that is a single bed. all fantastic. the only reason we had 2 different rooms and the hotel was above and beyond accommodating was the west coast extreme basketball team was there and they were horrible.. on a friday night at 1215 am they checked in with like 4 charpones for 50 teens and the teens were yelling, screaming, hitting walls, having full length of hotel conversation and no respect for anyone else sleeping. they people next to us their babys screamed till four with the amount of door slamming and yelling across the hall. when i talked to the staff in the am they said they would talk to the coaches and the management. the next night after being moved off the teen floor we slept good. it was amazing the 4 chaperones were on floor 6 and the 25 teens were on floor 5 causing chos and smoking pot in the elevator and being rude to all other customers. sad thing was they were really rude to staff..i have nothing but respect dealing with the shabby teens and west coast extreme basketball people as the teens and parents were nothing less than low class and shabby for not respecting all other customers, staff.More</t>
   </si>
 </sst>
 </file>
@@ -1889,111 +2881,101 @@
       <c r="A2" t="n">
         <v>52261</v>
       </c>
-      <c r="B2" t="n">
-        <v>31558</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
-        <v>46</v>
-      </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
         <v>52</v>
       </c>
-      <c r="M2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="O2" t="s">
-        <v>54</v>
-      </c>
-      <c r="P2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>4</v>
-      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>5</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>52261</v>
       </c>
-      <c r="B3" t="n">
-        <v>160691</v>
-      </c>
-      <c r="C3" t="s">
-        <v>55</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
         <v>56</v>
       </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>57</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>58</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
         <v>59</v>
       </c>
-      <c r="L3" t="s">
-        <v>60</v>
-      </c>
-      <c r="M3" t="n">
-        <v>4</v>
-      </c>
-      <c r="N3" t="s"/>
-      <c r="O3" t="s"/>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
@@ -2004,60 +2986,56 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
+        <v>60</v>
+      </c>
+      <c r="X3" t="s">
         <v>61</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>62</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>52261</v>
       </c>
-      <c r="B4" t="n">
-        <v>160692</v>
-      </c>
-      <c r="C4" t="s">
-        <v>64</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
         <v>65</v>
       </c>
-      <c r="G4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>66</v>
       </c>
-      <c r="J4" t="s">
-        <v>58</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>67</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
         <v>68</v>
-      </c>
-      <c r="M4" t="n">
-        <v>4</v>
-      </c>
-      <c r="N4" t="s">
-        <v>69</v>
-      </c>
-      <c r="O4" t="s">
-        <v>70</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2068,130 +3046,110 @@
       <c r="V4" t="n">
         <v>0</v>
       </c>
-      <c r="W4" t="s">
-        <v>61</v>
-      </c>
-      <c r="X4" t="s">
-        <v>62</v>
-      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>52261</v>
       </c>
-      <c r="B5" t="n">
-        <v>160693</v>
-      </c>
-      <c r="C5" t="s">
-        <v>72</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" t="s">
         <v>73</v>
       </c>
-      <c r="G5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" t="s">
-        <v>74</v>
-      </c>
-      <c r="J5" t="s">
-        <v>75</v>
-      </c>
-      <c r="K5" t="s">
-        <v>76</v>
-      </c>
-      <c r="L5" t="s">
-        <v>77</v>
-      </c>
       <c r="M5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O5" t="s">
         <v>53</v>
       </c>
-      <c r="O5" t="s">
-        <v>54</v>
-      </c>
       <c r="P5" t="s"/>
-      <c r="Q5" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>5</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s">
-        <v>78</v>
-      </c>
-      <c r="X5" t="s">
-        <v>79</v>
-      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>52261</v>
       </c>
-      <c r="B6" t="n">
-        <v>160694</v>
-      </c>
-      <c r="C6" t="s">
-        <v>81</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="J6" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="K6" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="L6" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="O6" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2202,130 +3160,110 @@
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s">
-        <v>87</v>
-      </c>
-      <c r="X6" t="s">
-        <v>88</v>
-      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>52261</v>
       </c>
-      <c r="B7" t="n">
-        <v>160695</v>
-      </c>
-      <c r="C7" t="s">
-        <v>90</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J7" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K7" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="L7" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="M7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N7" t="s">
+        <v>79</v>
+      </c>
+      <c r="O7" t="s">
         <v>53</v>
       </c>
-      <c r="O7" t="s">
-        <v>54</v>
-      </c>
       <c r="P7" t="s"/>
-      <c r="Q7" t="n">
-        <v>3</v>
-      </c>
-      <c r="R7" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
       <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s">
-        <v>96</v>
-      </c>
-      <c r="X7" t="s">
-        <v>97</v>
-      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>52261</v>
       </c>
-      <c r="B8" t="n">
-        <v>160696</v>
-      </c>
-      <c r="C8" t="s">
-        <v>99</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="J8" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="K8" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="L8" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="O8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2336,61 +3274,53 @@
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s">
-        <v>106</v>
-      </c>
-      <c r="X8" t="s">
-        <v>107</v>
-      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>52261</v>
       </c>
-      <c r="B9" t="n">
-        <v>66737</v>
-      </c>
-      <c r="C9" t="s">
-        <v>109</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="J9" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="K9" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="L9" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="O9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2404,61 +3334,55 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>52261</v>
       </c>
-      <c r="B10" t="n">
-        <v>160697</v>
-      </c>
-      <c r="C10" t="s">
-        <v>115</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="J10" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="K10" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="L10" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>121</v>
+        <v>79</v>
       </c>
       <c r="O10" t="s">
-        <v>54</v>
-      </c>
-      <c r="P10" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
       <c r="R10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
@@ -2471,121 +3395,107 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>52261</v>
       </c>
-      <c r="B11" t="n">
-        <v>44154</v>
-      </c>
-      <c r="C11" t="s">
-        <v>122</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="J11" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="K11" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="L11" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="M11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>128</v>
+        <v>79</v>
       </c>
       <c r="O11" t="s">
-        <v>129</v>
+        <v>53</v>
       </c>
       <c r="P11" t="s"/>
-      <c r="Q11" t="n">
-        <v>4</v>
-      </c>
-      <c r="R11" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>5</v>
-      </c>
+      <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>52261</v>
       </c>
-      <c r="B12" t="n">
-        <v>160698</v>
-      </c>
-      <c r="C12" t="s">
-        <v>130</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="J12" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="K12" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="L12" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="M12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>121</v>
+        <v>79</v>
       </c>
       <c r="O12" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2599,125 +3509,107 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>52261</v>
       </c>
-      <c r="B13" t="n">
-        <v>5292</v>
-      </c>
-      <c r="C13" t="s">
-        <v>136</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="J13" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="K13" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="L13" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="M13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>142</v>
+        <v>79</v>
       </c>
       <c r="O13" t="s">
-        <v>143</v>
+        <v>53</v>
       </c>
       <c r="P13" t="s"/>
-      <c r="Q13" t="n">
-        <v>3</v>
-      </c>
-      <c r="R13" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>5</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s">
-        <v>144</v>
-      </c>
-      <c r="X13" t="s">
-        <v>145</v>
-      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>146</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>52261</v>
       </c>
-      <c r="B14" t="n">
-        <v>160699</v>
-      </c>
-      <c r="C14" t="s">
-        <v>147</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>148</v>
+        <v>116</v>
       </c>
       <c r="G14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>149</v>
+        <v>117</v>
       </c>
       <c r="J14" t="s">
-        <v>150</v>
+        <v>113</v>
       </c>
       <c r="K14" t="s">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="L14" t="s">
-        <v>152</v>
+        <v>119</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>142</v>
+        <v>79</v>
       </c>
       <c r="O14" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2731,54 +3623,50 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>153</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>52261</v>
       </c>
-      <c r="B15" t="n">
-        <v>12675</v>
-      </c>
-      <c r="C15" t="s">
-        <v>154</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c r="G15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>156</v>
+        <v>121</v>
       </c>
       <c r="J15" t="s">
-        <v>157</v>
+        <v>122</v>
       </c>
       <c r="K15" t="s">
-        <v>158</v>
+        <v>123</v>
       </c>
       <c r="L15" t="s">
-        <v>159</v>
+        <v>124</v>
       </c>
       <c r="M15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="O15" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2792,54 +3680,50 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>161</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>52261</v>
       </c>
-      <c r="B16" t="n">
-        <v>160700</v>
-      </c>
-      <c r="C16" t="s">
-        <v>162</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>163</v>
+        <v>125</v>
       </c>
       <c r="G16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>164</v>
+        <v>126</v>
       </c>
       <c r="J16" t="s">
-        <v>165</v>
+        <v>127</v>
       </c>
       <c r="K16" t="s">
-        <v>166</v>
+        <v>128</v>
       </c>
       <c r="L16" t="s">
-        <v>167</v>
+        <v>129</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>160</v>
+        <v>95</v>
       </c>
       <c r="O16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2850,119 +3734,125 @@
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s"/>
-      <c r="X16" t="s"/>
+      <c r="W16" t="s">
+        <v>130</v>
+      </c>
+      <c r="X16" t="s">
+        <v>131</v>
+      </c>
       <c r="Y16" t="s">
-        <v>167</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>52261</v>
       </c>
-      <c r="B17" t="n">
-        <v>30472</v>
-      </c>
-      <c r="C17" t="s">
-        <v>168</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>169</v>
+        <v>133</v>
       </c>
       <c r="G17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="J17" t="s">
-        <v>171</v>
+        <v>135</v>
       </c>
       <c r="K17" t="s">
-        <v>172</v>
+        <v>136</v>
       </c>
       <c r="L17" t="s">
-        <v>173</v>
+        <v>137</v>
       </c>
       <c r="M17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>174</v>
+        <v>79</v>
       </c>
       <c r="O17" t="s">
-        <v>70</v>
-      </c>
-      <c r="P17" t="s"/>
-      <c r="Q17" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
       <c r="R17" t="s"/>
       <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>175</v>
+        <v>130</v>
       </c>
       <c r="X17" t="s">
-        <v>176</v>
+        <v>131</v>
       </c>
       <c r="Y17" t="s">
-        <v>177</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>52261</v>
       </c>
-      <c r="B18" t="n">
-        <v>160701</v>
-      </c>
-      <c r="C18" t="s">
-        <v>178</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>179</v>
+        <v>139</v>
       </c>
       <c r="G18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="J18" t="s">
-        <v>181</v>
+        <v>135</v>
       </c>
       <c r="K18" t="s">
-        <v>182</v>
+        <v>141</v>
       </c>
       <c r="L18" t="s">
-        <v>183</v>
+        <v>142</v>
       </c>
       <c r="M18" t="n">
-        <v>3</v>
-      </c>
-      <c r="N18" t="s"/>
-      <c r="O18" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>79</v>
+      </c>
+      <c r="O18" t="s">
+        <v>68</v>
+      </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
       <c r="R18" t="s"/>
@@ -2973,129 +3863,117 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>184</v>
+        <v>130</v>
       </c>
       <c r="X18" t="s">
-        <v>185</v>
+        <v>131</v>
       </c>
       <c r="Y18" t="s">
-        <v>186</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>52261</v>
       </c>
-      <c r="B19" t="n">
-        <v>160702</v>
-      </c>
-      <c r="C19" t="s">
-        <v>187</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>188</v>
+        <v>144</v>
       </c>
       <c r="G19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>189</v>
+        <v>145</v>
       </c>
       <c r="J19" t="s">
-        <v>190</v>
+        <v>135</v>
       </c>
       <c r="K19" t="s">
-        <v>191</v>
+        <v>146</v>
       </c>
       <c r="L19" t="s">
-        <v>192</v>
+        <v>147</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>193</v>
+        <v>79</v>
       </c>
       <c r="O19" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
-      <c r="R19" t="n">
-        <v>5</v>
-      </c>
+      <c r="R19" t="s"/>
       <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="n">
-        <v>4</v>
-      </c>
+      <c r="U19" t="s"/>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="X19" t="s">
-        <v>195</v>
+        <v>131</v>
       </c>
       <c r="Y19" t="s">
-        <v>196</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>52261</v>
       </c>
-      <c r="B20" t="n">
-        <v>160703</v>
-      </c>
-      <c r="C20" t="s">
-        <v>197</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>198</v>
+        <v>149</v>
       </c>
       <c r="G20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>199</v>
+        <v>150</v>
       </c>
       <c r="J20" t="s">
-        <v>200</v>
+        <v>151</v>
       </c>
       <c r="K20" t="s">
-        <v>201</v>
+        <v>152</v>
       </c>
       <c r="L20" t="s">
-        <v>202</v>
+        <v>153</v>
       </c>
       <c r="M20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>203</v>
+        <v>95</v>
       </c>
       <c r="O20" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -3107,127 +3985,117 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="X20" t="s">
-        <v>195</v>
+        <v>131</v>
       </c>
       <c r="Y20" t="s">
-        <v>204</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>52261</v>
       </c>
-      <c r="B21" t="n">
-        <v>160704</v>
-      </c>
-      <c r="C21" t="s">
-        <v>205</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>206</v>
+        <v>155</v>
       </c>
       <c r="G21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>207</v>
+        <v>156</v>
       </c>
       <c r="J21" t="s">
-        <v>208</v>
+        <v>157</v>
       </c>
       <c r="K21" t="s">
-        <v>209</v>
+        <v>158</v>
       </c>
       <c r="L21" t="s">
-        <v>210</v>
+        <v>159</v>
       </c>
       <c r="M21" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>203</v>
+        <v>79</v>
       </c>
       <c r="O21" t="s">
-        <v>143</v>
+        <v>68</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
       <c r="R21" t="s"/>
       <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="n">
-        <v>1</v>
-      </c>
+      <c r="U21" t="s"/>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>211</v>
+        <v>160</v>
       </c>
       <c r="X21" t="s">
-        <v>212</v>
+        <v>161</v>
       </c>
       <c r="Y21" t="s">
-        <v>213</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>52261</v>
       </c>
-      <c r="B22" t="n">
-        <v>160705</v>
-      </c>
-      <c r="C22" t="s">
-        <v>214</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>215</v>
+        <v>163</v>
       </c>
       <c r="G22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>216</v>
+        <v>164</v>
       </c>
       <c r="J22" t="s">
-        <v>217</v>
+        <v>157</v>
       </c>
       <c r="K22" t="s">
-        <v>218</v>
+        <v>165</v>
       </c>
       <c r="L22" t="s">
-        <v>219</v>
+        <v>166</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="O22" t="s">
-        <v>70</v>
+        <v>167</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -3239,200 +4107,178 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>211</v>
+        <v>160</v>
       </c>
       <c r="X22" t="s">
-        <v>212</v>
+        <v>161</v>
       </c>
       <c r="Y22" t="s">
-        <v>220</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>52261</v>
       </c>
-      <c r="B23" t="n">
-        <v>160706</v>
-      </c>
-      <c r="C23" t="s">
-        <v>221</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>222</v>
+        <v>169</v>
       </c>
       <c r="G23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>223</v>
+        <v>170</v>
       </c>
       <c r="J23" t="s">
-        <v>224</v>
+        <v>157</v>
       </c>
       <c r="K23" t="s">
-        <v>225</v>
+        <v>171</v>
       </c>
       <c r="L23" t="s">
-        <v>226</v>
+        <v>172</v>
       </c>
       <c r="M23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="O23" t="s">
-        <v>143</v>
+        <v>53</v>
       </c>
       <c r="P23" t="s"/>
-      <c r="Q23" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q23" t="s"/>
       <c r="R23" t="s"/>
       <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="n">
-        <v>4</v>
-      </c>
+      <c r="U23" t="s"/>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>227</v>
+        <v>160</v>
       </c>
       <c r="X23" t="s">
-        <v>228</v>
+        <v>161</v>
       </c>
       <c r="Y23" t="s">
-        <v>229</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>52261</v>
       </c>
-      <c r="B24" t="n">
-        <v>160707</v>
-      </c>
-      <c r="C24" t="s">
-        <v>230</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>231</v>
+        <v>174</v>
       </c>
       <c r="G24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>232</v>
+        <v>175</v>
       </c>
       <c r="J24" t="s">
-        <v>233</v>
+        <v>176</v>
       </c>
       <c r="K24" t="s">
-        <v>234</v>
+        <v>177</v>
       </c>
       <c r="L24" t="s">
-        <v>235</v>
+        <v>178</v>
       </c>
       <c r="M24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>236</v>
+        <v>95</v>
       </c>
       <c r="O24" t="s">
-        <v>143</v>
+        <v>68</v>
       </c>
       <c r="P24" t="s"/>
-      <c r="Q24" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q24" t="s"/>
       <c r="R24" t="s"/>
-      <c r="S24" t="n">
-        <v>4</v>
-      </c>
+      <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="n">
-        <v>4</v>
-      </c>
+      <c r="U24" t="s"/>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>237</v>
+        <v>160</v>
       </c>
       <c r="X24" t="s">
-        <v>238</v>
+        <v>161</v>
       </c>
       <c r="Y24" t="s">
-        <v>239</v>
+        <v>179</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>52261</v>
       </c>
-      <c r="B25" t="n">
-        <v>160708</v>
-      </c>
-      <c r="C25" t="s">
-        <v>240</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>241</v>
+        <v>180</v>
       </c>
       <c r="G25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>242</v>
+        <v>181</v>
       </c>
       <c r="J25" t="s">
-        <v>243</v>
+        <v>182</v>
       </c>
       <c r="K25" t="s">
-        <v>244</v>
+        <v>183</v>
       </c>
       <c r="L25" t="s">
-        <v>245</v>
+        <v>184</v>
       </c>
       <c r="M25" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="O25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -3444,480 +4290,436 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>237</v>
+        <v>160</v>
       </c>
       <c r="X25" t="s">
-        <v>238</v>
+        <v>161</v>
       </c>
       <c r="Y25" t="s">
-        <v>246</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>52261</v>
       </c>
-      <c r="B26" t="n">
-        <v>160709</v>
-      </c>
-      <c r="C26" t="s">
-        <v>247</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>248</v>
+        <v>186</v>
       </c>
       <c r="G26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>249</v>
+        <v>187</v>
       </c>
       <c r="J26" t="s">
-        <v>250</v>
+        <v>188</v>
       </c>
       <c r="K26" t="s">
-        <v>251</v>
+        <v>189</v>
       </c>
       <c r="L26" t="s">
-        <v>252</v>
+        <v>190</v>
       </c>
       <c r="M26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>253</v>
+        <v>95</v>
       </c>
       <c r="O26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P26" t="s"/>
-      <c r="Q26" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q26" t="s"/>
       <c r="R26" t="s"/>
       <c r="S26" t="s"/>
       <c r="T26" t="s"/>
-      <c r="U26" t="n">
-        <v>3</v>
-      </c>
+      <c r="U26" t="s"/>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>254</v>
+        <v>160</v>
       </c>
       <c r="X26" t="s">
-        <v>255</v>
+        <v>161</v>
       </c>
       <c r="Y26" t="s">
-        <v>256</v>
+        <v>191</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>52261</v>
       </c>
-      <c r="B27" t="n">
-        <v>3657</v>
-      </c>
-      <c r="C27" t="s">
-        <v>257</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>258</v>
+        <v>192</v>
       </c>
       <c r="G27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>259</v>
+        <v>193</v>
       </c>
       <c r="J27" t="s">
-        <v>260</v>
+        <v>194</v>
       </c>
       <c r="K27" t="s">
-        <v>261</v>
+        <v>195</v>
       </c>
       <c r="L27" t="s">
-        <v>262</v>
+        <v>196</v>
       </c>
       <c r="M27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>253</v>
+        <v>95</v>
       </c>
       <c r="O27" t="s">
-        <v>54</v>
+        <v>167</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
-      <c r="R27" t="n">
-        <v>5</v>
-      </c>
+      <c r="R27" t="s"/>
       <c r="S27" t="s"/>
       <c r="T27" t="s"/>
-      <c r="U27" t="n">
-        <v>5</v>
-      </c>
+      <c r="U27" t="s"/>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>237</v>
+        <v>160</v>
       </c>
       <c r="X27" t="s">
-        <v>238</v>
+        <v>161</v>
       </c>
       <c r="Y27" t="s">
-        <v>263</v>
+        <v>197</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>52261</v>
       </c>
-      <c r="B28" t="n">
-        <v>160710</v>
-      </c>
-      <c r="C28" t="s">
-        <v>264</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>265</v>
+        <v>198</v>
       </c>
       <c r="G28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>266</v>
+        <v>199</v>
       </c>
       <c r="J28" t="s">
-        <v>267</v>
+        <v>200</v>
       </c>
       <c r="K28" t="s">
-        <v>268</v>
+        <v>201</v>
       </c>
       <c r="L28" t="s">
-        <v>269</v>
+        <v>202</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>253</v>
+        <v>95</v>
       </c>
       <c r="O28" t="s">
-        <v>54</v>
-      </c>
-      <c r="P28" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
       <c r="R28" t="s"/>
       <c r="S28" t="s"/>
       <c r="T28" t="s"/>
-      <c r="U28" t="n">
-        <v>5</v>
-      </c>
+      <c r="U28" t="s"/>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>237</v>
+        <v>203</v>
       </c>
       <c r="X28" t="s">
-        <v>238</v>
+        <v>204</v>
       </c>
       <c r="Y28" t="s">
-        <v>270</v>
+        <v>205</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>52261</v>
       </c>
-      <c r="B29" t="n">
-        <v>160711</v>
-      </c>
-      <c r="C29" t="s">
-        <v>271</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>272</v>
+        <v>206</v>
       </c>
       <c r="G29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>273</v>
+        <v>207</v>
       </c>
       <c r="J29" t="s">
-        <v>274</v>
+        <v>208</v>
       </c>
       <c r="K29" t="s">
-        <v>275</v>
+        <v>209</v>
       </c>
       <c r="L29" t="s">
-        <v>276</v>
+        <v>210</v>
       </c>
       <c r="M29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>277</v>
+        <v>211</v>
       </c>
       <c r="O29" t="s">
-        <v>54</v>
-      </c>
-      <c r="P29" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
       <c r="Q29" t="s"/>
       <c r="R29" t="s"/>
-      <c r="S29" t="s"/>
+      <c r="S29" t="n">
+        <v>4</v>
+      </c>
       <c r="T29" t="s"/>
-      <c r="U29" t="s"/>
+      <c r="U29" t="n">
+        <v>4</v>
+      </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>278</v>
+        <v>203</v>
       </c>
       <c r="X29" t="s">
-        <v>279</v>
+        <v>204</v>
       </c>
       <c r="Y29" t="s">
-        <v>280</v>
+        <v>212</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>52261</v>
       </c>
-      <c r="B30" t="n">
-        <v>160712</v>
-      </c>
-      <c r="C30" t="s">
-        <v>281</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>282</v>
+        <v>213</v>
       </c>
       <c r="G30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>283</v>
+        <v>214</v>
       </c>
       <c r="J30" t="s">
-        <v>284</v>
+        <v>215</v>
       </c>
       <c r="K30" t="s">
-        <v>285</v>
+        <v>216</v>
       </c>
       <c r="L30" t="s">
-        <v>286</v>
+        <v>217</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>277</v>
+        <v>59</v>
       </c>
       <c r="O30" t="s">
-        <v>54</v>
-      </c>
-      <c r="P30" t="n">
-        <v>4</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
-      <c r="R30" t="n">
-        <v>4</v>
-      </c>
+      <c r="R30" t="s"/>
       <c r="S30" t="s"/>
       <c r="T30" t="s"/>
-      <c r="U30" t="n">
-        <v>5</v>
-      </c>
+      <c r="U30" t="s"/>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>287</v>
+        <v>203</v>
       </c>
       <c r="X30" t="s">
-        <v>288</v>
+        <v>204</v>
       </c>
       <c r="Y30" t="s">
-        <v>289</v>
+        <v>218</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>52261</v>
       </c>
-      <c r="B31" t="n">
-        <v>160713</v>
-      </c>
-      <c r="C31" t="s">
-        <v>290</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>291</v>
+        <v>219</v>
       </c>
       <c r="G31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>292</v>
+        <v>220</v>
       </c>
       <c r="J31" t="s">
-        <v>293</v>
+        <v>221</v>
       </c>
       <c r="K31" t="s">
-        <v>294</v>
+        <v>222</v>
       </c>
       <c r="L31" t="s">
-        <v>295</v>
+        <v>223</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>296</v>
+        <v>59</v>
       </c>
       <c r="O31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
       <c r="R31" t="s"/>
-      <c r="S31" t="n">
-        <v>5</v>
-      </c>
+      <c r="S31" t="s"/>
       <c r="T31" t="s"/>
-      <c r="U31" t="n">
-        <v>5</v>
-      </c>
+      <c r="U31" t="s"/>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>287</v>
+        <v>60</v>
       </c>
       <c r="X31" t="s">
-        <v>288</v>
+        <v>61</v>
       </c>
       <c r="Y31" t="s">
-        <v>297</v>
+        <v>224</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>52261</v>
       </c>
-      <c r="B32" t="n">
-        <v>15878</v>
-      </c>
-      <c r="C32" t="s">
-        <v>298</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>299</v>
+        <v>225</v>
       </c>
       <c r="G32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>300</v>
+        <v>226</v>
       </c>
       <c r="J32" t="s">
-        <v>301</v>
+        <v>227</v>
       </c>
       <c r="K32" t="s">
-        <v>302</v>
+        <v>228</v>
       </c>
       <c r="L32" t="s">
-        <v>303</v>
+        <v>229</v>
       </c>
       <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>230</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q32" t="n">
         <v>4</v>
       </c>
-      <c r="N32" t="s">
-        <v>296</v>
-      </c>
-      <c r="O32" t="s">
-        <v>129</v>
-      </c>
-      <c r="P32" t="s"/>
-      <c r="Q32" t="s"/>
-      <c r="R32" t="n">
-        <v>5</v>
-      </c>
+      <c r="R32" t="s"/>
       <c r="S32" t="s"/>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
@@ -3927,131 +4729,113 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>287</v>
+        <v>60</v>
       </c>
       <c r="X32" t="s">
-        <v>288</v>
+        <v>61</v>
       </c>
       <c r="Y32" t="s">
-        <v>304</v>
+        <v>231</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>52261</v>
       </c>
-      <c r="B33" t="n">
-        <v>65281</v>
-      </c>
-      <c r="C33" t="s">
-        <v>305</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>306</v>
+        <v>232</v>
       </c>
       <c r="G33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>307</v>
+        <v>233</v>
       </c>
       <c r="J33" t="s">
-        <v>308</v>
+        <v>234</v>
       </c>
       <c r="K33" t="s">
-        <v>309</v>
+        <v>235</v>
       </c>
       <c r="L33" t="s">
-        <v>310</v>
+        <v>236</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
-      <c r="N33" t="s">
-        <v>296</v>
-      </c>
-      <c r="O33" t="s">
-        <v>54</v>
-      </c>
-      <c r="P33" t="n">
-        <v>5</v>
-      </c>
+      <c r="N33" t="s"/>
+      <c r="O33" t="s"/>
+      <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
       <c r="R33" t="s"/>
-      <c r="S33" t="n">
-        <v>5</v>
-      </c>
+      <c r="S33" t="s"/>
       <c r="T33" t="s"/>
-      <c r="U33" t="n">
-        <v>5</v>
-      </c>
+      <c r="U33" t="s"/>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>287</v>
+        <v>237</v>
       </c>
       <c r="X33" t="s">
-        <v>288</v>
+        <v>238</v>
       </c>
       <c r="Y33" t="s">
-        <v>311</v>
+        <v>239</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>52261</v>
       </c>
-      <c r="B34" t="n">
-        <v>160714</v>
-      </c>
-      <c r="C34" t="s">
-        <v>312</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>313</v>
+        <v>240</v>
       </c>
       <c r="G34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>314</v>
+        <v>241</v>
       </c>
       <c r="J34" t="s">
-        <v>315</v>
+        <v>234</v>
       </c>
       <c r="K34" t="s">
-        <v>316</v>
+        <v>242</v>
       </c>
       <c r="L34" t="s">
-        <v>317</v>
+        <v>243</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="O34" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -4063,61 +4847,53 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>287</v>
+        <v>237</v>
       </c>
       <c r="X34" t="s">
-        <v>288</v>
+        <v>238</v>
       </c>
       <c r="Y34" t="s">
-        <v>318</v>
+        <v>245</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>52261</v>
       </c>
-      <c r="B35" t="n">
-        <v>21464</v>
-      </c>
-      <c r="C35" t="s">
-        <v>319</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>320</v>
+        <v>246</v>
       </c>
       <c r="G35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>321</v>
+        <v>247</v>
       </c>
       <c r="J35" t="s">
-        <v>322</v>
+        <v>248</v>
       </c>
       <c r="K35" t="s">
-        <v>323</v>
+        <v>249</v>
       </c>
       <c r="L35" t="s">
-        <v>324</v>
+        <v>250</v>
       </c>
       <c r="M35" t="n">
-        <v>5</v>
-      </c>
-      <c r="N35" t="s">
-        <v>325</v>
-      </c>
-      <c r="O35" t="s">
-        <v>70</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N35" t="s"/>
+      <c r="O35" t="s"/>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
       <c r="R35" t="s"/>
@@ -4128,192 +4904,182 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>326</v>
+        <v>237</v>
       </c>
       <c r="X35" t="s">
-        <v>327</v>
+        <v>238</v>
       </c>
       <c r="Y35" t="s">
-        <v>328</v>
+        <v>251</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>52261</v>
       </c>
-      <c r="B36" t="n">
-        <v>160715</v>
-      </c>
-      <c r="C36" t="s">
-        <v>329</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>330</v>
+        <v>252</v>
       </c>
       <c r="G36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>331</v>
+        <v>253</v>
       </c>
       <c r="J36" t="s">
-        <v>332</v>
+        <v>254</v>
       </c>
       <c r="K36" t="s">
-        <v>333</v>
+        <v>255</v>
       </c>
       <c r="L36" t="s">
-        <v>334</v>
+        <v>256</v>
       </c>
       <c r="M36" t="n">
         <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="O36" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
       <c r="R36" t="s"/>
       <c r="S36" t="s"/>
       <c r="T36" t="s"/>
-      <c r="U36" t="n">
-        <v>4</v>
-      </c>
+      <c r="U36" t="s"/>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>326</v>
+        <v>257</v>
       </c>
       <c r="X36" t="s">
-        <v>327</v>
+        <v>258</v>
       </c>
       <c r="Y36" t="s">
-        <v>335</v>
+        <v>259</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>52261</v>
       </c>
-      <c r="B37" t="n">
-        <v>160716</v>
-      </c>
-      <c r="C37" t="s">
-        <v>336</v>
-      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>337</v>
+        <v>260</v>
       </c>
       <c r="G37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>338</v>
+        <v>261</v>
       </c>
       <c r="J37" t="s">
-        <v>339</v>
+        <v>262</v>
       </c>
       <c r="K37" t="s">
-        <v>340</v>
+        <v>263</v>
       </c>
       <c r="L37" t="s">
-        <v>341</v>
+        <v>264</v>
       </c>
       <c r="M37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="O37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P37" t="s"/>
-      <c r="Q37" t="s"/>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
       <c r="R37" t="s"/>
       <c r="S37" t="s"/>
       <c r="T37" t="s"/>
-      <c r="U37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>342</v>
+        <v>257</v>
       </c>
       <c r="X37" t="s">
-        <v>343</v>
+        <v>258</v>
       </c>
       <c r="Y37" t="s">
-        <v>344</v>
+        <v>265</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>52261</v>
       </c>
-      <c r="B38" t="n">
-        <v>160717</v>
-      </c>
-      <c r="C38" t="s">
-        <v>345</v>
-      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>346</v>
+        <v>266</v>
       </c>
       <c r="G38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>347</v>
+        <v>267</v>
       </c>
       <c r="J38" t="s">
-        <v>348</v>
+        <v>268</v>
       </c>
       <c r="K38" t="s">
-        <v>349</v>
+        <v>269</v>
       </c>
       <c r="L38" t="s">
-        <v>350</v>
+        <v>270</v>
       </c>
       <c r="M38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="O38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -4324,118 +5090,122 @@
       <c r="V38" t="n">
         <v>0</v>
       </c>
-      <c r="W38" t="s"/>
-      <c r="X38" t="s"/>
+      <c r="W38" t="s">
+        <v>271</v>
+      </c>
+      <c r="X38" t="s">
+        <v>272</v>
+      </c>
       <c r="Y38" t="s">
-        <v>351</v>
+        <v>273</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>52261</v>
       </c>
-      <c r="B39" t="n">
-        <v>160718</v>
-      </c>
-      <c r="C39" t="s">
-        <v>352</v>
-      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>353</v>
+        <v>274</v>
       </c>
       <c r="G39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>354</v>
+        <v>275</v>
       </c>
       <c r="J39" t="s">
-        <v>355</v>
+        <v>276</v>
       </c>
       <c r="K39" t="s">
-        <v>356</v>
+        <v>277</v>
       </c>
       <c r="L39" t="s">
-        <v>357</v>
+        <v>278</v>
       </c>
       <c r="M39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N39" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="O39" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="P39" t="s"/>
-      <c r="Q39" t="s"/>
-      <c r="R39" t="s"/>
+      <c r="Q39" t="n">
+        <v>3</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
       <c r="S39" t="s"/>
       <c r="T39" t="s"/>
       <c r="U39" t="s"/>
       <c r="V39" t="n">
         <v>0</v>
       </c>
-      <c r="W39" t="s"/>
-      <c r="X39" t="s"/>
+      <c r="W39" t="s">
+        <v>279</v>
+      </c>
+      <c r="X39" t="s">
+        <v>280</v>
+      </c>
       <c r="Y39" t="s">
-        <v>358</v>
+        <v>281</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>52261</v>
       </c>
-      <c r="B40" t="n">
-        <v>160719</v>
-      </c>
-      <c r="C40" t="s">
-        <v>359</v>
-      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>360</v>
+        <v>282</v>
       </c>
       <c r="G40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>361</v>
+        <v>283</v>
       </c>
       <c r="J40" t="s">
-        <v>362</v>
+        <v>284</v>
       </c>
       <c r="K40" t="s">
-        <v>363</v>
+        <v>285</v>
       </c>
       <c r="L40" t="s">
-        <v>364</v>
+        <v>286</v>
       </c>
       <c r="M40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>365</v>
+        <v>287</v>
       </c>
       <c r="O40" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -4446,197 +5216,179 @@
       <c r="V40" t="n">
         <v>0</v>
       </c>
-      <c r="W40" t="s"/>
-      <c r="X40" t="s"/>
+      <c r="W40" t="s">
+        <v>279</v>
+      </c>
+      <c r="X40" t="s">
+        <v>280</v>
+      </c>
       <c r="Y40" t="s">
-        <v>366</v>
+        <v>288</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>52261</v>
       </c>
-      <c r="B41" t="n">
-        <v>160720</v>
-      </c>
-      <c r="C41" t="s">
-        <v>367</v>
-      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>368</v>
+        <v>289</v>
       </c>
       <c r="G41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>369</v>
+        <v>290</v>
       </c>
       <c r="J41" t="s">
-        <v>370</v>
+        <v>291</v>
       </c>
       <c r="K41" t="s">
-        <v>371</v>
+        <v>292</v>
       </c>
       <c r="L41" t="s">
-        <v>372</v>
+        <v>293</v>
       </c>
       <c r="M41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>373</v>
+        <v>230</v>
       </c>
       <c r="O41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
       <c r="R41" t="s"/>
-      <c r="S41" t="n">
-        <v>5</v>
-      </c>
+      <c r="S41" t="s"/>
       <c r="T41" t="s"/>
-      <c r="U41" t="n">
-        <v>3</v>
-      </c>
+      <c r="U41" t="s"/>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>374</v>
+        <v>279</v>
       </c>
       <c r="X41" t="s">
-        <v>375</v>
+        <v>280</v>
       </c>
       <c r="Y41" t="s">
-        <v>376</v>
+        <v>294</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>52261</v>
       </c>
-      <c r="B42" t="n">
-        <v>160721</v>
-      </c>
-      <c r="C42" t="s">
-        <v>377</v>
-      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>378</v>
+        <v>295</v>
       </c>
       <c r="G42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>379</v>
+        <v>296</v>
       </c>
       <c r="J42" t="s">
-        <v>380</v>
+        <v>297</v>
       </c>
       <c r="K42" t="s">
-        <v>381</v>
+        <v>298</v>
       </c>
       <c r="L42" t="s">
-        <v>382</v>
+        <v>299</v>
       </c>
       <c r="M42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>383</v>
+        <v>300</v>
       </c>
       <c r="O42" t="s">
-        <v>143</v>
-      </c>
-      <c r="P42" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>4</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
       <c r="R42" t="s"/>
       <c r="S42" t="s"/>
       <c r="T42" t="s"/>
-      <c r="U42" t="n">
-        <v>4</v>
-      </c>
+      <c r="U42" t="s"/>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>374</v>
+        <v>301</v>
       </c>
       <c r="X42" t="s">
-        <v>375</v>
+        <v>302</v>
       </c>
       <c r="Y42" t="s">
-        <v>384</v>
+        <v>303</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>52261</v>
       </c>
-      <c r="B43" t="n">
-        <v>160722</v>
-      </c>
-      <c r="C43" t="s">
-        <v>385</v>
-      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>386</v>
+        <v>304</v>
       </c>
       <c r="G43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>387</v>
+        <v>305</v>
       </c>
       <c r="J43" t="s">
-        <v>380</v>
+        <v>306</v>
       </c>
       <c r="K43" t="s">
-        <v>388</v>
+        <v>307</v>
       </c>
       <c r="L43" t="s">
-        <v>389</v>
+        <v>308</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>383</v>
+        <v>300</v>
       </c>
       <c r="O43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
@@ -4647,198 +5399,188 @@
       <c r="V43" t="n">
         <v>0</v>
       </c>
-      <c r="W43" t="s">
-        <v>374</v>
-      </c>
-      <c r="X43" t="s">
-        <v>375</v>
-      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>390</v>
+        <v>308</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>52261</v>
       </c>
-      <c r="B44" t="n">
-        <v>6384</v>
-      </c>
-      <c r="C44" t="s">
-        <v>391</v>
-      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>392</v>
+        <v>309</v>
       </c>
       <c r="G44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>393</v>
+        <v>310</v>
       </c>
       <c r="J44" t="s">
-        <v>394</v>
+        <v>311</v>
       </c>
       <c r="K44" t="s">
-        <v>395</v>
+        <v>312</v>
       </c>
       <c r="L44" t="s">
-        <v>396</v>
+        <v>313</v>
       </c>
       <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>314</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="n">
         <v>4</v>
       </c>
-      <c r="N44" t="s">
-        <v>397</v>
-      </c>
-      <c r="O44" t="s">
-        <v>54</v>
-      </c>
-      <c r="P44" t="s"/>
-      <c r="Q44" t="s"/>
-      <c r="R44" t="s"/>
       <c r="S44" t="s"/>
       <c r="T44" t="s"/>
-      <c r="U44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
-      <c r="W44" t="s">
-        <v>398</v>
-      </c>
-      <c r="X44" t="s">
-        <v>399</v>
-      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>400</v>
+        <v>313</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>52261</v>
       </c>
-      <c r="B45" t="n">
-        <v>160723</v>
-      </c>
-      <c r="C45" t="s">
-        <v>401</v>
-      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>402</v>
+        <v>315</v>
       </c>
       <c r="G45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>403</v>
+        <v>316</v>
       </c>
       <c r="J45" t="s">
-        <v>404</v>
+        <v>317</v>
       </c>
       <c r="K45" t="s">
-        <v>405</v>
+        <v>318</v>
       </c>
       <c r="L45" t="s">
-        <v>406</v>
+        <v>319</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>397</v>
+        <v>314</v>
       </c>
       <c r="O45" t="s">
-        <v>54</v>
+        <v>167</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
-      <c r="R45" t="s"/>
-      <c r="S45" t="s"/>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
       <c r="T45" t="s"/>
-      <c r="U45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
-      <c r="W45" t="s">
-        <v>407</v>
-      </c>
-      <c r="X45" t="s">
-        <v>408</v>
-      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>409</v>
+        <v>319</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>52261</v>
       </c>
-      <c r="B46" t="n">
-        <v>160724</v>
-      </c>
-      <c r="C46" t="s">
-        <v>410</v>
-      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>411</v>
+        <v>320</v>
       </c>
       <c r="G46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>412</v>
+        <v>321</v>
       </c>
       <c r="J46" t="s">
-        <v>413</v>
+        <v>322</v>
       </c>
       <c r="K46" t="s">
-        <v>414</v>
+        <v>323</v>
       </c>
       <c r="L46" t="s">
-        <v>415</v>
+        <v>324</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>397</v>
+        <v>314</v>
       </c>
       <c r="O46" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P46" t="n">
         <v>5</v>
       </c>
       <c r="Q46" t="s"/>
       <c r="R46" t="s"/>
-      <c r="S46" t="s"/>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
       <c r="T46" t="s"/>
       <c r="U46" t="n">
         <v>5</v>
@@ -4846,70 +5588,62 @@
       <c r="V46" t="n">
         <v>0</v>
       </c>
-      <c r="W46" t="s">
-        <v>407</v>
-      </c>
-      <c r="X46" t="s">
-        <v>408</v>
-      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>416</v>
+        <v>324</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>52261</v>
       </c>
-      <c r="B47" t="n">
-        <v>28605</v>
-      </c>
-      <c r="C47" t="s">
-        <v>417</v>
-      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>418</v>
+        <v>325</v>
       </c>
       <c r="G47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>419</v>
+        <v>326</v>
       </c>
       <c r="J47" t="s">
-        <v>420</v>
+        <v>327</v>
       </c>
       <c r="K47" t="s">
-        <v>421</v>
+        <v>328</v>
       </c>
       <c r="L47" t="s">
-        <v>422</v>
+        <v>329</v>
       </c>
       <c r="M47" t="n">
         <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>397</v>
+        <v>211</v>
       </c>
       <c r="O47" t="s">
-        <v>143</v>
+        <v>330</v>
       </c>
       <c r="P47" t="s"/>
-      <c r="Q47" t="s"/>
+      <c r="Q47" t="n">
+        <v>4</v>
+      </c>
       <c r="R47" t="n">
-        <v>4</v>
-      </c>
-      <c r="S47" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S47" t="s"/>
       <c r="T47" t="s"/>
       <c r="U47" t="n">
         <v>5</v>
@@ -4917,139 +5651,119 @@
       <c r="V47" t="n">
         <v>0</v>
       </c>
-      <c r="W47" t="s">
-        <v>407</v>
-      </c>
-      <c r="X47" t="s">
-        <v>408</v>
-      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>423</v>
+        <v>329</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>52261</v>
       </c>
-      <c r="B48" t="n">
-        <v>160725</v>
-      </c>
-      <c r="C48" t="s">
-        <v>424</v>
-      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>425</v>
+        <v>331</v>
       </c>
       <c r="G48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>426</v>
+        <v>332</v>
       </c>
       <c r="J48" t="s">
-        <v>427</v>
+        <v>333</v>
       </c>
       <c r="K48" t="s">
-        <v>428</v>
+        <v>334</v>
       </c>
       <c r="L48" t="s">
-        <v>429</v>
+        <v>335</v>
       </c>
       <c r="M48" t="n">
         <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>397</v>
+        <v>314</v>
       </c>
       <c r="O48" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P48" t="s"/>
       <c r="Q48" t="s"/>
       <c r="R48" t="s"/>
-      <c r="S48" t="n">
-        <v>5</v>
-      </c>
+      <c r="S48" t="s"/>
       <c r="T48" t="s"/>
-      <c r="U48" t="n">
-        <v>5</v>
-      </c>
+      <c r="U48" t="s"/>
       <c r="V48" t="n">
         <v>0</v>
       </c>
-      <c r="W48" t="s">
-        <v>407</v>
-      </c>
-      <c r="X48" t="s">
-        <v>408</v>
-      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>430</v>
+        <v>335</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>52261</v>
       </c>
-      <c r="B49" t="n">
-        <v>160726</v>
-      </c>
-      <c r="C49" t="s">
-        <v>431</v>
-      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>432</v>
+        <v>336</v>
       </c>
       <c r="G49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>433</v>
+        <v>337</v>
       </c>
       <c r="J49" t="s">
-        <v>434</v>
+        <v>338</v>
       </c>
       <c r="K49" t="s">
-        <v>435</v>
+        <v>339</v>
       </c>
       <c r="L49" t="s">
-        <v>436</v>
+        <v>340</v>
       </c>
       <c r="M49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N49" t="s">
-        <v>437</v>
+        <v>341</v>
       </c>
       <c r="O49" t="s">
-        <v>54</v>
+        <v>167</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="n">
+        <v>3</v>
+      </c>
+      <c r="R49" t="n">
         <v>4</v>
       </c>
-      <c r="R49" t="s"/>
-      <c r="S49" t="n">
-        <v>4</v>
-      </c>
+      <c r="S49" t="s"/>
       <c r="T49" t="s"/>
       <c r="U49" t="n">
         <v>5</v>
@@ -5058,13 +5772,3816 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
+        <v>342</v>
+      </c>
+      <c r="X49" t="s">
+        <v>343</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>52261</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>345</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>346</v>
+      </c>
+      <c r="J50" t="s">
+        <v>347</v>
+      </c>
+      <c r="K50" t="s">
+        <v>348</v>
+      </c>
+      <c r="L50" t="s">
+        <v>349</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>341</v>
+      </c>
+      <c r="O50" t="s">
+        <v>330</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="s"/>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>52261</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>351</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>352</v>
+      </c>
+      <c r="J51" t="s">
+        <v>353</v>
+      </c>
+      <c r="K51" t="s">
+        <v>354</v>
+      </c>
+      <c r="L51" t="s">
+        <v>355</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>356</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="n">
+        <v>4</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>4</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>52261</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>358</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>359</v>
+      </c>
+      <c r="J52" t="s">
+        <v>360</v>
+      </c>
+      <c r="K52" t="s">
+        <v>361</v>
+      </c>
+      <c r="L52" t="s">
+        <v>362</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>341</v>
+      </c>
+      <c r="O52" t="s">
+        <v>68</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="s"/>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52261</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>364</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>365</v>
+      </c>
+      <c r="J53" t="s">
+        <v>366</v>
+      </c>
+      <c r="K53" t="s">
+        <v>367</v>
+      </c>
+      <c r="L53" t="s">
+        <v>368</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>356</v>
+      </c>
+      <c r="O53" t="s">
+        <v>53</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="s"/>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>52261</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>370</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>371</v>
+      </c>
+      <c r="J54" t="s">
+        <v>372</v>
+      </c>
+      <c r="K54" t="s">
+        <v>373</v>
+      </c>
+      <c r="L54" t="s">
+        <v>374</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>356</v>
+      </c>
+      <c r="O54" t="s">
+        <v>53</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="s"/>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>52261</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>375</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>376</v>
+      </c>
+      <c r="J55" t="s">
+        <v>377</v>
+      </c>
+      <c r="K55" t="s">
+        <v>378</v>
+      </c>
+      <c r="L55" t="s">
+        <v>379</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>380</v>
+      </c>
+      <c r="O55" t="s">
+        <v>53</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>4</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>52261</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>381</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>382</v>
+      </c>
+      <c r="J56" t="s">
+        <v>383</v>
+      </c>
+      <c r="K56" t="s">
+        <v>384</v>
+      </c>
+      <c r="L56" t="s">
+        <v>385</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>356</v>
+      </c>
+      <c r="O56" t="s">
+        <v>53</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="s"/>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>52261</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>386</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>387</v>
+      </c>
+      <c r="J57" t="s">
+        <v>388</v>
+      </c>
+      <c r="K57" t="s">
+        <v>389</v>
+      </c>
+      <c r="L57" t="s">
+        <v>390</v>
+      </c>
+      <c r="M57" t="n">
+        <v>3</v>
+      </c>
+      <c r="N57" t="s">
+        <v>391</v>
+      </c>
+      <c r="O57" t="s">
+        <v>68</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="s"/>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>392</v>
+      </c>
+      <c r="X57" t="s">
+        <v>393</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>52261</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>395</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>396</v>
+      </c>
+      <c r="J58" t="s">
+        <v>397</v>
+      </c>
+      <c r="K58" t="s">
+        <v>398</v>
+      </c>
+      <c r="L58" t="s">
+        <v>399</v>
+      </c>
+      <c r="M58" t="n">
+        <v>3</v>
+      </c>
+      <c r="N58" t="s"/>
+      <c r="O58" t="s"/>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="s"/>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>400</v>
+      </c>
+      <c r="X58" t="s">
+        <v>401</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>52261</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>403</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>404</v>
+      </c>
+      <c r="J59" t="s">
+        <v>405</v>
+      </c>
+      <c r="K59" t="s">
+        <v>406</v>
+      </c>
+      <c r="L59" t="s">
+        <v>407</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>287</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>4</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>408</v>
+      </c>
+      <c r="X59" t="s">
+        <v>409</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>52261</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>411</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>412</v>
+      </c>
+      <c r="J60" t="s">
+        <v>413</v>
+      </c>
+      <c r="K60" t="s">
+        <v>414</v>
+      </c>
+      <c r="L60" t="s">
+        <v>415</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s"/>
+      <c r="O60" t="s"/>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="s"/>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>408</v>
+      </c>
+      <c r="X60" t="s">
+        <v>409</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>52261</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>417</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>418</v>
+      </c>
+      <c r="J61" t="s">
+        <v>419</v>
+      </c>
+      <c r="K61" t="s">
+        <v>420</v>
+      </c>
+      <c r="L61" t="s">
+        <v>421</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>380</v>
+      </c>
+      <c r="O61" t="s">
+        <v>68</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="s"/>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>408</v>
+      </c>
+      <c r="X61" t="s">
+        <v>409</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>52261</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>423</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>424</v>
+      </c>
+      <c r="J62" t="s">
+        <v>419</v>
+      </c>
+      <c r="K62" t="s">
+        <v>425</v>
+      </c>
+      <c r="L62" t="s">
+        <v>426</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4</v>
+      </c>
+      <c r="N62" t="s">
+        <v>380</v>
+      </c>
+      <c r="O62" t="s">
+        <v>68</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="s"/>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>408</v>
+      </c>
+      <c r="X62" t="s">
+        <v>409</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>52261</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>428</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>429</v>
+      </c>
+      <c r="J63" t="s">
+        <v>430</v>
+      </c>
+      <c r="K63" t="s">
+        <v>431</v>
+      </c>
+      <c r="L63" t="s">
+        <v>432</v>
+      </c>
+      <c r="M63" t="n">
+        <v>1</v>
+      </c>
+      <c r="N63" t="s">
+        <v>380</v>
+      </c>
+      <c r="O63" t="s">
+        <v>167</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>1</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>433</v>
+      </c>
+      <c r="X63" t="s">
+        <v>434</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>52261</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>436</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>437</v>
+      </c>
+      <c r="J64" t="s">
         <v>438</v>
       </c>
-      <c r="X49" t="s">
+      <c r="K64" t="s">
         <v>439</v>
       </c>
-      <c r="Y49" t="s">
+      <c r="L64" t="s">
         <v>440</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>211</v>
+      </c>
+      <c r="O64" t="s">
+        <v>68</v>
+      </c>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="s"/>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>433</v>
+      </c>
+      <c r="X64" t="s">
+        <v>434</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>52261</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>442</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>443</v>
+      </c>
+      <c r="J65" t="s">
+        <v>444</v>
+      </c>
+      <c r="K65" t="s">
+        <v>445</v>
+      </c>
+      <c r="L65" t="s">
+        <v>446</v>
+      </c>
+      <c r="M65" t="n">
+        <v>1</v>
+      </c>
+      <c r="N65" t="s">
+        <v>211</v>
+      </c>
+      <c r="O65" t="s">
+        <v>167</v>
+      </c>
+      <c r="P65" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="n">
+        <v>2</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>1</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>447</v>
+      </c>
+      <c r="X65" t="s">
+        <v>448</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>52261</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>450</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>451</v>
+      </c>
+      <c r="J66" t="s">
+        <v>452</v>
+      </c>
+      <c r="K66" t="s">
+        <v>453</v>
+      </c>
+      <c r="L66" t="s">
+        <v>454</v>
+      </c>
+      <c r="M66" t="n">
+        <v>2</v>
+      </c>
+      <c r="N66" t="s">
+        <v>211</v>
+      </c>
+      <c r="O66" t="s">
+        <v>68</v>
+      </c>
+      <c r="P66" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="s"/>
+      <c r="S66" t="n">
+        <v>2</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>1</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>447</v>
+      </c>
+      <c r="X66" t="s">
+        <v>448</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>52261</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>456</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>457</v>
+      </c>
+      <c r="J67" t="s">
+        <v>458</v>
+      </c>
+      <c r="K67" t="s">
+        <v>459</v>
+      </c>
+      <c r="L67" t="s">
+        <v>460</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s">
+        <v>211</v>
+      </c>
+      <c r="O67" t="s">
+        <v>167</v>
+      </c>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="n">
+        <v>4</v>
+      </c>
+      <c r="R67" t="s"/>
+      <c r="S67" t="s"/>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>4</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>461</v>
+      </c>
+      <c r="X67" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>52261</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>464</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>465</v>
+      </c>
+      <c r="J68" t="s">
+        <v>466</v>
+      </c>
+      <c r="K68" t="s">
+        <v>467</v>
+      </c>
+      <c r="L68" t="s">
+        <v>468</v>
+      </c>
+      <c r="M68" t="n">
+        <v>3</v>
+      </c>
+      <c r="N68" t="s">
+        <v>469</v>
+      </c>
+      <c r="O68" t="s">
+        <v>167</v>
+      </c>
+      <c r="P68" t="s"/>
+      <c r="Q68" t="n">
+        <v>4</v>
+      </c>
+      <c r="R68" t="s"/>
+      <c r="S68" t="n">
+        <v>4</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>4</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>470</v>
+      </c>
+      <c r="X68" t="s">
+        <v>471</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>52261</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>473</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>474</v>
+      </c>
+      <c r="J69" t="s">
+        <v>475</v>
+      </c>
+      <c r="K69" t="s">
+        <v>476</v>
+      </c>
+      <c r="L69" t="s">
+        <v>477</v>
+      </c>
+      <c r="M69" t="n">
+        <v>1</v>
+      </c>
+      <c r="N69" t="s">
+        <v>211</v>
+      </c>
+      <c r="O69" t="s">
+        <v>53</v>
+      </c>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="s"/>
+      <c r="S69" t="s"/>
+      <c r="T69" t="s"/>
+      <c r="U69" t="s"/>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>470</v>
+      </c>
+      <c r="X69" t="s">
+        <v>471</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>52261</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>479</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>480</v>
+      </c>
+      <c r="J70" t="s">
+        <v>481</v>
+      </c>
+      <c r="K70" t="s">
+        <v>482</v>
+      </c>
+      <c r="L70" t="s">
+        <v>483</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s">
+        <v>391</v>
+      </c>
+      <c r="O70" t="s">
+        <v>53</v>
+      </c>
+      <c r="P70" t="s"/>
+      <c r="Q70" t="n">
+        <v>4</v>
+      </c>
+      <c r="R70" t="s"/>
+      <c r="S70" t="s"/>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>4</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>470</v>
+      </c>
+      <c r="X70" t="s">
+        <v>471</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>52261</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>485</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>486</v>
+      </c>
+      <c r="J71" t="s">
+        <v>487</v>
+      </c>
+      <c r="K71" t="s">
+        <v>488</v>
+      </c>
+      <c r="L71" t="s">
+        <v>489</v>
+      </c>
+      <c r="M71" t="n">
+        <v>1</v>
+      </c>
+      <c r="N71" t="s">
+        <v>391</v>
+      </c>
+      <c r="O71" t="s">
+        <v>53</v>
+      </c>
+      <c r="P71" t="s"/>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="s"/>
+      <c r="S71" t="s"/>
+      <c r="T71" t="s"/>
+      <c r="U71" t="s"/>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>490</v>
+      </c>
+      <c r="X71" t="s">
+        <v>491</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>52261</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>493</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>494</v>
+      </c>
+      <c r="J72" t="s">
+        <v>495</v>
+      </c>
+      <c r="K72" t="s">
+        <v>496</v>
+      </c>
+      <c r="L72" t="s">
+        <v>497</v>
+      </c>
+      <c r="M72" t="n">
+        <v>2</v>
+      </c>
+      <c r="N72" t="s">
+        <v>498</v>
+      </c>
+      <c r="O72" t="s">
+        <v>53</v>
+      </c>
+      <c r="P72" t="s"/>
+      <c r="Q72" t="n">
+        <v>3</v>
+      </c>
+      <c r="R72" t="s"/>
+      <c r="S72" t="s"/>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>3</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>499</v>
+      </c>
+      <c r="X72" t="s">
+        <v>500</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>52261</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>502</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>503</v>
+      </c>
+      <c r="J73" t="s">
+        <v>504</v>
+      </c>
+      <c r="K73" t="s">
+        <v>505</v>
+      </c>
+      <c r="L73" t="s">
+        <v>506</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>498</v>
+      </c>
+      <c r="O73" t="s">
+        <v>53</v>
+      </c>
+      <c r="P73" t="s"/>
+      <c r="Q73" t="s"/>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="s"/>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>470</v>
+      </c>
+      <c r="X73" t="s">
+        <v>471</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>52261</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>508</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>509</v>
+      </c>
+      <c r="J74" t="s">
+        <v>510</v>
+      </c>
+      <c r="K74" t="s">
+        <v>511</v>
+      </c>
+      <c r="L74" t="s">
+        <v>512</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>498</v>
+      </c>
+      <c r="O74" t="s">
+        <v>53</v>
+      </c>
+      <c r="P74" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="s"/>
+      <c r="S74" t="s"/>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>470</v>
+      </c>
+      <c r="X74" t="s">
+        <v>471</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>52261</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>514</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>515</v>
+      </c>
+      <c r="J75" t="s">
+        <v>516</v>
+      </c>
+      <c r="K75" t="s">
+        <v>517</v>
+      </c>
+      <c r="L75" t="s">
+        <v>518</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>498</v>
+      </c>
+      <c r="O75" t="s">
+        <v>53</v>
+      </c>
+      <c r="P75" t="s"/>
+      <c r="Q75" t="s"/>
+      <c r="R75" t="s"/>
+      <c r="S75" t="s"/>
+      <c r="T75" t="s"/>
+      <c r="U75" t="s"/>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>519</v>
+      </c>
+      <c r="X75" t="s">
+        <v>520</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>52261</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>522</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>523</v>
+      </c>
+      <c r="J76" t="s">
+        <v>524</v>
+      </c>
+      <c r="K76" t="s">
+        <v>525</v>
+      </c>
+      <c r="L76" t="s">
+        <v>526</v>
+      </c>
+      <c r="M76" t="n">
+        <v>2</v>
+      </c>
+      <c r="N76" t="s">
+        <v>498</v>
+      </c>
+      <c r="O76" t="s">
+        <v>53</v>
+      </c>
+      <c r="P76" t="s"/>
+      <c r="Q76" t="s"/>
+      <c r="R76" t="s"/>
+      <c r="S76" t="s"/>
+      <c r="T76" t="s"/>
+      <c r="U76" t="s"/>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>527</v>
+      </c>
+      <c r="X76" t="s">
+        <v>528</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>52261</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>530</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>531</v>
+      </c>
+      <c r="J77" t="s">
+        <v>532</v>
+      </c>
+      <c r="K77" t="s">
+        <v>195</v>
+      </c>
+      <c r="L77" t="s">
+        <v>533</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>534</v>
+      </c>
+      <c r="O77" t="s">
+        <v>53</v>
+      </c>
+      <c r="P77" t="s"/>
+      <c r="Q77" t="s"/>
+      <c r="R77" t="s"/>
+      <c r="S77" t="s"/>
+      <c r="T77" t="s"/>
+      <c r="U77" t="s"/>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>535</v>
+      </c>
+      <c r="X77" t="s">
+        <v>536</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>52261</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>538</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>539</v>
+      </c>
+      <c r="J78" t="s">
+        <v>540</v>
+      </c>
+      <c r="K78" t="s">
+        <v>541</v>
+      </c>
+      <c r="L78" t="s">
+        <v>542</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>534</v>
+      </c>
+      <c r="O78" t="s">
+        <v>53</v>
+      </c>
+      <c r="P78" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q78" t="s"/>
+      <c r="R78" t="n">
+        <v>4</v>
+      </c>
+      <c r="S78" t="s"/>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>543</v>
+      </c>
+      <c r="X78" t="s">
+        <v>544</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>52261</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>546</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>547</v>
+      </c>
+      <c r="J79" t="s">
+        <v>548</v>
+      </c>
+      <c r="K79" t="s">
+        <v>549</v>
+      </c>
+      <c r="L79" t="s">
+        <v>550</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>551</v>
+      </c>
+      <c r="O79" t="s">
+        <v>53</v>
+      </c>
+      <c r="P79" t="s"/>
+      <c r="Q79" t="s"/>
+      <c r="R79" t="s"/>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>543</v>
+      </c>
+      <c r="X79" t="s">
+        <v>544</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>52261</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>553</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>554</v>
+      </c>
+      <c r="J80" t="s">
+        <v>555</v>
+      </c>
+      <c r="K80" t="s">
+        <v>556</v>
+      </c>
+      <c r="L80" t="s">
+        <v>557</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>551</v>
+      </c>
+      <c r="O80" t="s">
+        <v>330</v>
+      </c>
+      <c r="P80" t="s"/>
+      <c r="Q80" t="n">
+        <v>4</v>
+      </c>
+      <c r="R80" t="s"/>
+      <c r="S80" t="s"/>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>543</v>
+      </c>
+      <c r="X80" t="s">
+        <v>544</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>52261</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>559</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>560</v>
+      </c>
+      <c r="J81" t="s">
+        <v>561</v>
+      </c>
+      <c r="K81" t="s">
+        <v>562</v>
+      </c>
+      <c r="L81" t="s">
+        <v>563</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>551</v>
+      </c>
+      <c r="O81" t="s">
+        <v>53</v>
+      </c>
+      <c r="P81" t="s"/>
+      <c r="Q81" t="s"/>
+      <c r="R81" t="s"/>
+      <c r="S81" t="s"/>
+      <c r="T81" t="s"/>
+      <c r="U81" t="s"/>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>543</v>
+      </c>
+      <c r="X81" t="s">
+        <v>544</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>52261</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>565</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>566</v>
+      </c>
+      <c r="J82" t="s">
+        <v>561</v>
+      </c>
+      <c r="K82" t="s">
+        <v>567</v>
+      </c>
+      <c r="L82" t="s">
+        <v>568</v>
+      </c>
+      <c r="M82" t="n">
+        <v>4</v>
+      </c>
+      <c r="N82" t="s">
+        <v>551</v>
+      </c>
+      <c r="O82" t="s">
+        <v>330</v>
+      </c>
+      <c r="P82" t="s"/>
+      <c r="Q82" t="s"/>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="s"/>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>543</v>
+      </c>
+      <c r="X82" t="s">
+        <v>544</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>52261</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>570</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>571</v>
+      </c>
+      <c r="J83" t="s">
+        <v>572</v>
+      </c>
+      <c r="K83" t="s">
+        <v>573</v>
+      </c>
+      <c r="L83" t="s">
+        <v>574</v>
+      </c>
+      <c r="M83" t="n">
+        <v>4</v>
+      </c>
+      <c r="N83" t="s">
+        <v>551</v>
+      </c>
+      <c r="O83" t="s">
+        <v>53</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="s"/>
+      <c r="R83" t="s"/>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>543</v>
+      </c>
+      <c r="X83" t="s">
+        <v>544</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>52261</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>576</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>577</v>
+      </c>
+      <c r="J84" t="s">
+        <v>578</v>
+      </c>
+      <c r="K84" t="s">
+        <v>579</v>
+      </c>
+      <c r="L84" t="s">
+        <v>580</v>
+      </c>
+      <c r="M84" t="n">
+        <v>4</v>
+      </c>
+      <c r="N84" t="s">
+        <v>469</v>
+      </c>
+      <c r="O84" t="s">
+        <v>68</v>
+      </c>
+      <c r="P84" t="s"/>
+      <c r="Q84" t="s"/>
+      <c r="R84" t="s"/>
+      <c r="S84" t="s"/>
+      <c r="T84" t="s"/>
+      <c r="U84" t="s"/>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>543</v>
+      </c>
+      <c r="X84" t="s">
+        <v>544</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>52261</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>582</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>583</v>
+      </c>
+      <c r="J85" t="s">
+        <v>584</v>
+      </c>
+      <c r="K85" t="s">
+        <v>585</v>
+      </c>
+      <c r="L85" t="s">
+        <v>586</v>
+      </c>
+      <c r="M85" t="n">
+        <v>4</v>
+      </c>
+      <c r="N85" t="s">
+        <v>587</v>
+      </c>
+      <c r="O85" t="s">
+        <v>53</v>
+      </c>
+      <c r="P85" t="s"/>
+      <c r="Q85" t="s"/>
+      <c r="R85" t="s"/>
+      <c r="S85" t="s"/>
+      <c r="T85" t="s"/>
+      <c r="U85" t="s"/>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>543</v>
+      </c>
+      <c r="X85" t="s">
+        <v>544</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>52261</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>589</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>590</v>
+      </c>
+      <c r="J86" t="s">
+        <v>591</v>
+      </c>
+      <c r="K86" t="s">
+        <v>592</v>
+      </c>
+      <c r="L86" t="s">
+        <v>593</v>
+      </c>
+      <c r="M86" t="n">
+        <v>3</v>
+      </c>
+      <c r="N86" t="s">
+        <v>587</v>
+      </c>
+      <c r="O86" t="s">
+        <v>167</v>
+      </c>
+      <c r="P86" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q86" t="s"/>
+      <c r="R86" t="s"/>
+      <c r="S86" t="s"/>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>3</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>594</v>
+      </c>
+      <c r="X86" t="s">
+        <v>595</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>52261</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>597</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>598</v>
+      </c>
+      <c r="J87" t="s">
+        <v>599</v>
+      </c>
+      <c r="K87" t="s">
+        <v>600</v>
+      </c>
+      <c r="L87" t="s">
+        <v>601</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s">
+        <v>587</v>
+      </c>
+      <c r="O87" t="s">
+        <v>68</v>
+      </c>
+      <c r="P87" t="s"/>
+      <c r="Q87" t="s"/>
+      <c r="R87" t="s"/>
+      <c r="S87" t="s"/>
+      <c r="T87" t="s"/>
+      <c r="U87" t="s"/>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>602</v>
+      </c>
+      <c r="X87" t="s">
+        <v>603</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>52261</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>605</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>606</v>
+      </c>
+      <c r="J88" t="s">
+        <v>607</v>
+      </c>
+      <c r="K88" t="s">
+        <v>608</v>
+      </c>
+      <c r="L88" t="s">
+        <v>609</v>
+      </c>
+      <c r="M88" t="n">
+        <v>4</v>
+      </c>
+      <c r="N88" t="s">
+        <v>469</v>
+      </c>
+      <c r="O88" t="s">
+        <v>68</v>
+      </c>
+      <c r="P88" t="s"/>
+      <c r="Q88" t="s"/>
+      <c r="R88" t="s"/>
+      <c r="S88" t="s"/>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>4</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>602</v>
+      </c>
+      <c r="X88" t="s">
+        <v>603</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>52261</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>611</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>612</v>
+      </c>
+      <c r="J89" t="s">
+        <v>613</v>
+      </c>
+      <c r="K89" t="s">
+        <v>614</v>
+      </c>
+      <c r="L89" t="s">
+        <v>615</v>
+      </c>
+      <c r="M89" t="n">
+        <v>3</v>
+      </c>
+      <c r="N89" t="s">
+        <v>469</v>
+      </c>
+      <c r="O89" t="s">
+        <v>53</v>
+      </c>
+      <c r="P89" t="s"/>
+      <c r="Q89" t="s"/>
+      <c r="R89" t="s"/>
+      <c r="S89" t="s"/>
+      <c r="T89" t="s"/>
+      <c r="U89" t="s"/>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s">
+        <v>616</v>
+      </c>
+      <c r="X89" t="s">
+        <v>617</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>52261</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>619</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>620</v>
+      </c>
+      <c r="J90" t="s">
+        <v>621</v>
+      </c>
+      <c r="K90" t="s">
+        <v>622</v>
+      </c>
+      <c r="L90" t="s">
+        <v>623</v>
+      </c>
+      <c r="M90" t="n">
+        <v>5</v>
+      </c>
+      <c r="N90" t="s">
+        <v>469</v>
+      </c>
+      <c r="O90" t="s">
+        <v>53</v>
+      </c>
+      <c r="P90" t="s"/>
+      <c r="Q90" t="s"/>
+      <c r="R90" t="s"/>
+      <c r="S90" t="s"/>
+      <c r="T90" t="s"/>
+      <c r="U90" t="s"/>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>52261</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>624</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>625</v>
+      </c>
+      <c r="J91" t="s">
+        <v>626</v>
+      </c>
+      <c r="K91" t="s">
+        <v>627</v>
+      </c>
+      <c r="L91" t="s">
+        <v>628</v>
+      </c>
+      <c r="M91" t="n">
+        <v>3</v>
+      </c>
+      <c r="N91" t="s">
+        <v>469</v>
+      </c>
+      <c r="O91" t="s">
+        <v>53</v>
+      </c>
+      <c r="P91" t="s"/>
+      <c r="Q91" t="s"/>
+      <c r="R91" t="s"/>
+      <c r="S91" t="s"/>
+      <c r="T91" t="s"/>
+      <c r="U91" t="s"/>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s">
+        <v>629</v>
+      </c>
+      <c r="X91" t="s">
+        <v>630</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>52261</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>632</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>633</v>
+      </c>
+      <c r="J92" t="s">
+        <v>634</v>
+      </c>
+      <c r="K92" t="s">
+        <v>635</v>
+      </c>
+      <c r="L92" t="s">
+        <v>636</v>
+      </c>
+      <c r="M92" t="n">
+        <v>4</v>
+      </c>
+      <c r="N92" t="s">
+        <v>469</v>
+      </c>
+      <c r="O92" t="s">
+        <v>53</v>
+      </c>
+      <c r="P92" t="s"/>
+      <c r="Q92" t="s"/>
+      <c r="R92" t="s"/>
+      <c r="S92" t="s"/>
+      <c r="T92" t="s"/>
+      <c r="U92" t="s"/>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>52261</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>638</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>639</v>
+      </c>
+      <c r="J93" t="s">
+        <v>640</v>
+      </c>
+      <c r="K93" t="s">
+        <v>641</v>
+      </c>
+      <c r="L93" t="s">
+        <v>642</v>
+      </c>
+      <c r="M93" t="n">
+        <v>4</v>
+      </c>
+      <c r="N93" t="s">
+        <v>469</v>
+      </c>
+      <c r="O93" t="s">
+        <v>68</v>
+      </c>
+      <c r="P93" t="s"/>
+      <c r="Q93" t="s"/>
+      <c r="R93" t="s"/>
+      <c r="S93" t="s"/>
+      <c r="T93" t="s"/>
+      <c r="U93" t="s"/>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>52261</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>644</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>645</v>
+      </c>
+      <c r="J94" t="s">
+        <v>646</v>
+      </c>
+      <c r="K94" t="s">
+        <v>647</v>
+      </c>
+      <c r="L94" t="s">
+        <v>648</v>
+      </c>
+      <c r="M94" t="n">
+        <v>4</v>
+      </c>
+      <c r="N94" t="s">
+        <v>649</v>
+      </c>
+      <c r="O94" t="s">
+        <v>68</v>
+      </c>
+      <c r="P94" t="s"/>
+      <c r="Q94" t="s"/>
+      <c r="R94" t="s"/>
+      <c r="S94" t="s"/>
+      <c r="T94" t="s"/>
+      <c r="U94" t="s"/>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>52261</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>651</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>652</v>
+      </c>
+      <c r="J95" t="s">
+        <v>653</v>
+      </c>
+      <c r="K95" t="s">
+        <v>654</v>
+      </c>
+      <c r="L95" t="s">
+        <v>655</v>
+      </c>
+      <c r="M95" t="n">
+        <v>5</v>
+      </c>
+      <c r="N95" t="s">
+        <v>649</v>
+      </c>
+      <c r="O95" t="s">
+        <v>167</v>
+      </c>
+      <c r="P95" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q95" t="s"/>
+      <c r="R95" t="s"/>
+      <c r="S95" t="n">
+        <v>5</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>5</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s">
+        <v>656</v>
+      </c>
+      <c r="X95" t="s">
+        <v>657</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>52261</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>659</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>660</v>
+      </c>
+      <c r="J96" t="s">
+        <v>661</v>
+      </c>
+      <c r="K96" t="s">
+        <v>662</v>
+      </c>
+      <c r="L96" t="s">
+        <v>663</v>
+      </c>
+      <c r="M96" t="n">
+        <v>5</v>
+      </c>
+      <c r="N96" t="s"/>
+      <c r="O96" t="s"/>
+      <c r="P96" t="s"/>
+      <c r="Q96" t="s"/>
+      <c r="R96" t="s"/>
+      <c r="S96" t="s"/>
+      <c r="T96" t="s"/>
+      <c r="U96" t="s"/>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s">
+        <v>664</v>
+      </c>
+      <c r="X96" t="s">
+        <v>665</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>52261</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>667</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>668</v>
+      </c>
+      <c r="J97" t="s">
+        <v>669</v>
+      </c>
+      <c r="K97" t="s">
+        <v>670</v>
+      </c>
+      <c r="L97" t="s">
+        <v>671</v>
+      </c>
+      <c r="M97" t="n">
+        <v>3</v>
+      </c>
+      <c r="N97" t="s">
+        <v>672</v>
+      </c>
+      <c r="O97" t="s">
+        <v>53</v>
+      </c>
+      <c r="P97" t="s"/>
+      <c r="Q97" t="s"/>
+      <c r="R97" t="s"/>
+      <c r="S97" t="n">
+        <v>5</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>3</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s">
+        <v>664</v>
+      </c>
+      <c r="X97" t="s">
+        <v>665</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>52261</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>674</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>675</v>
+      </c>
+      <c r="J98" t="s">
+        <v>676</v>
+      </c>
+      <c r="K98" t="s">
+        <v>677</v>
+      </c>
+      <c r="L98" t="s">
+        <v>678</v>
+      </c>
+      <c r="M98" t="n">
+        <v>4</v>
+      </c>
+      <c r="N98" t="s">
+        <v>679</v>
+      </c>
+      <c r="O98" t="s">
+        <v>167</v>
+      </c>
+      <c r="P98" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>4</v>
+      </c>
+      <c r="R98" t="s"/>
+      <c r="S98" t="s"/>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>4</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s">
+        <v>664</v>
+      </c>
+      <c r="X98" t="s">
+        <v>665</v>
+      </c>
+      <c r="Y98" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>52261</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>681</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>682</v>
+      </c>
+      <c r="J99" t="s">
+        <v>676</v>
+      </c>
+      <c r="K99" t="s">
+        <v>683</v>
+      </c>
+      <c r="L99" t="s">
+        <v>684</v>
+      </c>
+      <c r="M99" t="n">
+        <v>5</v>
+      </c>
+      <c r="N99" t="s">
+        <v>679</v>
+      </c>
+      <c r="O99" t="s">
+        <v>53</v>
+      </c>
+      <c r="P99" t="s"/>
+      <c r="Q99" t="s"/>
+      <c r="R99" t="s"/>
+      <c r="S99" t="s"/>
+      <c r="T99" t="s"/>
+      <c r="U99" t="s"/>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s">
+        <v>664</v>
+      </c>
+      <c r="X99" t="s">
+        <v>665</v>
+      </c>
+      <c r="Y99" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>52261</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>686</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>687</v>
+      </c>
+      <c r="J100" t="s">
+        <v>688</v>
+      </c>
+      <c r="K100" t="s">
+        <v>689</v>
+      </c>
+      <c r="L100" t="s">
+        <v>690</v>
+      </c>
+      <c r="M100" t="n">
+        <v>5</v>
+      </c>
+      <c r="N100" t="s">
+        <v>691</v>
+      </c>
+      <c r="O100" t="s">
+        <v>692</v>
+      </c>
+      <c r="P100" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>5</v>
+      </c>
+      <c r="R100" t="s"/>
+      <c r="S100" t="s"/>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>5</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s">
+        <v>664</v>
+      </c>
+      <c r="X100" t="s">
+        <v>665</v>
+      </c>
+      <c r="Y100" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>52261</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>694</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>695</v>
+      </c>
+      <c r="J101" t="s">
+        <v>696</v>
+      </c>
+      <c r="K101" t="s">
+        <v>697</v>
+      </c>
+      <c r="L101" t="s">
+        <v>698</v>
+      </c>
+      <c r="M101" t="n">
+        <v>4</v>
+      </c>
+      <c r="N101" t="s">
+        <v>699</v>
+      </c>
+      <c r="O101" t="s">
+        <v>68</v>
+      </c>
+      <c r="P101" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q101" t="s"/>
+      <c r="R101" t="s"/>
+      <c r="S101" t="n">
+        <v>5</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>5</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s">
+        <v>700</v>
+      </c>
+      <c r="X101" t="s">
+        <v>701</v>
+      </c>
+      <c r="Y101" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>52261</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>703</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>704</v>
+      </c>
+      <c r="J102" t="s">
+        <v>705</v>
+      </c>
+      <c r="K102" t="s">
+        <v>706</v>
+      </c>
+      <c r="L102" t="s">
+        <v>707</v>
+      </c>
+      <c r="M102" t="n">
+        <v>4</v>
+      </c>
+      <c r="N102" t="s">
+        <v>699</v>
+      </c>
+      <c r="O102" t="s">
+        <v>53</v>
+      </c>
+      <c r="P102" t="s"/>
+      <c r="Q102" t="s"/>
+      <c r="R102" t="s"/>
+      <c r="S102" t="s"/>
+      <c r="T102" t="s"/>
+      <c r="U102" t="s"/>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s">
+        <v>708</v>
+      </c>
+      <c r="X102" t="s">
+        <v>709</v>
+      </c>
+      <c r="Y102" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>52261</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>711</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>712</v>
+      </c>
+      <c r="J103" t="s">
+        <v>713</v>
+      </c>
+      <c r="K103" t="s">
+        <v>714</v>
+      </c>
+      <c r="L103" t="s">
+        <v>715</v>
+      </c>
+      <c r="M103" t="n">
+        <v>5</v>
+      </c>
+      <c r="N103" t="s">
+        <v>699</v>
+      </c>
+      <c r="O103" t="s">
+        <v>53</v>
+      </c>
+      <c r="P103" t="s"/>
+      <c r="Q103" t="s"/>
+      <c r="R103" t="s"/>
+      <c r="S103" t="s"/>
+      <c r="T103" t="s"/>
+      <c r="U103" t="s"/>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s">
+        <v>716</v>
+      </c>
+      <c r="X103" t="s">
+        <v>717</v>
+      </c>
+      <c r="Y103" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>52261</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>719</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" t="s">
+        <v>720</v>
+      </c>
+      <c r="J104" t="s">
+        <v>721</v>
+      </c>
+      <c r="K104" t="s">
+        <v>722</v>
+      </c>
+      <c r="L104" t="s">
+        <v>723</v>
+      </c>
+      <c r="M104" t="n">
+        <v>5</v>
+      </c>
+      <c r="N104" t="s">
+        <v>699</v>
+      </c>
+      <c r="O104" t="s">
+        <v>68</v>
+      </c>
+      <c r="P104" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q104" t="s"/>
+      <c r="R104" t="s"/>
+      <c r="S104" t="s"/>
+      <c r="T104" t="s"/>
+      <c r="U104" t="n">
+        <v>5</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s">
+        <v>716</v>
+      </c>
+      <c r="X104" t="s">
+        <v>717</v>
+      </c>
+      <c r="Y104" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>52261</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" t="s">
+        <v>725</v>
+      </c>
+      <c r="G105" t="s">
+        <v>46</v>
+      </c>
+      <c r="H105" t="s">
+        <v>47</v>
+      </c>
+      <c r="I105" t="s">
+        <v>726</v>
+      </c>
+      <c r="J105" t="s">
+        <v>727</v>
+      </c>
+      <c r="K105" t="s">
+        <v>728</v>
+      </c>
+      <c r="L105" t="s">
+        <v>729</v>
+      </c>
+      <c r="M105" t="n">
+        <v>5</v>
+      </c>
+      <c r="N105" t="s">
+        <v>699</v>
+      </c>
+      <c r="O105" t="s">
+        <v>53</v>
+      </c>
+      <c r="P105" t="s"/>
+      <c r="Q105" t="s"/>
+      <c r="R105" t="n">
+        <v>5</v>
+      </c>
+      <c r="S105" t="s"/>
+      <c r="T105" t="s"/>
+      <c r="U105" t="n">
+        <v>1</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s">
+        <v>716</v>
+      </c>
+      <c r="X105" t="s">
+        <v>717</v>
+      </c>
+      <c r="Y105" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>52261</v>
+      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
+      <c r="D106" t="n">
+        <v>105</v>
+      </c>
+      <c r="E106" t="s">
+        <v>44</v>
+      </c>
+      <c r="F106" t="s">
+        <v>731</v>
+      </c>
+      <c r="G106" t="s">
+        <v>46</v>
+      </c>
+      <c r="H106" t="s">
+        <v>47</v>
+      </c>
+      <c r="I106" t="s">
+        <v>732</v>
+      </c>
+      <c r="J106" t="s">
+        <v>733</v>
+      </c>
+      <c r="K106" t="s">
+        <v>734</v>
+      </c>
+      <c r="L106" t="s">
+        <v>735</v>
+      </c>
+      <c r="M106" t="n">
+        <v>5</v>
+      </c>
+      <c r="N106" t="s"/>
+      <c r="O106" t="s"/>
+      <c r="P106" t="s"/>
+      <c r="Q106" t="s"/>
+      <c r="R106" t="s"/>
+      <c r="S106" t="s"/>
+      <c r="T106" t="s"/>
+      <c r="U106" t="s"/>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="s">
+        <v>716</v>
+      </c>
+      <c r="X106" t="s">
+        <v>717</v>
+      </c>
+      <c r="Y106" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>52261</v>
+      </c>
+      <c r="B107" t="s"/>
+      <c r="C107" t="s"/>
+      <c r="D107" t="n">
+        <v>106</v>
+      </c>
+      <c r="E107" t="s">
+        <v>44</v>
+      </c>
+      <c r="F107" t="s">
+        <v>737</v>
+      </c>
+      <c r="G107" t="s">
+        <v>46</v>
+      </c>
+      <c r="H107" t="s">
+        <v>47</v>
+      </c>
+      <c r="I107" t="s">
+        <v>738</v>
+      </c>
+      <c r="J107" t="s">
+        <v>739</v>
+      </c>
+      <c r="K107" t="s">
+        <v>740</v>
+      </c>
+      <c r="L107" t="s">
+        <v>741</v>
+      </c>
+      <c r="M107" t="n">
+        <v>4</v>
+      </c>
+      <c r="N107" t="s">
+        <v>699</v>
+      </c>
+      <c r="O107" t="s">
+        <v>167</v>
+      </c>
+      <c r="P107" t="s"/>
+      <c r="Q107" t="s"/>
+      <c r="R107" t="n">
+        <v>4</v>
+      </c>
+      <c r="S107" t="n">
+        <v>5</v>
+      </c>
+      <c r="T107" t="s"/>
+      <c r="U107" t="n">
+        <v>5</v>
+      </c>
+      <c r="V107" t="n">
+        <v>0</v>
+      </c>
+      <c r="W107" t="s">
+        <v>716</v>
+      </c>
+      <c r="X107" t="s">
+        <v>717</v>
+      </c>
+      <c r="Y107" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>52261</v>
+      </c>
+      <c r="B108" t="s"/>
+      <c r="C108" t="s"/>
+      <c r="D108" t="n">
+        <v>107</v>
+      </c>
+      <c r="E108" t="s">
+        <v>44</v>
+      </c>
+      <c r="F108" t="s">
+        <v>743</v>
+      </c>
+      <c r="G108" t="s">
+        <v>46</v>
+      </c>
+      <c r="H108" t="s">
+        <v>47</v>
+      </c>
+      <c r="I108" t="s">
+        <v>744</v>
+      </c>
+      <c r="J108" t="s">
+        <v>745</v>
+      </c>
+      <c r="K108" t="s">
+        <v>746</v>
+      </c>
+      <c r="L108" t="s">
+        <v>747</v>
+      </c>
+      <c r="M108" t="n">
+        <v>4</v>
+      </c>
+      <c r="N108" t="s">
+        <v>699</v>
+      </c>
+      <c r="O108" t="s">
+        <v>68</v>
+      </c>
+      <c r="P108" t="s"/>
+      <c r="Q108" t="s"/>
+      <c r="R108" t="s"/>
+      <c r="S108" t="n">
+        <v>5</v>
+      </c>
+      <c r="T108" t="s"/>
+      <c r="U108" t="n">
+        <v>5</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0</v>
+      </c>
+      <c r="W108" t="s">
+        <v>716</v>
+      </c>
+      <c r="X108" t="s">
+        <v>717</v>
+      </c>
+      <c r="Y108" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>52261</v>
+      </c>
+      <c r="B109" t="s"/>
+      <c r="C109" t="s"/>
+      <c r="D109" t="n">
+        <v>108</v>
+      </c>
+      <c r="E109" t="s">
+        <v>44</v>
+      </c>
+      <c r="F109" t="s">
+        <v>749</v>
+      </c>
+      <c r="G109" t="s">
+        <v>46</v>
+      </c>
+      <c r="H109" t="s">
+        <v>47</v>
+      </c>
+      <c r="I109" t="s">
+        <v>750</v>
+      </c>
+      <c r="J109" t="s">
+        <v>751</v>
+      </c>
+      <c r="K109" t="s">
+        <v>752</v>
+      </c>
+      <c r="L109" t="s">
+        <v>753</v>
+      </c>
+      <c r="M109" t="n">
+        <v>4</v>
+      </c>
+      <c r="N109" t="s">
+        <v>691</v>
+      </c>
+      <c r="O109" t="s">
+        <v>53</v>
+      </c>
+      <c r="P109" t="s"/>
+      <c r="Q109" t="n">
+        <v>4</v>
+      </c>
+      <c r="R109" t="s"/>
+      <c r="S109" t="n">
+        <v>4</v>
+      </c>
+      <c r="T109" t="s"/>
+      <c r="U109" t="n">
+        <v>5</v>
+      </c>
+      <c r="V109" t="n">
+        <v>0</v>
+      </c>
+      <c r="W109" t="s">
+        <v>754</v>
+      </c>
+      <c r="X109" t="s">
+        <v>755</v>
+      </c>
+      <c r="Y109" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>52261</v>
+      </c>
+      <c r="B110" t="s"/>
+      <c r="C110" t="s"/>
+      <c r="D110" t="n">
+        <v>109</v>
+      </c>
+      <c r="E110" t="s">
+        <v>44</v>
+      </c>
+      <c r="F110" t="s">
+        <v>757</v>
+      </c>
+      <c r="G110" t="s">
+        <v>46</v>
+      </c>
+      <c r="H110" t="s">
+        <v>47</v>
+      </c>
+      <c r="I110" t="s">
+        <v>758</v>
+      </c>
+      <c r="J110" t="s">
+        <v>759</v>
+      </c>
+      <c r="K110" t="s">
+        <v>760</v>
+      </c>
+      <c r="L110" t="s">
+        <v>761</v>
+      </c>
+      <c r="M110" t="n">
+        <v>4</v>
+      </c>
+      <c r="N110" t="s">
+        <v>691</v>
+      </c>
+      <c r="O110" t="s">
+        <v>53</v>
+      </c>
+      <c r="P110" t="s"/>
+      <c r="Q110" t="n">
+        <v>5</v>
+      </c>
+      <c r="R110" t="s"/>
+      <c r="S110" t="s"/>
+      <c r="T110" t="s"/>
+      <c r="U110" t="n">
+        <v>5</v>
+      </c>
+      <c r="V110" t="n">
+        <v>0</v>
+      </c>
+      <c r="W110" t="s">
+        <v>762</v>
+      </c>
+      <c r="X110" t="s">
+        <v>763</v>
+      </c>
+      <c r="Y110" t="s">
+        <v>764</v>
       </c>
     </row>
   </sheetData>
